--- a/ROST.xlsx
+++ b/ROST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2EF717-D029-4009-BE2B-9A0704499B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEE393-24F7-4301-8DB5-9C1D04908D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Ross Stores</t>
   </si>
@@ -179,13 +179,39 @@
   <si>
     <t>ROST</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1.831 locations in 43 US States</t>
+  </si>
+  <si>
+    <t>CEO:</t>
+  </si>
+  <si>
+    <t>James G. Conroy</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>Ross Dress for Less</t>
+  </si>
+  <si>
+    <t>Total Stores</t>
+  </si>
+  <si>
+    <t>dd's Discount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -367,7 +393,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -392,6 +418,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -728,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629D2-C268-4098-9C30-B4F541321799}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>126.5</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="16">
-        <v>326.01400000000001</v>
+        <v>328.82146899999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -783,7 +820,7 @@
       </c>
       <c r="H5" s="16">
         <f>H4*H3</f>
-        <v>41240.771000000001</v>
+        <v>49816.452553499999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="16">
-        <v>4654.3159999999998</v>
+        <v>4730.7439999999997</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -808,11 +845,11 @@
         <v>5</v>
       </c>
       <c r="H7" s="16">
-        <f>679.596+1513.2+2693.259</f>
-        <v>4886.0550000000003</v>
+        <f>1515.08+699.731</f>
+        <v>2214.8109999999997</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -831,7 +868,7 @@
       </c>
       <c r="H8" s="16">
         <f>H5-H6+H7</f>
-        <v>41472.51</v>
+        <v>47300.519553500002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,6 +894,22 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -868,13 +921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D02FF4-0653-4938-9B83-B4E1E02AD4C6}">
-  <dimension ref="A1:Q481"/>
+  <dimension ref="A1:U485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,12 +936,12 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,979 +985,1137 @@
       <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
+        <v>1772</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
+        <f>+Q3</f>
+        <v>1764</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
+        <v>1795</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
+        <f>+R3</f>
+        <v>1831</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
+        <v>1693</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>1764</v>
+      </c>
+      <c r="R3" s="23">
+        <v>1831</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <v>339</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
+        <f t="shared" ref="F4:F5" si="0">+Q4</f>
+        <v>345</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
+        <v>353</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
+        <f t="shared" ref="J4:J5" si="1">+R4</f>
+        <v>355</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23">
+        <v>322</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>345</v>
+      </c>
+      <c r="R4" s="23">
+        <v>355</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25">
+        <v>2061</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>2109</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
+        <v>2148</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25">
+        <f t="shared" si="1"/>
+        <v>2186</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25">
+        <v>2015</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>2109</v>
+      </c>
+      <c r="R5" s="26">
+        <v>2186</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C8" s="17">
         <v>4494.6859999999997</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D8" s="17">
+        <v>4934.9049999999997</v>
+      </c>
+      <c r="E8" s="17">
         <v>4924.8490000000002</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F8" s="17">
         <v>4934.9049999999997</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G8" s="17">
         <v>4858.067</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H8" s="17">
         <v>5287.5190000000002</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I8" s="17">
         <v>5071.3540000000003</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17">
+      <c r="J8" s="17">
+        <f>+R8-SUM(G8:I8)</f>
+        <v>5912.2790000000023</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17">
         <v>14134.732</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M8" s="17">
         <v>14983.540999999999</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N8" s="17">
         <v>16039.073</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O8" s="17">
         <v>18916.243999999999</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P8" s="17">
         <v>18695.829000000002</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q8" s="17">
         <v>20376.940999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="R8" s="17">
+        <v>21129.219000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C9" s="16">
         <v>3292.6060000000002</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="D9" s="16">
+        <v>3569.3670000000002</v>
+      </c>
+      <c r="E9" s="16">
         <v>3564.268</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F9" s="16">
         <v>3569.3670000000002</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G9" s="16">
         <v>3490.672</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H9" s="16">
         <v>3791.9290000000001</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I9" s="16">
         <v>3634.2829999999999</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16">
-        <v>10042.638000000001</v>
-      </c>
-      <c r="M5" s="16">
-        <v>10726.277</v>
-      </c>
-      <c r="N5" s="16">
-        <v>11536.187</v>
-      </c>
-      <c r="O5" s="16">
-        <v>13708.906999999999</v>
-      </c>
-      <c r="P5" s="16">
-        <v>13946.23</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>14801.601000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="16">
-        <f t="shared" ref="C6" si="0">C4-C5</f>
-        <v>1202.0799999999995</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6" si="1">D4-D5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" ref="E6" si="2">E4-E5</f>
-        <v>1360.5810000000001</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" ref="F6" si="3">F4-F5</f>
-        <v>1365.5379999999996</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" ref="G6" si="4">G4-G5</f>
-        <v>1367.395</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6" si="5">H4-H5</f>
-        <v>1495.5900000000001</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" ref="I6" si="6">I4-I5</f>
-        <v>1437.0710000000004</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" ref="J6" si="7">J4-J5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16">
-        <f t="shared" ref="L6:P6" si="8">L4-L5</f>
-        <v>4092.0939999999991</v>
-      </c>
-      <c r="M6" s="16">
-        <f t="shared" si="8"/>
-        <v>4257.2639999999992</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" si="8"/>
-        <v>4502.8860000000004</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="8"/>
-        <v>5207.3369999999995</v>
-      </c>
-      <c r="P6" s="16">
-        <f t="shared" si="8"/>
-        <v>4749.599000000002</v>
-      </c>
-      <c r="Q6" s="16">
-        <f>Q4-Q5</f>
-        <v>5575.3399999999983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="16">
-        <v>746.22199999999998</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
-        <v>810.47</v>
-      </c>
-      <c r="F7" s="16">
-        <v>807.89800000000002</v>
-      </c>
-      <c r="G7" s="16">
-        <v>776.28200000000004</v>
-      </c>
-      <c r="H7" s="16">
-        <v>836.35699999999997</v>
-      </c>
-      <c r="I7" s="16">
-        <v>832.85500000000002</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16">
-        <v>2042.6980000000001</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2216.5500000000002</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2356.7040000000002</v>
-      </c>
-      <c r="O7" s="16">
-        <v>2874.4690000000001</v>
-      </c>
-      <c r="P7" s="16">
-        <v>2759.268</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>3267.6770000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" ref="C8" si="9">C6-C7</f>
-        <v>455.85799999999949</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8" si="10">D6-D7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8" si="11">E6-E7</f>
-        <v>550.1110000000001</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" ref="F8" si="12">F6-F7</f>
-        <v>557.63999999999953</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" ref="G8" si="13">G6-G7</f>
-        <v>591.11299999999994</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" ref="H8" si="14">H6-H7</f>
-        <v>659.23300000000017</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8" si="15">I6-I7</f>
-        <v>604.21600000000035</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" ref="J8" si="16">J6-J7</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16">
-        <f t="shared" ref="L8:P8" si="17">L6-L7</f>
-        <v>2049.3959999999988</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" si="17"/>
-        <v>2040.713999999999</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="17"/>
-        <v>2146.1820000000002</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="17"/>
-        <v>2332.8679999999995</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="17"/>
-        <v>1990.3310000000019</v>
-      </c>
-      <c r="Q8" s="16">
-        <f>Q6-Q7</f>
-        <v>2307.6629999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="16">
-        <v>31.396999999999998</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
-        <v>43.319000000000003</v>
-      </c>
-      <c r="F9" s="16">
-        <v>37.213999999999999</v>
-      </c>
-      <c r="G9" s="16">
-        <v>45.95</v>
-      </c>
-      <c r="H9" s="16">
-        <v>43.359000000000002</v>
-      </c>
-      <c r="I9" s="16">
-        <v>42.527000000000001</v>
-      </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="22">
+        <f>+R9-SUM(G9:I9)</f>
+        <v>4343.6219999999994</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16">
-        <v>-7.6760000000000002</v>
+        <v>10042.638000000001</v>
       </c>
       <c r="M9" s="16">
-        <v>10.162000000000001</v>
+        <v>10726.277</v>
       </c>
       <c r="N9" s="16">
-        <v>18.106000000000002</v>
+        <v>11536.187</v>
       </c>
       <c r="O9" s="16">
-        <v>-74.328000000000003</v>
+        <v>13708.906999999999</v>
       </c>
       <c r="P9" s="16">
-        <v>-2.8420000000000001</v>
+        <v>13946.23</v>
       </c>
       <c r="Q9" s="16">
-        <v>164.11799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14801.601000000001</v>
+      </c>
+      <c r="R9" s="16">
+        <v>15260.505999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" ref="C10" si="18">C8+C9</f>
-        <v>487.25499999999948</v>
+        <f t="shared" ref="C10" si="2">C8-C9</f>
+        <v>1202.0799999999995</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" ref="D10" si="19">D8+D9</f>
-        <v>0</v>
+        <f t="shared" ref="D10" si="3">D8-D9</f>
+        <v>1365.5379999999996</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" ref="E10" si="20">E8+E9</f>
-        <v>593.43000000000006</v>
+        <f t="shared" ref="E10" si="4">E8-E9</f>
+        <v>1360.5810000000001</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10" si="21">F8+F9</f>
-        <v>594.85399999999959</v>
+        <f t="shared" ref="F10" si="5">F8-F9</f>
+        <v>1365.5379999999996</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" ref="G10" si="22">G8+G9</f>
-        <v>637.06299999999999</v>
+        <f t="shared" ref="G10" si="6">G8-G9</f>
+        <v>1367.395</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10" si="23">H8+H9</f>
-        <v>702.59200000000021</v>
+        <f t="shared" ref="H10" si="7">H8-H9</f>
+        <v>1495.5900000000001</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" ref="I10" si="24">I8+I9</f>
-        <v>646.74300000000039</v>
+        <f t="shared" ref="I10" si="8">I8-I9</f>
+        <v>1437.0710000000004</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" ref="J10" si="25">J8+J9</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16"/>
+        <f t="shared" ref="J10" si="9">J8-J9</f>
+        <v>1568.6570000000029</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="16">
-        <f t="shared" ref="L10:P10" si="26">L8+L9</f>
-        <v>2041.7199999999989</v>
+        <f t="shared" ref="L10:P10" si="10">L8-L9</f>
+        <v>4092.0939999999991</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" si="26"/>
-        <v>2050.8759999999988</v>
+        <f t="shared" si="10"/>
+        <v>4257.2639999999992</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="26"/>
-        <v>2164.2880000000005</v>
+        <f t="shared" si="10"/>
+        <v>4502.8860000000004</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="26"/>
-        <v>2258.5399999999995</v>
+        <f t="shared" si="10"/>
+        <v>5207.3369999999995</v>
       </c>
       <c r="P10" s="16">
-        <f t="shared" si="26"/>
-        <v>1987.4890000000019</v>
+        <f t="shared" si="10"/>
+        <v>4749.599000000002</v>
       </c>
       <c r="Q10" s="16">
-        <f>Q8+Q9</f>
-        <v>2471.7809999999981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f>Q8-Q9</f>
+        <v>5575.3399999999983</v>
+      </c>
+      <c r="R10" s="16">
+        <f>R8-R9</f>
+        <v>5868.7130000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="16">
-        <v>115.06399999999999</v>
-      </c>
-      <c r="D11" s="16"/>
+        <v>746.22199999999998</v>
+      </c>
+      <c r="D11" s="16">
+        <v>807.89800000000002</v>
+      </c>
       <c r="E11" s="16">
-        <v>146.10300000000001</v>
+        <v>810.47</v>
       </c>
       <c r="F11" s="16">
-        <v>148.535</v>
+        <v>807.89800000000002</v>
       </c>
       <c r="G11" s="16">
-        <v>149.07300000000001</v>
+        <v>776.28200000000004</v>
       </c>
       <c r="H11" s="16">
-        <v>175.435</v>
+        <v>836.35699999999997</v>
       </c>
       <c r="I11" s="16">
-        <v>157.935</v>
-      </c>
-      <c r="J11" s="16"/>
+        <v>832.85500000000002</v>
+      </c>
+      <c r="J11" s="22">
+        <f>+R11-SUM(G11:I11)</f>
+        <v>837.63299999999981</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16">
-        <v>677.96699999999998</v>
+        <v>2042.6980000000001</v>
       </c>
       <c r="M11" s="16">
-        <v>463.41899999999998</v>
+        <v>2216.5500000000002</v>
       </c>
       <c r="N11" s="16">
-        <v>503.36</v>
+        <v>2356.7040000000002</v>
       </c>
       <c r="O11" s="16">
-        <v>535.95100000000002</v>
+        <v>2874.4690000000001</v>
       </c>
       <c r="P11" s="16">
-        <v>475.44799999999998</v>
+        <v>2759.268</v>
       </c>
       <c r="Q11" s="16">
-        <v>597.26099999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3267.6770000000001</v>
+      </c>
+      <c r="R11" s="16">
+        <v>3283.127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16">
-        <f t="shared" ref="C12" si="27">C10-C11</f>
-        <v>372.19099999999946</v>
+        <f t="shared" ref="C12" si="11">C10-C11</f>
+        <v>455.85799999999949</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" ref="D12" si="28">D10-D11</f>
-        <v>0</v>
+        <f t="shared" ref="D12" si="12">D10-D11</f>
+        <v>557.63999999999953</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" ref="E12" si="29">E10-E11</f>
-        <v>447.32700000000006</v>
+        <f t="shared" ref="E12" si="13">E10-E11</f>
+        <v>550.1110000000001</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" ref="F12" si="30">F10-F11</f>
-        <v>446.31899999999962</v>
+        <f t="shared" ref="F12" si="14">F10-F11</f>
+        <v>557.63999999999953</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" ref="G12" si="31">G10-G11</f>
-        <v>487.99</v>
+        <f t="shared" ref="G12" si="15">G10-G11</f>
+        <v>591.11299999999994</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" ref="H12" si="32">H10-H11</f>
-        <v>527.15700000000015</v>
+        <f t="shared" ref="H12" si="16">H10-H11</f>
+        <v>659.23300000000017</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" ref="I12" si="33">I10-I11</f>
-        <v>488.80800000000039</v>
+        <f t="shared" ref="I12" si="17">I10-I11</f>
+        <v>604.21600000000035</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" ref="J12" si="34">J10-J11</f>
-        <v>0</v>
+        <f t="shared" ref="J12" si="18">J10-J11</f>
+        <v>731.02400000000307</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="16">
-        <f t="shared" ref="L12:P12" si="35">L10-L11</f>
-        <v>1363.7529999999988</v>
+        <f t="shared" ref="L12:P12" si="19">L10-L11</f>
+        <v>2049.3959999999988</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="35"/>
-        <v>1587.456999999999</v>
+        <f t="shared" si="19"/>
+        <v>2040.713999999999</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="35"/>
-        <v>1660.9280000000003</v>
+        <f t="shared" si="19"/>
+        <v>2146.1820000000002</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="35"/>
-        <v>1722.5889999999995</v>
+        <f t="shared" si="19"/>
+        <v>2332.8679999999995</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" si="35"/>
-        <v>1512.041000000002</v>
+        <f t="shared" si="19"/>
+        <v>1990.3310000000019</v>
       </c>
       <c r="Q12" s="16">
         <f>Q10-Q11</f>
-        <v>1874.5199999999982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+        <v>2307.6629999999982</v>
+      </c>
+      <c r="R12" s="16">
+        <f>R10-R11</f>
+        <v>2585.5860000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="16">
+        <v>31.396999999999998</v>
+      </c>
+      <c r="D13" s="16">
+        <v>37.213999999999999</v>
+      </c>
+      <c r="E13" s="16">
+        <v>43.319000000000003</v>
+      </c>
+      <c r="F13" s="16">
+        <v>37.213999999999999</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45.95</v>
+      </c>
+      <c r="H13" s="16">
+        <v>43.359000000000002</v>
+      </c>
+      <c r="I13" s="16">
+        <v>42.527000000000001</v>
+      </c>
+      <c r="J13" s="22">
+        <f>+R13-SUM(G13:I13)</f>
+        <v>39.731999999999999</v>
+      </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="16">
+        <v>-7.6760000000000002</v>
+      </c>
+      <c r="M13" s="16">
+        <v>10.162000000000001</v>
+      </c>
+      <c r="N13" s="16">
+        <v>18.106000000000002</v>
+      </c>
+      <c r="O13" s="16">
+        <v>-74.328000000000003</v>
+      </c>
+      <c r="P13" s="16">
+        <v>-2.8420000000000001</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>164.11799999999999</v>
+      </c>
+      <c r="R13" s="16">
+        <v>171.56800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" ref="C14:J14" si="36">C12/C15</f>
-        <v>1.100997192714664</v>
-      </c>
-      <c r="D14" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="C14" si="20">C12+C13</f>
+        <v>487.25499999999948</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14" si="21">D12+D13</f>
+        <v>594.85399999999959</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="36"/>
-        <v>1.3381725608917026</v>
+        <f t="shared" ref="E14" si="22">E12+E13</f>
+        <v>593.43000000000006</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="36"/>
-        <v>1.3274177574346198</v>
+        <f t="shared" ref="F14" si="23">F12+F13</f>
+        <v>594.85399999999959</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="36"/>
-        <v>1.4731417807268052</v>
+        <f t="shared" ref="G14" si="24">G12+G13</f>
+        <v>637.06299999999999</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="36"/>
-        <v>1.6003940593578476</v>
+        <f t="shared" ref="H14" si="25">H12+H13</f>
+        <v>702.59200000000021</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="36"/>
-        <v>1.4915870739373238</v>
-      </c>
-      <c r="J14" s="16" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="I14" si="26">I12+I13</f>
+        <v>646.74300000000039</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" ref="J14" si="27">J12+J13</f>
+        <v>770.75600000000304</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16">
-        <f t="shared" ref="L14:Q14" si="37">L12/L15</f>
-        <v>3.5777702571528982</v>
+        <f t="shared" ref="L14:P14" si="28">L12+L13</f>
+        <v>2041.7199999999989</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="37"/>
-        <v>4.2958463790784558</v>
+        <f t="shared" si="28"/>
+        <v>2050.8759999999988</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="37"/>
-        <v>4.6334841628959289</v>
+        <f t="shared" si="28"/>
+        <v>2164.2880000000005</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="37"/>
-        <v>4.900735712497438</v>
+        <f t="shared" si="28"/>
+        <v>2258.5399999999995</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="37"/>
-        <v>4.4024812783154621</v>
+        <f t="shared" si="28"/>
+        <v>1987.4890000000019</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="37"/>
-        <v>5.5924603281153447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <f>Q12+Q13</f>
+        <v>2471.7809999999981</v>
+      </c>
+      <c r="R14" s="16">
+        <f>R12+R13</f>
+        <v>2757.1540000000018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16">
-        <v>338.04899999999998</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>115.06399999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>148.535</v>
+      </c>
       <c r="E15" s="16">
-        <v>334.28199999999998</v>
+        <v>146.10300000000001</v>
       </c>
       <c r="F15" s="16">
-        <v>336.23099999999999</v>
+        <v>148.535</v>
       </c>
       <c r="G15" s="16">
-        <v>331.25799999999998</v>
+        <v>149.07300000000001</v>
       </c>
       <c r="H15" s="16">
-        <v>329.392</v>
+        <v>175.435</v>
       </c>
       <c r="I15" s="16">
-        <v>327.71</v>
-      </c>
-      <c r="J15" s="16"/>
+        <v>157.935</v>
+      </c>
+      <c r="J15" s="22">
+        <f>+R15-SUM(G15:I15)</f>
+        <v>183.98099999999994</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16">
-        <v>381.17399999999998</v>
+        <v>677.96699999999998</v>
       </c>
       <c r="M15" s="16">
-        <v>369.53300000000002</v>
+        <v>463.41899999999998</v>
       </c>
       <c r="N15" s="16">
-        <v>358.46199999999999</v>
+        <v>503.36</v>
       </c>
       <c r="O15" s="16">
-        <v>351.49599999999998</v>
+        <v>535.95100000000002</v>
       </c>
       <c r="P15" s="16">
-        <v>343.452</v>
+        <v>475.44799999999998</v>
       </c>
       <c r="Q15" s="16">
-        <v>335.18700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
+        <v>597.26099999999997</v>
+      </c>
+      <c r="R15" s="16">
+        <v>666.42399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ref="C16" si="29">C14-C15</f>
+        <v>372.19099999999946</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16" si="30">D14-D15</f>
+        <v>446.31899999999962</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" ref="E16" si="31">E14-E15</f>
+        <v>447.32700000000006</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" ref="F16" si="32">F14-F15</f>
+        <v>446.31899999999962</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ref="G16" si="33">G14-G15</f>
+        <v>487.99</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16" si="34">H14-H15</f>
+        <v>527.15700000000015</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ref="I16" si="35">I14-I15</f>
+        <v>488.80800000000039</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" ref="J16" si="36">J14-J15</f>
+        <v>586.77500000000305</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16">
+        <f t="shared" ref="L16:P16" si="37">L14-L15</f>
+        <v>1363.7529999999988</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="37"/>
+        <v>1587.456999999999</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="37"/>
+        <v>1660.9280000000003</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="37"/>
+        <v>1722.5889999999995</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="37"/>
+        <v>1512.041000000002</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>Q14-Q15</f>
+        <v>1874.5199999999982</v>
+      </c>
+      <c r="R16" s="16">
+        <f>R14-R15</f>
+        <v>2090.7300000000018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="18">
-        <f>G4/C4-1</f>
-        <v>8.084680442638259E-2</v>
-      </c>
-      <c r="H17" s="18" t="e">
-        <f t="shared" ref="H17:J17" si="38">H4/D4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="18">
-        <f t="shared" si="38"/>
-        <v>2.9748120196172456E-2</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="38"/>
-        <v>-1</v>
-      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="18">
-        <f t="shared" ref="M17:P17" si="39">M4/L4-1</f>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" ref="C18:J18" si="38">C16/C19</f>
+        <v>1.100997192714664</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.3274177574346198</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.3381725608917026</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.3274177574346198</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.4731417807268052</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.6003940593578476</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.4915870739373238</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.7857197201401218</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <f t="shared" ref="L18:R18" si="39">L16/L19</f>
+        <v>3.5777702571528982</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="39"/>
+        <v>4.2958463790784558</v>
+      </c>
+      <c r="N18" s="21">
+        <f t="shared" si="39"/>
+        <v>4.6334841628959289</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="39"/>
+        <v>4.900735712497438</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="39"/>
+        <v>4.4024812783154621</v>
+      </c>
+      <c r="Q18" s="21">
+        <f t="shared" si="39"/>
+        <v>5.5924603281153447</v>
+      </c>
+      <c r="R18" s="21">
+        <f t="shared" si="39"/>
+        <v>6.3626735809953399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="16">
+        <v>338.04899999999998</v>
+      </c>
+      <c r="D19" s="16">
+        <v>336.23099999999999</v>
+      </c>
+      <c r="E19" s="16">
+        <v>334.28199999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <v>336.23099999999999</v>
+      </c>
+      <c r="G19" s="16">
+        <v>331.25799999999998</v>
+      </c>
+      <c r="H19" s="16">
+        <v>329.392</v>
+      </c>
+      <c r="I19" s="16">
+        <v>327.71</v>
+      </c>
+      <c r="J19" s="16">
+        <f>+R19</f>
+        <v>328.59300000000002</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16">
+        <v>381.17399999999998</v>
+      </c>
+      <c r="M19" s="16">
+        <v>369.53300000000002</v>
+      </c>
+      <c r="N19" s="16">
+        <v>358.46199999999999</v>
+      </c>
+      <c r="O19" s="16">
+        <v>351.49599999999998</v>
+      </c>
+      <c r="P19" s="16">
+        <v>343.452</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>335.18700000000001</v>
+      </c>
+      <c r="R19" s="16">
+        <v>328.59300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="20">
+        <f>G8/C8-1</f>
+        <v>8.084680442638259E-2</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" ref="H21:J21" si="40">H8/D8-1</f>
+        <v>7.1453047221780475E-2</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="40"/>
+        <v>2.9748120196172456E-2</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="40"/>
+        <v>0.19805325533115692</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="20">
+        <f t="shared" ref="M21:P21" si="41">M8/L8-1</f>
         <v>6.0051297753646704E-2</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" si="39"/>
+      <c r="N21" s="20">
+        <f t="shared" si="41"/>
         <v>7.0446098155302561E-2</v>
       </c>
-      <c r="O17" s="18">
-        <f t="shared" si="39"/>
+      <c r="O21" s="20">
+        <f t="shared" si="41"/>
         <v>0.17938511783068756</v>
       </c>
-      <c r="P17" s="18">
-        <f t="shared" si="39"/>
+      <c r="P21" s="20">
+        <f t="shared" si="41"/>
         <v>-1.1652154624353428E-2</v>
       </c>
-      <c r="Q17" s="18">
-        <f>Q4/P4-1</f>
+      <c r="Q21" s="20">
+        <f>Q8/P8-1</f>
         <v>8.9919093718711096E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="R21" s="20">
+        <f>R8/Q8-1</f>
+        <v>3.691810267301654E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18">
-        <f t="shared" ref="C18:J18" si="40">C6/C4</f>
+      <c r="C22" s="18">
+        <f t="shared" ref="C22:J22" si="42">C10/C8</f>
         <v>0.26744471137694592</v>
       </c>
-      <c r="D18" s="18" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" si="40"/>
+      <c r="D22" s="18">
+        <f t="shared" si="42"/>
+        <v>0.27671008864405688</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="42"/>
         <v>0.27626857188920922</v>
       </c>
-      <c r="F18" s="18">
-        <f t="shared" si="40"/>
+      <c r="F22" s="18">
+        <f t="shared" si="42"/>
         <v>0.27671008864405688</v>
       </c>
-      <c r="G18" s="18">
-        <f t="shared" si="40"/>
+      <c r="G22" s="18">
+        <f t="shared" si="42"/>
         <v>0.2814689463936994</v>
       </c>
-      <c r="H18" s="18">
-        <f t="shared" si="40"/>
+      <c r="H22" s="18">
+        <f t="shared" si="42"/>
         <v>0.28285288431114858</v>
       </c>
-      <c r="I18" s="18">
-        <f t="shared" si="40"/>
+      <c r="I22" s="18">
+        <f t="shared" si="42"/>
         <v>0.283370279416503</v>
       </c>
-      <c r="J18" s="18" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="18">
-        <f t="shared" ref="L18:P18" si="41">L6/L4</f>
+      <c r="J22" s="18">
+        <f t="shared" si="42"/>
+        <v>0.26532188349027547</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18">
+        <f t="shared" ref="L22:P22" si="43">L10/L8</f>
         <v>0.28950630263099431</v>
       </c>
-      <c r="M18" s="18">
-        <f t="shared" si="41"/>
+      <c r="M22" s="18">
+        <f t="shared" si="43"/>
         <v>0.28412936568198394</v>
       </c>
-      <c r="N18" s="18">
-        <f t="shared" si="41"/>
+      <c r="N22" s="18">
+        <f t="shared" si="43"/>
         <v>0.28074477870385656</v>
       </c>
-      <c r="O18" s="18">
-        <f t="shared" si="41"/>
+      <c r="O22" s="18">
+        <f t="shared" si="43"/>
         <v>0.27528387770849222</v>
       </c>
-      <c r="P18" s="18">
-        <f t="shared" si="41"/>
+      <c r="P22" s="18">
+        <f t="shared" si="43"/>
         <v>0.25404591580293134</v>
       </c>
-      <c r="Q18" s="18">
-        <f>Q6/Q4</f>
+      <c r="Q22" s="18">
+        <f>Q10/Q8</f>
         <v>0.27361025386489557</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="R22" s="18">
+        <f>R10/R8</f>
+        <v>0.27775342761130933</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="18">
-        <f t="shared" ref="C19:J19" si="42">C8/C4</f>
+      <c r="C23" s="18">
+        <f t="shared" ref="C23:J23" si="44">C12/C8</f>
         <v>0.1014215453537799</v>
       </c>
-      <c r="D19" s="18" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="18">
-        <f t="shared" si="42"/>
+      <c r="D23" s="18">
+        <f t="shared" si="44"/>
+        <v>0.11299913574830713</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="44"/>
         <v>0.11170108971868987</v>
       </c>
-      <c r="F19" s="18">
-        <f t="shared" si="42"/>
+      <c r="F23" s="18">
+        <f t="shared" si="44"/>
         <v>0.11299913574830713</v>
       </c>
-      <c r="G19" s="18">
-        <f t="shared" si="42"/>
+      <c r="G23" s="18">
+        <f t="shared" si="44"/>
         <v>0.1216765845345484</v>
       </c>
-      <c r="H19" s="18">
-        <f t="shared" si="42"/>
+      <c r="H23" s="18">
+        <f t="shared" si="44"/>
         <v>0.124677187921216</v>
       </c>
-      <c r="I19" s="18">
-        <f t="shared" si="42"/>
+      <c r="I23" s="18">
+        <f t="shared" si="44"/>
         <v>0.11914293500315701</v>
       </c>
-      <c r="J19" s="18" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18">
-        <f t="shared" ref="L19:P19" si="43">L8/L4</f>
+      <c r="J23" s="18">
+        <f t="shared" si="44"/>
+        <v>0.12364504449130408</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="18">
+        <f t="shared" ref="L23:P23" si="45">L12/L8</f>
         <v>0.14499008541513195</v>
       </c>
-      <c r="M19" s="18">
-        <f t="shared" si="43"/>
+      <c r="M23" s="18">
+        <f t="shared" si="45"/>
         <v>0.13619704447700307</v>
       </c>
-      <c r="N19" s="18">
-        <f t="shared" si="43"/>
+      <c r="N23" s="18">
+        <f t="shared" si="45"/>
         <v>0.13380960358494534</v>
       </c>
-      <c r="O19" s="18">
-        <f t="shared" si="43"/>
+      <c r="O23" s="18">
+        <f t="shared" si="45"/>
         <v>0.12332617405442643</v>
       </c>
-      <c r="P19" s="18">
-        <f t="shared" si="43"/>
+      <c r="P23" s="18">
+        <f t="shared" si="45"/>
         <v>0.10645855821638087</v>
       </c>
-      <c r="Q19" s="18">
-        <f>Q8/Q4</f>
+      <c r="Q23" s="18">
+        <f>Q12/Q8</f>
         <v>0.11324874523609792</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="R23" s="18">
+        <f>R12/R8</f>
+        <v>0.12237016427346423</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="18">
-        <f t="shared" ref="C20:J20" si="44">C12/C4</f>
+      <c r="C24" s="18">
+        <f t="shared" ref="C24:J24" si="46">C16/C8</f>
         <v>8.2806896855531067E-2</v>
       </c>
-      <c r="D20" s="18" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="44"/>
+      <c r="D24" s="18">
+        <f t="shared" si="46"/>
+        <v>9.0441254694872478E-2</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="46"/>
         <v>9.0830602115922754E-2</v>
       </c>
-      <c r="F20" s="18">
-        <f t="shared" si="44"/>
+      <c r="F24" s="18">
+        <f t="shared" si="46"/>
         <v>9.0441254694872478E-2</v>
       </c>
-      <c r="G20" s="18">
-        <f t="shared" si="44"/>
+      <c r="G24" s="18">
+        <f t="shared" si="46"/>
         <v>0.10044941743290078</v>
       </c>
-      <c r="H20" s="18">
-        <f t="shared" si="44"/>
+      <c r="H24" s="18">
+        <f t="shared" si="46"/>
         <v>9.9698365150082693E-2</v>
       </c>
-      <c r="I20" s="18">
-        <f t="shared" si="44"/>
+      <c r="I24" s="18">
+        <f t="shared" si="46"/>
         <v>9.6386093339175374E-2</v>
       </c>
-      <c r="J20" s="18" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="18">
-        <f t="shared" ref="L20:P20" si="45">L12/L4</f>
+      <c r="J24" s="18">
+        <f t="shared" si="46"/>
+        <v>9.924683865561873E-2</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="18">
+        <f t="shared" ref="L24:P24" si="47">L16/L8</f>
         <v>9.6482409429481844E-2</v>
       </c>
-      <c r="M20" s="18">
-        <f t="shared" si="45"/>
+      <c r="M24" s="18">
+        <f t="shared" si="47"/>
         <v>0.10594671846928568</v>
       </c>
-      <c r="N20" s="18">
-        <f t="shared" si="45"/>
+      <c r="N24" s="18">
+        <f t="shared" si="47"/>
         <v>0.1035551119444372</v>
       </c>
-      <c r="O20" s="18">
-        <f t="shared" si="45"/>
+      <c r="O24" s="18">
+        <f t="shared" si="47"/>
         <v>9.1064008267180294E-2</v>
       </c>
-      <c r="P20" s="18">
-        <f t="shared" si="45"/>
+      <c r="P24" s="18">
+        <f t="shared" si="47"/>
         <v>8.0875846692864059E-2</v>
       </c>
-      <c r="Q20" s="18">
-        <f>Q12/Q4</f>
+      <c r="Q24" s="18">
+        <f>Q16/Q8</f>
         <v>9.199221806648987E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="R24" s="18">
+        <f>R16/R8</f>
+        <v>9.894970561855608E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="18">
-        <f t="shared" ref="C21:J21" si="46">C11/C10</f>
+      <c r="C25" s="18">
+        <f t="shared" ref="C25:J25" si="48">C15/C14</f>
         <v>0.23614739715344146</v>
       </c>
-      <c r="D21" s="18" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="46"/>
+      <c r="D25" s="18">
+        <f t="shared" si="48"/>
+        <v>0.24969992636848723</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="48"/>
         <v>0.24620089985339466</v>
       </c>
-      <c r="F21" s="18">
-        <f t="shared" si="46"/>
+      <c r="F25" s="18">
+        <f t="shared" si="48"/>
         <v>0.24969992636848723</v>
       </c>
-      <c r="G21" s="18">
-        <f t="shared" si="46"/>
+      <c r="G25" s="18">
+        <f t="shared" si="48"/>
         <v>0.23400040498349459</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" si="46"/>
+      <c r="H25" s="18">
+        <f t="shared" si="48"/>
         <v>0.24969683685552918</v>
       </c>
-      <c r="I21" s="18">
-        <f t="shared" si="46"/>
+      <c r="I25" s="18">
+        <f t="shared" si="48"/>
         <v>0.24420055570759933</v>
       </c>
-      <c r="J21" s="18" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18">
-        <f t="shared" ref="L21:P21" si="47">L11/L10</f>
+      <c r="J25" s="18">
+        <f t="shared" si="48"/>
+        <v>0.23870200167108555</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="18">
+        <f t="shared" ref="L25:P25" si="49">L15/L14</f>
         <v>0.33205679525106302</v>
       </c>
-      <c r="M21" s="18">
-        <f t="shared" si="47"/>
+      <c r="M25" s="18">
+        <f t="shared" si="49"/>
         <v>0.22596149157725784</v>
       </c>
-      <c r="N21" s="18">
-        <f t="shared" si="47"/>
+      <c r="N25" s="18">
+        <f t="shared" si="49"/>
         <v>0.2325753319336428</v>
       </c>
-      <c r="O21" s="18">
-        <f t="shared" si="47"/>
+      <c r="O25" s="18">
+        <f t="shared" si="49"/>
         <v>0.23729976002196115</v>
       </c>
-      <c r="P21" s="18">
-        <f t="shared" si="47"/>
+      <c r="P25" s="18">
+        <f t="shared" si="49"/>
         <v>0.23922044348421528</v>
       </c>
-      <c r="Q21" s="18">
-        <f>Q11/Q10</f>
+      <c r="Q25" s="18">
+        <f>Q15/Q14</f>
         <v>0.24163184359779463</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="18">
+        <f>R15/R14</f>
+        <v>0.24170720968070683</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -1921,7 +2132,7 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -1938,7 +2149,7 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -1955,7 +2166,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -1972,7 +2183,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -1989,7 +2200,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2006,7 +2217,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -9656,6 +9867,74 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="16"/>
     </row>
+    <row r="482" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C482" s="16"/>
+      <c r="D482" s="16"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
+      <c r="G482" s="16"/>
+      <c r="H482" s="16"/>
+      <c r="I482" s="16"/>
+      <c r="J482" s="16"/>
+      <c r="K482" s="16"/>
+      <c r="L482" s="16"/>
+      <c r="M482" s="16"/>
+      <c r="N482" s="16"/>
+      <c r="O482" s="16"/>
+      <c r="P482" s="16"/>
+      <c r="Q482" s="16"/>
+    </row>
+    <row r="483" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C483" s="16"/>
+      <c r="D483" s="16"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
+      <c r="G483" s="16"/>
+      <c r="H483" s="16"/>
+      <c r="I483" s="16"/>
+      <c r="J483" s="16"/>
+      <c r="K483" s="16"/>
+      <c r="L483" s="16"/>
+      <c r="M483" s="16"/>
+      <c r="N483" s="16"/>
+      <c r="O483" s="16"/>
+      <c r="P483" s="16"/>
+      <c r="Q483" s="16"/>
+    </row>
+    <row r="484" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C484" s="16"/>
+      <c r="D484" s="16"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
+      <c r="G484" s="16"/>
+      <c r="H484" s="16"/>
+      <c r="I484" s="16"/>
+      <c r="J484" s="16"/>
+      <c r="K484" s="16"/>
+      <c r="L484" s="16"/>
+      <c r="M484" s="16"/>
+      <c r="N484" s="16"/>
+      <c r="O484" s="16"/>
+      <c r="P484" s="16"/>
+      <c r="Q484" s="16"/>
+    </row>
+    <row r="485" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C485" s="16"/>
+      <c r="D485" s="16"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
+      <c r="G485" s="16"/>
+      <c r="H485" s="16"/>
+      <c r="I485" s="16"/>
+      <c r="J485" s="16"/>
+      <c r="K485" s="16"/>
+      <c r="L485" s="16"/>
+      <c r="M485" s="16"/>
+      <c r="N485" s="16"/>
+      <c r="O485" s="16"/>
+      <c r="P485" s="16"/>
+      <c r="Q485" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E25E3635-CC94-48AA-A2EE-94DB439CA71A}"/>

--- a/ROST.xlsx
+++ b/ROST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEE393-24F7-4301-8DB5-9C1D04908D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7AE8E-6942-4A1D-BBE7-FB2CA4D15BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Ross Stores</t>
   </si>
@@ -203,6 +203,18 @@
   <si>
     <t>dd's Discount</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +223,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -393,7 +405,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -420,15 +432,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -767,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629D2-C268-4098-9C30-B4F541321799}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>151.5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,10 +816,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="16">
-        <v>328.82146899999998</v>
+        <v>327.07052099999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -820,7 +831,7 @@
       </c>
       <c r="H5" s="16">
         <f>H4*H3</f>
-        <v>49816.452553499999</v>
+        <v>44808.661376999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="16">
-        <v>4730.7439999999997</v>
+        <v>3783.413</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -845,11 +856,11 @@
         <v>5</v>
       </c>
       <c r="H7" s="16">
-        <f>1515.08+699.731</f>
-        <v>2214.8109999999997</v>
+        <f>1016.897+498.812</f>
+        <v>1515.7090000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +879,7 @@
       </c>
       <c r="H8" s="16">
         <f>H5-H6+H7</f>
-        <v>47300.519553500002</v>
+        <v>42540.957376999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D02FF4-0653-4938-9B83-B4E1E02AD4C6}">
-  <dimension ref="A1:U485"/>
+  <dimension ref="A1:Y485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,12 +947,12 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
@@ -966,148 +977,179 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22">
         <v>1772</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23">
-        <f>+Q3</f>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22">
+        <f>+U3</f>
         <v>1764</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
         <v>1795</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23">
-        <f>+R3</f>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22">
+        <f>+V3</f>
         <v>1831</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23">
+      <c r="K3" s="22">
+        <v>1847</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22">
         <v>1693</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="U3" s="22">
         <v>1764</v>
       </c>
-      <c r="R3" s="23">
+      <c r="V3" s="22">
         <v>1831</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22">
         <v>339</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
-        <f t="shared" ref="F4:F5" si="0">+Q4</f>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
+        <f t="shared" ref="F4:F5" si="0">+U4</f>
         <v>345</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22">
         <v>353</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23">
-        <f t="shared" ref="J4:J5" si="1">+R4</f>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:K5" si="1">+V4</f>
         <v>355</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23">
+      <c r="K4" s="22">
+        <v>358</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22">
         <v>322</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="U4" s="22">
         <v>345</v>
       </c>
-      <c r="R4" s="23">
+      <c r="V4" s="22">
         <v>355</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24">
         <v>2061</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>2109</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
         <v>2148</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>2186</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25">
+      <c r="K5" s="24">
+        <f>+K3+K4</f>
+        <v>2205</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24">
         <v>2015</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="U5" s="24">
         <v>2109</v>
       </c>
-      <c r="R5" s="26">
+      <c r="V5" s="25">
         <v>2186</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1123,8 +1165,12 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1150,33 +1196,39 @@
         <v>5071.3540000000003</v>
       </c>
       <c r="J8" s="17">
-        <f>+R8-SUM(G8:I8)</f>
+        <f>+V8-SUM(G8:I8)</f>
         <v>5912.2790000000023</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
+      <c r="K8" s="17">
+        <v>4984.9709999999995</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17">
         <v>14134.732</v>
       </c>
-      <c r="M8" s="17">
+      <c r="Q8" s="17">
         <v>14983.540999999999</v>
       </c>
-      <c r="N8" s="17">
+      <c r="R8" s="17">
         <v>16039.073</v>
       </c>
-      <c r="O8" s="17">
+      <c r="S8" s="17">
         <v>18916.243999999999</v>
       </c>
-      <c r="P8" s="17">
+      <c r="T8" s="17">
         <v>18695.829000000002</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="U8" s="17">
         <v>20376.940999999999</v>
       </c>
-      <c r="R8" s="17">
+      <c r="V8" s="17">
         <v>21129.219000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -1201,34 +1253,40 @@
       <c r="I9" s="16">
         <v>3634.2829999999999</v>
       </c>
-      <c r="J9" s="22">
-        <f>+R9-SUM(G9:I9)</f>
+      <c r="J9" s="16">
+        <f>+V9-SUM(G9:I9)</f>
         <v>4343.6219999999994</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16">
+      <c r="K9" s="16">
+        <v>3581.366</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>10042.638000000001</v>
       </c>
-      <c r="M9" s="16">
+      <c r="Q9" s="16">
         <v>10726.277</v>
       </c>
-      <c r="N9" s="16">
+      <c r="R9" s="16">
         <v>11536.187</v>
       </c>
-      <c r="O9" s="16">
+      <c r="S9" s="16">
         <v>13708.906999999999</v>
       </c>
-      <c r="P9" s="16">
+      <c r="T9" s="16">
         <v>13946.23</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="U9" s="16">
         <v>14801.601000000001</v>
       </c>
-      <c r="R9" s="16">
+      <c r="V9" s="16">
         <v>15260.505999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -1261,40 +1319,47 @@
         <v>1437.0710000000004</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" ref="J10" si="9">J8-J9</f>
+        <f t="shared" ref="J10:K10" si="9">J8-J9</f>
         <v>1568.6570000000029</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16">
-        <f t="shared" ref="L10:P10" si="10">L8-L9</f>
+      <c r="K10" s="16">
+        <f t="shared" si="9"/>
+        <v>1403.6049999999996</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="16">
+        <f t="shared" ref="P10:T10" si="10">P8-P9</f>
         <v>4092.0939999999991</v>
       </c>
-      <c r="M10" s="16">
+      <c r="Q10" s="16">
         <f t="shared" si="10"/>
         <v>4257.2639999999992</v>
       </c>
-      <c r="N10" s="16">
+      <c r="R10" s="16">
         <f t="shared" si="10"/>
         <v>4502.8860000000004</v>
       </c>
-      <c r="O10" s="16">
+      <c r="S10" s="16">
         <f t="shared" si="10"/>
         <v>5207.3369999999995</v>
       </c>
-      <c r="P10" s="16">
+      <c r="T10" s="16">
         <f t="shared" si="10"/>
         <v>4749.599000000002</v>
       </c>
-      <c r="Q10" s="16">
-        <f>Q8-Q9</f>
+      <c r="U10" s="16">
+        <f>U8-U9</f>
         <v>5575.3399999999983</v>
       </c>
-      <c r="R10" s="16">
-        <f>R8-R9</f>
+      <c r="V10" s="16">
+        <f>V8-V9</f>
         <v>5868.7130000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -1319,34 +1384,40 @@
       <c r="I11" s="16">
         <v>832.85500000000002</v>
       </c>
-      <c r="J11" s="22">
-        <f>+R11-SUM(G11:I11)</f>
+      <c r="J11" s="16">
+        <f>+V11-SUM(G11:I11)</f>
         <v>837.63299999999981</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16">
+      <c r="K11" s="16">
+        <v>797.13499999999999</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>2042.6980000000001</v>
       </c>
-      <c r="M11" s="16">
+      <c r="Q11" s="16">
         <v>2216.5500000000002</v>
       </c>
-      <c r="N11" s="16">
+      <c r="R11" s="16">
         <v>2356.7040000000002</v>
       </c>
-      <c r="O11" s="16">
+      <c r="S11" s="16">
         <v>2874.4690000000001</v>
       </c>
-      <c r="P11" s="16">
+      <c r="T11" s="16">
         <v>2759.268</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="U11" s="16">
         <v>3267.6770000000001</v>
       </c>
-      <c r="R11" s="16">
+      <c r="V11" s="16">
         <v>3283.127</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1379,40 +1450,47 @@
         <v>604.21600000000035</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" ref="J12" si="18">J10-J11</f>
+        <f t="shared" ref="J12:K12" si="18">J10-J11</f>
         <v>731.02400000000307</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16">
-        <f t="shared" ref="L12:P12" si="19">L10-L11</f>
+      <c r="K12" s="16">
+        <f t="shared" si="18"/>
+        <v>606.46999999999957</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16">
+        <f t="shared" ref="P12:T12" si="19">P10-P11</f>
         <v>2049.3959999999988</v>
       </c>
-      <c r="M12" s="16">
+      <c r="Q12" s="16">
         <f t="shared" si="19"/>
         <v>2040.713999999999</v>
       </c>
-      <c r="N12" s="16">
+      <c r="R12" s="16">
         <f t="shared" si="19"/>
         <v>2146.1820000000002</v>
       </c>
-      <c r="O12" s="16">
+      <c r="S12" s="16">
         <f t="shared" si="19"/>
         <v>2332.8679999999995</v>
       </c>
-      <c r="P12" s="16">
+      <c r="T12" s="16">
         <f t="shared" si="19"/>
         <v>1990.3310000000019</v>
       </c>
-      <c r="Q12" s="16">
-        <f>Q10-Q11</f>
+      <c r="U12" s="16">
+        <f>U10-U11</f>
         <v>2307.6629999999982</v>
       </c>
-      <c r="R12" s="16">
-        <f>R10-R11</f>
+      <c r="V12" s="16">
+        <f>V10-V11</f>
         <v>2585.5860000000016</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1437,34 +1515,40 @@
       <c r="I13" s="16">
         <v>42.527000000000001</v>
       </c>
-      <c r="J13" s="22">
-        <f>+R13-SUM(G13:I13)</f>
+      <c r="J13" s="16">
+        <f>+V13-SUM(G13:I13)</f>
         <v>39.731999999999999</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16">
+      <c r="K13" s="16">
+        <v>34.408999999999999</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
         <v>-7.6760000000000002</v>
       </c>
-      <c r="M13" s="16">
+      <c r="Q13" s="16">
         <v>10.162000000000001</v>
       </c>
-      <c r="N13" s="16">
+      <c r="R13" s="16">
         <v>18.106000000000002</v>
       </c>
-      <c r="O13" s="16">
+      <c r="S13" s="16">
         <v>-74.328000000000003</v>
       </c>
-      <c r="P13" s="16">
+      <c r="T13" s="16">
         <v>-2.8420000000000001</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="U13" s="16">
         <v>164.11799999999999</v>
       </c>
-      <c r="R13" s="16">
+      <c r="V13" s="16">
         <v>171.56800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1497,40 +1581,47 @@
         <v>646.74300000000039</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14" si="27">J12+J13</f>
+        <f t="shared" ref="J14:K14" si="27">J12+J13</f>
         <v>770.75600000000304</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16">
-        <f t="shared" ref="L14:P14" si="28">L12+L13</f>
+      <c r="K14" s="16">
+        <f t="shared" si="27"/>
+        <v>640.87899999999956</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <f t="shared" ref="P14:T14" si="28">P12+P13</f>
         <v>2041.7199999999989</v>
       </c>
-      <c r="M14" s="16">
+      <c r="Q14" s="16">
         <f t="shared" si="28"/>
         <v>2050.8759999999988</v>
       </c>
-      <c r="N14" s="16">
+      <c r="R14" s="16">
         <f t="shared" si="28"/>
         <v>2164.2880000000005</v>
       </c>
-      <c r="O14" s="16">
+      <c r="S14" s="16">
         <f t="shared" si="28"/>
         <v>2258.5399999999995</v>
       </c>
-      <c r="P14" s="16">
+      <c r="T14" s="16">
         <f t="shared" si="28"/>
         <v>1987.4890000000019</v>
       </c>
-      <c r="Q14" s="16">
-        <f>Q12+Q13</f>
+      <c r="U14" s="16">
+        <f>U12+U13</f>
         <v>2471.7809999999981</v>
       </c>
-      <c r="R14" s="16">
-        <f>R12+R13</f>
+      <c r="V14" s="16">
+        <f>V12+V13</f>
         <v>2757.1540000000018</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1555,34 +1646,40 @@
       <c r="I15" s="16">
         <v>157.935</v>
       </c>
-      <c r="J15" s="22">
-        <f>+R15-SUM(G15:I15)</f>
+      <c r="J15" s="16">
+        <f>+V15-SUM(G15:I15)</f>
         <v>183.98099999999994</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16">
+      <c r="K15" s="16">
+        <v>161.63</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
         <v>677.96699999999998</v>
       </c>
-      <c r="M15" s="16">
+      <c r="Q15" s="16">
         <v>463.41899999999998</v>
       </c>
-      <c r="N15" s="16">
+      <c r="R15" s="16">
         <v>503.36</v>
       </c>
-      <c r="O15" s="16">
+      <c r="S15" s="16">
         <v>535.95100000000002</v>
       </c>
-      <c r="P15" s="16">
+      <c r="T15" s="16">
         <v>475.44799999999998</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="U15" s="16">
         <v>597.26099999999997</v>
       </c>
-      <c r="R15" s="16">
+      <c r="V15" s="16">
         <v>666.42399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -1615,40 +1712,47 @@
         <v>488.80800000000039</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" ref="J16" si="36">J14-J15</f>
+        <f t="shared" ref="J16:K16" si="36">J14-J15</f>
         <v>586.77500000000305</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16">
-        <f t="shared" ref="L16:P16" si="37">L14-L15</f>
+      <c r="K16" s="16">
+        <f t="shared" si="36"/>
+        <v>479.24899999999957</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16">
+        <f t="shared" ref="P16:T16" si="37">P14-P15</f>
         <v>1363.7529999999988</v>
       </c>
-      <c r="M16" s="16">
+      <c r="Q16" s="16">
         <f t="shared" si="37"/>
         <v>1587.456999999999</v>
       </c>
-      <c r="N16" s="16">
+      <c r="R16" s="16">
         <f t="shared" si="37"/>
         <v>1660.9280000000003</v>
       </c>
-      <c r="O16" s="16">
+      <c r="S16" s="16">
         <f t="shared" si="37"/>
         <v>1722.5889999999995</v>
       </c>
-      <c r="P16" s="16">
+      <c r="T16" s="16">
         <f t="shared" si="37"/>
         <v>1512.041000000002</v>
       </c>
-      <c r="Q16" s="16">
-        <f>Q14-Q15</f>
+      <c r="U16" s="16">
+        <f>U14-U15</f>
         <v>1874.5199999999982</v>
       </c>
-      <c r="R16" s="16">
-        <f>R14-R15</f>
+      <c r="V16" s="16">
+        <f>V14-V15</f>
         <v>2090.7300000000018</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1664,13 +1768,17 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="21">
-        <f t="shared" ref="C18:J18" si="38">C16/C19</f>
+        <f t="shared" ref="C18:K18" si="38">C16/C19</f>
         <v>1.100997192714664</v>
       </c>
       <c r="D18" s="21">
@@ -1701,37 +1809,44 @@
         <f t="shared" si="38"/>
         <v>1.7857197201401218</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21">
-        <f t="shared" ref="L18:R18" si="39">L16/L19</f>
+      <c r="K18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.4751706030282217</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21">
+        <f t="shared" ref="P18:V18" si="39">P16/P19</f>
         <v>3.5777702571528982</v>
       </c>
-      <c r="M18" s="21">
+      <c r="Q18" s="21">
         <f t="shared" si="39"/>
         <v>4.2958463790784558</v>
       </c>
-      <c r="N18" s="21">
+      <c r="R18" s="21">
         <f t="shared" si="39"/>
         <v>4.6334841628959289</v>
       </c>
-      <c r="O18" s="21">
+      <c r="S18" s="21">
         <f t="shared" si="39"/>
         <v>4.900735712497438</v>
       </c>
-      <c r="P18" s="21">
+      <c r="T18" s="21">
         <f t="shared" si="39"/>
         <v>4.4024812783154621</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="U18" s="21">
         <f t="shared" si="39"/>
         <v>5.5924603281153447</v>
       </c>
-      <c r="R18" s="21">
+      <c r="V18" s="21">
         <f t="shared" si="39"/>
         <v>6.3626735809953399</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -1757,33 +1872,39 @@
         <v>327.71</v>
       </c>
       <c r="J19" s="16">
-        <f>+R19</f>
+        <f>+V19</f>
         <v>328.59300000000002</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16">
+      <c r="K19" s="16">
+        <v>324.87700000000001</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16">
         <v>381.17399999999998</v>
       </c>
-      <c r="M19" s="16">
+      <c r="Q19" s="16">
         <v>369.53300000000002</v>
       </c>
-      <c r="N19" s="16">
+      <c r="R19" s="16">
         <v>358.46199999999999</v>
       </c>
-      <c r="O19" s="16">
+      <c r="S19" s="16">
         <v>351.49599999999998</v>
       </c>
-      <c r="P19" s="16">
+      <c r="T19" s="16">
         <v>343.452</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="U19" s="16">
         <v>335.18700000000001</v>
       </c>
-      <c r="R19" s="16">
+      <c r="V19" s="16">
         <v>328.59300000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1799,8 +1920,12 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1813,7 +1938,7 @@
         <v>8.084680442638259E-2</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" ref="H21:J21" si="40">H8/D8-1</f>
+        <f t="shared" ref="H21:K21" si="40">H8/D8-1</f>
         <v>7.1453047221780475E-2</v>
       </c>
       <c r="I21" s="20">
@@ -1824,34 +1949,41 @@
         <f t="shared" si="40"/>
         <v>0.19805325533115692</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="20">
-        <f t="shared" ref="M21:P21" si="41">M8/L8-1</f>
+      <c r="K21" s="20">
+        <f t="shared" si="40"/>
+        <v>2.6122323961361493E-2</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="20">
+        <f t="shared" ref="Q21:T21" si="41">Q8/P8-1</f>
         <v>6.0051297753646704E-2</v>
       </c>
-      <c r="N21" s="20">
+      <c r="R21" s="20">
         <f t="shared" si="41"/>
         <v>7.0446098155302561E-2</v>
       </c>
-      <c r="O21" s="20">
+      <c r="S21" s="20">
         <f t="shared" si="41"/>
         <v>0.17938511783068756</v>
       </c>
-      <c r="P21" s="20">
+      <c r="T21" s="20">
         <f t="shared" si="41"/>
         <v>-1.1652154624353428E-2</v>
       </c>
-      <c r="Q21" s="20">
-        <f>Q8/P8-1</f>
+      <c r="U21" s="20">
+        <f>U8/T8-1</f>
         <v>8.9919093718711096E-2</v>
       </c>
-      <c r="R21" s="20">
-        <f>R8/Q8-1</f>
+      <c r="V21" s="20">
+        <f>V8/U8-1</f>
         <v>3.691810267301654E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1887,235 +2019,263 @@
         <f t="shared" si="42"/>
         <v>0.26532188349027547</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18">
-        <f t="shared" ref="L22:P22" si="43">L10/L8</f>
+      <c r="K22" s="18">
+        <f t="shared" ref="K22" si="43">K10/K8</f>
+        <v>0.28156733509583098</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="18">
+        <f t="shared" ref="P22:T22" si="44">P10/P8</f>
         <v>0.28950630263099431</v>
       </c>
-      <c r="M22" s="18">
-        <f t="shared" si="43"/>
+      <c r="Q22" s="18">
+        <f t="shared" si="44"/>
         <v>0.28412936568198394</v>
       </c>
-      <c r="N22" s="18">
-        <f t="shared" si="43"/>
+      <c r="R22" s="18">
+        <f t="shared" si="44"/>
         <v>0.28074477870385656</v>
       </c>
-      <c r="O22" s="18">
-        <f t="shared" si="43"/>
+      <c r="S22" s="18">
+        <f t="shared" si="44"/>
         <v>0.27528387770849222</v>
       </c>
-      <c r="P22" s="18">
-        <f t="shared" si="43"/>
+      <c r="T22" s="18">
+        <f t="shared" si="44"/>
         <v>0.25404591580293134</v>
       </c>
-      <c r="Q22" s="18">
-        <f>Q10/Q8</f>
+      <c r="U22" s="18">
+        <f>U10/U8</f>
         <v>0.27361025386489557</v>
       </c>
-      <c r="R22" s="18">
-        <f>R10/R8</f>
+      <c r="V22" s="18">
+        <f>V10/V8</f>
         <v>0.27775342761130933</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" ref="C23:J23" si="44">C12/C8</f>
+        <f t="shared" ref="C23:J23" si="45">C12/C8</f>
         <v>0.1014215453537799</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.11170108971868987</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.1216765845345484</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.124677187921216</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.11914293500315701</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.12364504449130408</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="18">
-        <f t="shared" ref="L23:P23" si="45">L12/L8</f>
+      <c r="K23" s="18">
+        <f t="shared" ref="K23" si="46">K12/K8</f>
+        <v>0.12165968468021171</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="18">
+        <f t="shared" ref="P23:T23" si="47">P12/P8</f>
         <v>0.14499008541513195</v>
       </c>
-      <c r="M23" s="18">
-        <f t="shared" si="45"/>
+      <c r="Q23" s="18">
+        <f t="shared" si="47"/>
         <v>0.13619704447700307</v>
       </c>
-      <c r="N23" s="18">
-        <f t="shared" si="45"/>
+      <c r="R23" s="18">
+        <f t="shared" si="47"/>
         <v>0.13380960358494534</v>
       </c>
-      <c r="O23" s="18">
-        <f t="shared" si="45"/>
+      <c r="S23" s="18">
+        <f t="shared" si="47"/>
         <v>0.12332617405442643</v>
       </c>
-      <c r="P23" s="18">
-        <f t="shared" si="45"/>
+      <c r="T23" s="18">
+        <f t="shared" si="47"/>
         <v>0.10645855821638087</v>
       </c>
-      <c r="Q23" s="18">
-        <f>Q12/Q8</f>
+      <c r="U23" s="18">
+        <f>U12/U8</f>
         <v>0.11324874523609792</v>
       </c>
-      <c r="R23" s="18">
-        <f>R12/R8</f>
+      <c r="V23" s="18">
+        <f>V12/V8</f>
         <v>0.12237016427346423</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" ref="C24:J24" si="46">C16/C8</f>
+        <f t="shared" ref="C24:J24" si="48">C16/C8</f>
         <v>8.2806896855531067E-2</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.0830602115922754E-2</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.10044941743290078</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9698365150082693E-2</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.6386093339175374E-2</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.924683865561873E-2</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="18">
-        <f t="shared" ref="L24:P24" si="47">L16/L8</f>
+      <c r="K24" s="18">
+        <f t="shared" ref="K24" si="49">K16/K8</f>
+        <v>9.6138773926668697E-2</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="18">
+        <f t="shared" ref="P24:T24" si="50">P16/P8</f>
         <v>9.6482409429481844E-2</v>
       </c>
-      <c r="M24" s="18">
-        <f t="shared" si="47"/>
+      <c r="Q24" s="18">
+        <f t="shared" si="50"/>
         <v>0.10594671846928568</v>
       </c>
-      <c r="N24" s="18">
-        <f t="shared" si="47"/>
+      <c r="R24" s="18">
+        <f t="shared" si="50"/>
         <v>0.1035551119444372</v>
       </c>
-      <c r="O24" s="18">
-        <f t="shared" si="47"/>
+      <c r="S24" s="18">
+        <f t="shared" si="50"/>
         <v>9.1064008267180294E-2</v>
       </c>
-      <c r="P24" s="18">
-        <f t="shared" si="47"/>
+      <c r="T24" s="18">
+        <f t="shared" si="50"/>
         <v>8.0875846692864059E-2</v>
       </c>
-      <c r="Q24" s="18">
-        <f>Q16/Q8</f>
+      <c r="U24" s="18">
+        <f>U16/U8</f>
         <v>9.199221806648987E-2</v>
       </c>
-      <c r="R24" s="18">
-        <f>R16/R8</f>
+      <c r="V24" s="18">
+        <f>V16/V8</f>
         <v>9.894970561855608E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" ref="C25:J25" si="48">C15/C14</f>
+        <f t="shared" ref="C25:J25" si="51">C15/C14</f>
         <v>0.23614739715344146</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24620089985339466</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.23400040498349459</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24969683685552918</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.24420055570759933</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.23870200167108555</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18">
-        <f t="shared" ref="L25:P25" si="49">L15/L14</f>
+      <c r="K25" s="18">
+        <f t="shared" ref="K25" si="52">K15/K14</f>
+        <v>0.25220049338486689</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="18">
+        <f t="shared" ref="P25:T25" si="53">P15/P14</f>
         <v>0.33205679525106302</v>
       </c>
-      <c r="M25" s="18">
-        <f t="shared" si="49"/>
+      <c r="Q25" s="18">
+        <f t="shared" si="53"/>
         <v>0.22596149157725784</v>
       </c>
-      <c r="N25" s="18">
-        <f t="shared" si="49"/>
+      <c r="R25" s="18">
+        <f t="shared" si="53"/>
         <v>0.2325753319336428</v>
       </c>
-      <c r="O25" s="18">
-        <f t="shared" si="49"/>
+      <c r="S25" s="18">
+        <f t="shared" si="53"/>
         <v>0.23729976002196115</v>
       </c>
-      <c r="P25" s="18">
-        <f t="shared" si="49"/>
+      <c r="T25" s="18">
+        <f t="shared" si="53"/>
         <v>0.23922044348421528</v>
       </c>
-      <c r="Q25" s="18">
-        <f>Q15/Q14</f>
+      <c r="U25" s="18">
+        <f>U15/U14</f>
         <v>0.24163184359779463</v>
       </c>
-      <c r="R25" s="18">
-        <f>R15/R14</f>
+      <c r="V25" s="18">
+        <f>V15/V14</f>
         <v>0.24170720968070683</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2131,8 +2291,12 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -2148,8 +2312,12 @@
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2165,8 +2333,12 @@
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2182,8 +2354,12 @@
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2199,8 +2375,12 @@
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2216,8 +2396,12 @@
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2233,8 +2417,12 @@
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -2250,8 +2438,12 @@
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2267,8 +2459,12 @@
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2284,8 +2480,12 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -2301,8 +2501,12 @@
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2318,8 +2522,12 @@
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -2335,8 +2543,12 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -2352,8 +2564,12 @@
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -2369,8 +2585,12 @@
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -2386,8 +2606,12 @@
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -2403,8 +2627,12 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2420,8 +2648,12 @@
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -2437,8 +2669,12 @@
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -2454,8 +2690,12 @@
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -2471,8 +2711,12 @@
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -2488,8 +2732,12 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -2505,8 +2753,12 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -2522,8 +2774,12 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -2539,8 +2795,12 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -2556,8 +2816,12 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -2573,8 +2837,12 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -2590,8 +2858,12 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -2607,8 +2879,12 @@
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -2624,8 +2900,12 @@
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
@@ -2641,8 +2921,12 @@
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -2658,8 +2942,12 @@
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -2675,8 +2963,12 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -2692,8 +2984,12 @@
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -2709,8 +3005,12 @@
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -2726,8 +3026,12 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -2743,8 +3047,12 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
@@ -2760,8 +3068,12 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -2777,8 +3089,12 @@
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
@@ -2794,8 +3110,12 @@
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -2811,8 +3131,12 @@
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -2828,8 +3152,12 @@
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
@@ -2845,8 +3173,12 @@
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -2862,8 +3194,12 @@
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -2879,8 +3215,12 @@
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
-    </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -2896,8 +3236,12 @@
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -2913,8 +3257,12 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
@@ -2930,8 +3278,12 @@
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -2947,8 +3299,12 @@
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -2964,8 +3320,12 @@
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -2981,8 +3341,12 @@
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
-    </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -2998,8 +3362,12 @@
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
-    </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3015,8 +3383,12 @@
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="16"/>
-    </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -3032,8 +3404,12 @@
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
-    </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -3049,8 +3425,12 @@
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -3066,8 +3446,12 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="16"/>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -3083,8 +3467,12 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3100,8 +3488,12 @@
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3117,8 +3509,12 @@
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -3134,8 +3530,12 @@
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -3151,8 +3551,12 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
       <c r="Q86" s="16"/>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -3168,8 +3572,12 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="16"/>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -3185,8 +3593,12 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3202,8 +3614,12 @@
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3219,8 +3635,12 @@
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -3236,8 +3656,12 @@
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3253,8 +3677,12 @@
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3270,8 +3698,12 @@
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
       <c r="Q93" s="16"/>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3287,8 +3719,12 @@
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -3304,8 +3740,12 @@
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3321,8 +3761,12 @@
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3338,8 +3782,12 @@
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -3355,8 +3803,12 @@
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -3372,8 +3824,12 @@
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -3389,8 +3845,12 @@
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -3406,8 +3866,12 @@
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
       <c r="Q101" s="16"/>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -3423,8 +3887,12 @@
       <c r="O102" s="16"/>
       <c r="P102" s="16"/>
       <c r="Q102" s="16"/>
-    </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+    </row>
+    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -3440,8 +3908,12 @@
       <c r="O103" s="16"/>
       <c r="P103" s="16"/>
       <c r="Q103" s="16"/>
-    </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+    </row>
+    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -3457,8 +3929,12 @@
       <c r="O104" s="16"/>
       <c r="P104" s="16"/>
       <c r="Q104" s="16"/>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+    </row>
+    <row r="105" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3474,8 +3950,12 @@
       <c r="O105" s="16"/>
       <c r="P105" s="16"/>
       <c r="Q105" s="16"/>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+    </row>
+    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3491,8 +3971,12 @@
       <c r="O106" s="16"/>
       <c r="P106" s="16"/>
       <c r="Q106" s="16"/>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+    </row>
+    <row r="107" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3508,8 +3992,12 @@
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
       <c r="Q107" s="16"/>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+    </row>
+    <row r="108" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -3525,8 +4013,12 @@
       <c r="O108" s="16"/>
       <c r="P108" s="16"/>
       <c r="Q108" s="16"/>
-    </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+    </row>
+    <row r="109" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -3542,8 +4034,12 @@
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
-    </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+    </row>
+    <row r="110" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3559,8 +4055,12 @@
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
       <c r="Q110" s="16"/>
-    </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+    </row>
+    <row r="111" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -3576,8 +4076,12 @@
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
-    </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+    </row>
+    <row r="112" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -3593,8 +4097,12 @@
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
-    </row>
-    <row r="113" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16"/>
+    </row>
+    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -3610,8 +4118,12 @@
       <c r="O113" s="16"/>
       <c r="P113" s="16"/>
       <c r="Q113" s="16"/>
-    </row>
-    <row r="114" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+    </row>
+    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -3627,8 +4139,12 @@
       <c r="O114" s="16"/>
       <c r="P114" s="16"/>
       <c r="Q114" s="16"/>
-    </row>
-    <row r="115" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+    </row>
+    <row r="115" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -3644,8 +4160,12 @@
       <c r="O115" s="16"/>
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
-    </row>
-    <row r="116" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+    </row>
+    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -3661,8 +4181,12 @@
       <c r="O116" s="16"/>
       <c r="P116" s="16"/>
       <c r="Q116" s="16"/>
-    </row>
-    <row r="117" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+    </row>
+    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -3678,8 +4202,12 @@
       <c r="O117" s="16"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
-    </row>
-    <row r="118" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+    </row>
+    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -3695,8 +4223,12 @@
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
-    </row>
-    <row r="119" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="16"/>
+    </row>
+    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -3712,8 +4244,12 @@
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
       <c r="Q119" s="16"/>
-    </row>
-    <row r="120" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+    </row>
+    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
@@ -3729,8 +4265,12 @@
       <c r="O120" s="16"/>
       <c r="P120" s="16"/>
       <c r="Q120" s="16"/>
-    </row>
-    <row r="121" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+    </row>
+    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -3746,8 +4286,12 @@
       <c r="O121" s="16"/>
       <c r="P121" s="16"/>
       <c r="Q121" s="16"/>
-    </row>
-    <row r="122" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+    </row>
+    <row r="122" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -3763,8 +4307,12 @@
       <c r="O122" s="16"/>
       <c r="P122" s="16"/>
       <c r="Q122" s="16"/>
-    </row>
-    <row r="123" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+    </row>
+    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -3780,8 +4328,12 @@
       <c r="O123" s="16"/>
       <c r="P123" s="16"/>
       <c r="Q123" s="16"/>
-    </row>
-    <row r="124" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="16"/>
+      <c r="U123" s="16"/>
+    </row>
+    <row r="124" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -3797,8 +4349,12 @@
       <c r="O124" s="16"/>
       <c r="P124" s="16"/>
       <c r="Q124" s="16"/>
-    </row>
-    <row r="125" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+    </row>
+    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
@@ -3814,8 +4370,12 @@
       <c r="O125" s="16"/>
       <c r="P125" s="16"/>
       <c r="Q125" s="16"/>
-    </row>
-    <row r="126" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+    </row>
+    <row r="126" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -3831,8 +4391,12 @@
       <c r="O126" s="16"/>
       <c r="P126" s="16"/>
       <c r="Q126" s="16"/>
-    </row>
-    <row r="127" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+    </row>
+    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -3848,8 +4412,12 @@
       <c r="O127" s="16"/>
       <c r="P127" s="16"/>
       <c r="Q127" s="16"/>
-    </row>
-    <row r="128" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+    </row>
+    <row r="128" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -3865,8 +4433,12 @@
       <c r="O128" s="16"/>
       <c r="P128" s="16"/>
       <c r="Q128" s="16"/>
-    </row>
-    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+    </row>
+    <row r="129" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -3882,8 +4454,12 @@
       <c r="O129" s="16"/>
       <c r="P129" s="16"/>
       <c r="Q129" s="16"/>
-    </row>
-    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16"/>
+    </row>
+    <row r="130" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3899,8 +4475,12 @@
       <c r="O130" s="16"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
-    </row>
-    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+    </row>
+    <row r="131" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -3916,8 +4496,12 @@
       <c r="O131" s="16"/>
       <c r="P131" s="16"/>
       <c r="Q131" s="16"/>
-    </row>
-    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+    </row>
+    <row r="132" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -3933,8 +4517,12 @@
       <c r="O132" s="16"/>
       <c r="P132" s="16"/>
       <c r="Q132" s="16"/>
-    </row>
-    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="16"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="16"/>
+      <c r="U132" s="16"/>
+    </row>
+    <row r="133" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -3950,8 +4538,12 @@
       <c r="O133" s="16"/>
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
-    </row>
-    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="16"/>
+      <c r="S133" s="16"/>
+      <c r="T133" s="16"/>
+      <c r="U133" s="16"/>
+    </row>
+    <row r="134" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -3967,8 +4559,12 @@
       <c r="O134" s="16"/>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
-    </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="16"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+    </row>
+    <row r="135" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
@@ -3984,8 +4580,12 @@
       <c r="O135" s="16"/>
       <c r="P135" s="16"/>
       <c r="Q135" s="16"/>
-    </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="16"/>
+      <c r="U135" s="16"/>
+    </row>
+    <row r="136" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -4001,8 +4601,12 @@
       <c r="O136" s="16"/>
       <c r="P136" s="16"/>
       <c r="Q136" s="16"/>
-    </row>
-    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+    </row>
+    <row r="137" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -4018,8 +4622,12 @@
       <c r="O137" s="16"/>
       <c r="P137" s="16"/>
       <c r="Q137" s="16"/>
-    </row>
-    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R137" s="16"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="16"/>
+      <c r="U137" s="16"/>
+    </row>
+    <row r="138" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -4035,8 +4643,12 @@
       <c r="O138" s="16"/>
       <c r="P138" s="16"/>
       <c r="Q138" s="16"/>
-    </row>
-    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R138" s="16"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="16"/>
+      <c r="U138" s="16"/>
+    </row>
+    <row r="139" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -4052,8 +4664,12 @@
       <c r="O139" s="16"/>
       <c r="P139" s="16"/>
       <c r="Q139" s="16"/>
-    </row>
-    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
+      <c r="U139" s="16"/>
+    </row>
+    <row r="140" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -4069,8 +4685,12 @@
       <c r="O140" s="16"/>
       <c r="P140" s="16"/>
       <c r="Q140" s="16"/>
-    </row>
-    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="16"/>
+      <c r="U140" s="16"/>
+    </row>
+    <row r="141" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
@@ -4086,8 +4706,12 @@
       <c r="O141" s="16"/>
       <c r="P141" s="16"/>
       <c r="Q141" s="16"/>
-    </row>
-    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="16"/>
+      <c r="U141" s="16"/>
+    </row>
+    <row r="142" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -4103,8 +4727,12 @@
       <c r="O142" s="16"/>
       <c r="P142" s="16"/>
       <c r="Q142" s="16"/>
-    </row>
-    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R142" s="16"/>
+      <c r="S142" s="16"/>
+      <c r="T142" s="16"/>
+      <c r="U142" s="16"/>
+    </row>
+    <row r="143" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
@@ -4120,8 +4748,12 @@
       <c r="O143" s="16"/>
       <c r="P143" s="16"/>
       <c r="Q143" s="16"/>
-    </row>
-    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="16"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="16"/>
+      <c r="U143" s="16"/>
+    </row>
+    <row r="144" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
@@ -4137,8 +4769,12 @@
       <c r="O144" s="16"/>
       <c r="P144" s="16"/>
       <c r="Q144" s="16"/>
-    </row>
-    <row r="145" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="16"/>
+      <c r="U144" s="16"/>
+    </row>
+    <row r="145" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
@@ -4154,8 +4790,12 @@
       <c r="O145" s="16"/>
       <c r="P145" s="16"/>
       <c r="Q145" s="16"/>
-    </row>
-    <row r="146" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="16"/>
+      <c r="S145" s="16"/>
+      <c r="T145" s="16"/>
+      <c r="U145" s="16"/>
+    </row>
+    <row r="146" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
@@ -4171,8 +4811,12 @@
       <c r="O146" s="16"/>
       <c r="P146" s="16"/>
       <c r="Q146" s="16"/>
-    </row>
-    <row r="147" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="16"/>
+      <c r="U146" s="16"/>
+    </row>
+    <row r="147" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
@@ -4188,8 +4832,12 @@
       <c r="O147" s="16"/>
       <c r="P147" s="16"/>
       <c r="Q147" s="16"/>
-    </row>
-    <row r="148" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="16"/>
+      <c r="S147" s="16"/>
+      <c r="T147" s="16"/>
+      <c r="U147" s="16"/>
+    </row>
+    <row r="148" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
@@ -4205,8 +4853,12 @@
       <c r="O148" s="16"/>
       <c r="P148" s="16"/>
       <c r="Q148" s="16"/>
-    </row>
-    <row r="149" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="16"/>
+      <c r="S148" s="16"/>
+      <c r="T148" s="16"/>
+      <c r="U148" s="16"/>
+    </row>
+    <row r="149" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
@@ -4222,8 +4874,12 @@
       <c r="O149" s="16"/>
       <c r="P149" s="16"/>
       <c r="Q149" s="16"/>
-    </row>
-    <row r="150" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
+      <c r="U149" s="16"/>
+    </row>
+    <row r="150" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
@@ -4239,8 +4895,12 @@
       <c r="O150" s="16"/>
       <c r="P150" s="16"/>
       <c r="Q150" s="16"/>
-    </row>
-    <row r="151" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="16"/>
+      <c r="S150" s="16"/>
+      <c r="T150" s="16"/>
+      <c r="U150" s="16"/>
+    </row>
+    <row r="151" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -4256,8 +4916,12 @@
       <c r="O151" s="16"/>
       <c r="P151" s="16"/>
       <c r="Q151" s="16"/>
-    </row>
-    <row r="152" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
+      <c r="T151" s="16"/>
+      <c r="U151" s="16"/>
+    </row>
+    <row r="152" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -4273,8 +4937,12 @@
       <c r="O152" s="16"/>
       <c r="P152" s="16"/>
       <c r="Q152" s="16"/>
-    </row>
-    <row r="153" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
+      <c r="T152" s="16"/>
+      <c r="U152" s="16"/>
+    </row>
+    <row r="153" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
@@ -4290,8 +4958,12 @@
       <c r="O153" s="16"/>
       <c r="P153" s="16"/>
       <c r="Q153" s="16"/>
-    </row>
-    <row r="154" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
+      <c r="U153" s="16"/>
+    </row>
+    <row r="154" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -4307,8 +4979,12 @@
       <c r="O154" s="16"/>
       <c r="P154" s="16"/>
       <c r="Q154" s="16"/>
-    </row>
-    <row r="155" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="16"/>
+      <c r="S154" s="16"/>
+      <c r="T154" s="16"/>
+      <c r="U154" s="16"/>
+    </row>
+    <row r="155" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -4324,8 +5000,12 @@
       <c r="O155" s="16"/>
       <c r="P155" s="16"/>
       <c r="Q155" s="16"/>
-    </row>
-    <row r="156" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+    </row>
+    <row r="156" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -4341,8 +5021,12 @@
       <c r="O156" s="16"/>
       <c r="P156" s="16"/>
       <c r="Q156" s="16"/>
-    </row>
-    <row r="157" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="16"/>
+      <c r="S156" s="16"/>
+      <c r="T156" s="16"/>
+      <c r="U156" s="16"/>
+    </row>
+    <row r="157" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
@@ -4358,8 +5042,12 @@
       <c r="O157" s="16"/>
       <c r="P157" s="16"/>
       <c r="Q157" s="16"/>
-    </row>
-    <row r="158" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="16"/>
+      <c r="S157" s="16"/>
+      <c r="T157" s="16"/>
+      <c r="U157" s="16"/>
+    </row>
+    <row r="158" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
@@ -4375,8 +5063,12 @@
       <c r="O158" s="16"/>
       <c r="P158" s="16"/>
       <c r="Q158" s="16"/>
-    </row>
-    <row r="159" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="16"/>
+      <c r="S158" s="16"/>
+      <c r="T158" s="16"/>
+      <c r="U158" s="16"/>
+    </row>
+    <row r="159" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
@@ -4392,8 +5084,12 @@
       <c r="O159" s="16"/>
       <c r="P159" s="16"/>
       <c r="Q159" s="16"/>
-    </row>
-    <row r="160" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="16"/>
+      <c r="U159" s="16"/>
+    </row>
+    <row r="160" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -4409,8 +5105,12 @@
       <c r="O160" s="16"/>
       <c r="P160" s="16"/>
       <c r="Q160" s="16"/>
-    </row>
-    <row r="161" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="16"/>
+      <c r="S160" s="16"/>
+      <c r="T160" s="16"/>
+      <c r="U160" s="16"/>
+    </row>
+    <row r="161" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -4426,8 +5126,12 @@
       <c r="O161" s="16"/>
       <c r="P161" s="16"/>
       <c r="Q161" s="16"/>
-    </row>
-    <row r="162" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="16"/>
+      <c r="S161" s="16"/>
+      <c r="T161" s="16"/>
+      <c r="U161" s="16"/>
+    </row>
+    <row r="162" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
@@ -4443,8 +5147,12 @@
       <c r="O162" s="16"/>
       <c r="P162" s="16"/>
       <c r="Q162" s="16"/>
-    </row>
-    <row r="163" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="16"/>
+      <c r="S162" s="16"/>
+      <c r="T162" s="16"/>
+      <c r="U162" s="16"/>
+    </row>
+    <row r="163" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
@@ -4460,8 +5168,12 @@
       <c r="O163" s="16"/>
       <c r="P163" s="16"/>
       <c r="Q163" s="16"/>
-    </row>
-    <row r="164" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="16"/>
+      <c r="S163" s="16"/>
+      <c r="T163" s="16"/>
+      <c r="U163" s="16"/>
+    </row>
+    <row r="164" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
@@ -4477,8 +5189,12 @@
       <c r="O164" s="16"/>
       <c r="P164" s="16"/>
       <c r="Q164" s="16"/>
-    </row>
-    <row r="165" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
+      <c r="T164" s="16"/>
+      <c r="U164" s="16"/>
+    </row>
+    <row r="165" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
@@ -4494,8 +5210,12 @@
       <c r="O165" s="16"/>
       <c r="P165" s="16"/>
       <c r="Q165" s="16"/>
-    </row>
-    <row r="166" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="16"/>
+      <c r="S165" s="16"/>
+      <c r="T165" s="16"/>
+      <c r="U165" s="16"/>
+    </row>
+    <row r="166" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
@@ -4511,8 +5231,12 @@
       <c r="O166" s="16"/>
       <c r="P166" s="16"/>
       <c r="Q166" s="16"/>
-    </row>
-    <row r="167" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="16"/>
+      <c r="S166" s="16"/>
+      <c r="T166" s="16"/>
+      <c r="U166" s="16"/>
+    </row>
+    <row r="167" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -4528,8 +5252,12 @@
       <c r="O167" s="16"/>
       <c r="P167" s="16"/>
       <c r="Q167" s="16"/>
-    </row>
-    <row r="168" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R167" s="16"/>
+      <c r="S167" s="16"/>
+      <c r="T167" s="16"/>
+      <c r="U167" s="16"/>
+    </row>
+    <row r="168" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
@@ -4545,8 +5273,12 @@
       <c r="O168" s="16"/>
       <c r="P168" s="16"/>
       <c r="Q168" s="16"/>
-    </row>
-    <row r="169" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R168" s="16"/>
+      <c r="S168" s="16"/>
+      <c r="T168" s="16"/>
+      <c r="U168" s="16"/>
+    </row>
+    <row r="169" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
@@ -4562,8 +5294,12 @@
       <c r="O169" s="16"/>
       <c r="P169" s="16"/>
       <c r="Q169" s="16"/>
-    </row>
-    <row r="170" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R169" s="16"/>
+      <c r="S169" s="16"/>
+      <c r="T169" s="16"/>
+      <c r="U169" s="16"/>
+    </row>
+    <row r="170" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
@@ -4579,8 +5315,12 @@
       <c r="O170" s="16"/>
       <c r="P170" s="16"/>
       <c r="Q170" s="16"/>
-    </row>
-    <row r="171" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R170" s="16"/>
+      <c r="S170" s="16"/>
+      <c r="T170" s="16"/>
+      <c r="U170" s="16"/>
+    </row>
+    <row r="171" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
@@ -4596,8 +5336,12 @@
       <c r="O171" s="16"/>
       <c r="P171" s="16"/>
       <c r="Q171" s="16"/>
-    </row>
-    <row r="172" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R171" s="16"/>
+      <c r="S171" s="16"/>
+      <c r="T171" s="16"/>
+      <c r="U171" s="16"/>
+    </row>
+    <row r="172" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
@@ -4613,8 +5357,12 @@
       <c r="O172" s="16"/>
       <c r="P172" s="16"/>
       <c r="Q172" s="16"/>
-    </row>
-    <row r="173" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R172" s="16"/>
+      <c r="S172" s="16"/>
+      <c r="T172" s="16"/>
+      <c r="U172" s="16"/>
+    </row>
+    <row r="173" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
@@ -4630,8 +5378,12 @@
       <c r="O173" s="16"/>
       <c r="P173" s="16"/>
       <c r="Q173" s="16"/>
-    </row>
-    <row r="174" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R173" s="16"/>
+      <c r="S173" s="16"/>
+      <c r="T173" s="16"/>
+      <c r="U173" s="16"/>
+    </row>
+    <row r="174" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
@@ -4647,8 +5399,12 @@
       <c r="O174" s="16"/>
       <c r="P174" s="16"/>
       <c r="Q174" s="16"/>
-    </row>
-    <row r="175" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R174" s="16"/>
+      <c r="S174" s="16"/>
+      <c r="T174" s="16"/>
+      <c r="U174" s="16"/>
+    </row>
+    <row r="175" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
@@ -4664,8 +5420,12 @@
       <c r="O175" s="16"/>
       <c r="P175" s="16"/>
       <c r="Q175" s="16"/>
-    </row>
-    <row r="176" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R175" s="16"/>
+      <c r="S175" s="16"/>
+      <c r="T175" s="16"/>
+      <c r="U175" s="16"/>
+    </row>
+    <row r="176" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -4681,8 +5441,12 @@
       <c r="O176" s="16"/>
       <c r="P176" s="16"/>
       <c r="Q176" s="16"/>
-    </row>
-    <row r="177" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R176" s="16"/>
+      <c r="S176" s="16"/>
+      <c r="T176" s="16"/>
+      <c r="U176" s="16"/>
+    </row>
+    <row r="177" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -4698,8 +5462,12 @@
       <c r="O177" s="16"/>
       <c r="P177" s="16"/>
       <c r="Q177" s="16"/>
-    </row>
-    <row r="178" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R177" s="16"/>
+      <c r="S177" s="16"/>
+      <c r="T177" s="16"/>
+      <c r="U177" s="16"/>
+    </row>
+    <row r="178" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
@@ -4715,8 +5483,12 @@
       <c r="O178" s="16"/>
       <c r="P178" s="16"/>
       <c r="Q178" s="16"/>
-    </row>
-    <row r="179" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R178" s="16"/>
+      <c r="S178" s="16"/>
+      <c r="T178" s="16"/>
+      <c r="U178" s="16"/>
+    </row>
+    <row r="179" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -4732,8 +5504,12 @@
       <c r="O179" s="16"/>
       <c r="P179" s="16"/>
       <c r="Q179" s="16"/>
-    </row>
-    <row r="180" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R179" s="16"/>
+      <c r="S179" s="16"/>
+      <c r="T179" s="16"/>
+      <c r="U179" s="16"/>
+    </row>
+    <row r="180" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -4749,8 +5525,12 @@
       <c r="O180" s="16"/>
       <c r="P180" s="16"/>
       <c r="Q180" s="16"/>
-    </row>
-    <row r="181" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R180" s="16"/>
+      <c r="S180" s="16"/>
+      <c r="T180" s="16"/>
+      <c r="U180" s="16"/>
+    </row>
+    <row r="181" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -4766,8 +5546,12 @@
       <c r="O181" s="16"/>
       <c r="P181" s="16"/>
       <c r="Q181" s="16"/>
-    </row>
-    <row r="182" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R181" s="16"/>
+      <c r="S181" s="16"/>
+      <c r="T181" s="16"/>
+      <c r="U181" s="16"/>
+    </row>
+    <row r="182" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -4783,8 +5567,12 @@
       <c r="O182" s="16"/>
       <c r="P182" s="16"/>
       <c r="Q182" s="16"/>
-    </row>
-    <row r="183" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R182" s="16"/>
+      <c r="S182" s="16"/>
+      <c r="T182" s="16"/>
+      <c r="U182" s="16"/>
+    </row>
+    <row r="183" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -4800,8 +5588,12 @@
       <c r="O183" s="16"/>
       <c r="P183" s="16"/>
       <c r="Q183" s="16"/>
-    </row>
-    <row r="184" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R183" s="16"/>
+      <c r="S183" s="16"/>
+      <c r="T183" s="16"/>
+      <c r="U183" s="16"/>
+    </row>
+    <row r="184" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -4817,8 +5609,12 @@
       <c r="O184" s="16"/>
       <c r="P184" s="16"/>
       <c r="Q184" s="16"/>
-    </row>
-    <row r="185" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R184" s="16"/>
+      <c r="S184" s="16"/>
+      <c r="T184" s="16"/>
+      <c r="U184" s="16"/>
+    </row>
+    <row r="185" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -4834,8 +5630,12 @@
       <c r="O185" s="16"/>
       <c r="P185" s="16"/>
       <c r="Q185" s="16"/>
-    </row>
-    <row r="186" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R185" s="16"/>
+      <c r="S185" s="16"/>
+      <c r="T185" s="16"/>
+      <c r="U185" s="16"/>
+    </row>
+    <row r="186" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -4851,8 +5651,12 @@
       <c r="O186" s="16"/>
       <c r="P186" s="16"/>
       <c r="Q186" s="16"/>
-    </row>
-    <row r="187" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R186" s="16"/>
+      <c r="S186" s="16"/>
+      <c r="T186" s="16"/>
+      <c r="U186" s="16"/>
+    </row>
+    <row r="187" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -4868,8 +5672,12 @@
       <c r="O187" s="16"/>
       <c r="P187" s="16"/>
       <c r="Q187" s="16"/>
-    </row>
-    <row r="188" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R187" s="16"/>
+      <c r="S187" s="16"/>
+      <c r="T187" s="16"/>
+      <c r="U187" s="16"/>
+    </row>
+    <row r="188" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -4885,8 +5693,12 @@
       <c r="O188" s="16"/>
       <c r="P188" s="16"/>
       <c r="Q188" s="16"/>
-    </row>
-    <row r="189" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R188" s="16"/>
+      <c r="S188" s="16"/>
+      <c r="T188" s="16"/>
+      <c r="U188" s="16"/>
+    </row>
+    <row r="189" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -4902,8 +5714,12 @@
       <c r="O189" s="16"/>
       <c r="P189" s="16"/>
       <c r="Q189" s="16"/>
-    </row>
-    <row r="190" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R189" s="16"/>
+      <c r="S189" s="16"/>
+      <c r="T189" s="16"/>
+      <c r="U189" s="16"/>
+    </row>
+    <row r="190" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -4919,8 +5735,12 @@
       <c r="O190" s="16"/>
       <c r="P190" s="16"/>
       <c r="Q190" s="16"/>
-    </row>
-    <row r="191" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
+      <c r="T190" s="16"/>
+      <c r="U190" s="16"/>
+    </row>
+    <row r="191" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -4936,8 +5756,12 @@
       <c r="O191" s="16"/>
       <c r="P191" s="16"/>
       <c r="Q191" s="16"/>
-    </row>
-    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R191" s="16"/>
+      <c r="S191" s="16"/>
+      <c r="T191" s="16"/>
+      <c r="U191" s="16"/>
+    </row>
+    <row r="192" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -4953,8 +5777,12 @@
       <c r="O192" s="16"/>
       <c r="P192" s="16"/>
       <c r="Q192" s="16"/>
-    </row>
-    <row r="193" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="16"/>
+      <c r="U192" s="16"/>
+    </row>
+    <row r="193" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
@@ -4970,8 +5798,12 @@
       <c r="O193" s="16"/>
       <c r="P193" s="16"/>
       <c r="Q193" s="16"/>
-    </row>
-    <row r="194" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R193" s="16"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+    </row>
+    <row r="194" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
@@ -4987,8 +5819,12 @@
       <c r="O194" s="16"/>
       <c r="P194" s="16"/>
       <c r="Q194" s="16"/>
-    </row>
-    <row r="195" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R194" s="16"/>
+      <c r="S194" s="16"/>
+      <c r="T194" s="16"/>
+      <c r="U194" s="16"/>
+    </row>
+    <row r="195" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
@@ -5004,8 +5840,12 @@
       <c r="O195" s="16"/>
       <c r="P195" s="16"/>
       <c r="Q195" s="16"/>
-    </row>
-    <row r="196" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R195" s="16"/>
+      <c r="S195" s="16"/>
+      <c r="T195" s="16"/>
+      <c r="U195" s="16"/>
+    </row>
+    <row r="196" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
@@ -5021,8 +5861,12 @@
       <c r="O196" s="16"/>
       <c r="P196" s="16"/>
       <c r="Q196" s="16"/>
-    </row>
-    <row r="197" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R196" s="16"/>
+      <c r="S196" s="16"/>
+      <c r="T196" s="16"/>
+      <c r="U196" s="16"/>
+    </row>
+    <row r="197" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
@@ -5038,8 +5882,12 @@
       <c r="O197" s="16"/>
       <c r="P197" s="16"/>
       <c r="Q197" s="16"/>
-    </row>
-    <row r="198" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R197" s="16"/>
+      <c r="S197" s="16"/>
+      <c r="T197" s="16"/>
+      <c r="U197" s="16"/>
+    </row>
+    <row r="198" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
@@ -5055,8 +5903,12 @@
       <c r="O198" s="16"/>
       <c r="P198" s="16"/>
       <c r="Q198" s="16"/>
-    </row>
-    <row r="199" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R198" s="16"/>
+      <c r="S198" s="16"/>
+      <c r="T198" s="16"/>
+      <c r="U198" s="16"/>
+    </row>
+    <row r="199" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
@@ -5072,8 +5924,12 @@
       <c r="O199" s="16"/>
       <c r="P199" s="16"/>
       <c r="Q199" s="16"/>
-    </row>
-    <row r="200" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R199" s="16"/>
+      <c r="S199" s="16"/>
+      <c r="T199" s="16"/>
+      <c r="U199" s="16"/>
+    </row>
+    <row r="200" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
@@ -5089,8 +5945,12 @@
       <c r="O200" s="16"/>
       <c r="P200" s="16"/>
       <c r="Q200" s="16"/>
-    </row>
-    <row r="201" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R200" s="16"/>
+      <c r="S200" s="16"/>
+      <c r="T200" s="16"/>
+      <c r="U200" s="16"/>
+    </row>
+    <row r="201" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
@@ -5106,8 +5966,12 @@
       <c r="O201" s="16"/>
       <c r="P201" s="16"/>
       <c r="Q201" s="16"/>
-    </row>
-    <row r="202" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R201" s="16"/>
+      <c r="S201" s="16"/>
+      <c r="T201" s="16"/>
+      <c r="U201" s="16"/>
+    </row>
+    <row r="202" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
@@ -5123,8 +5987,12 @@
       <c r="O202" s="16"/>
       <c r="P202" s="16"/>
       <c r="Q202" s="16"/>
-    </row>
-    <row r="203" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R202" s="16"/>
+      <c r="S202" s="16"/>
+      <c r="T202" s="16"/>
+      <c r="U202" s="16"/>
+    </row>
+    <row r="203" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
@@ -5140,8 +6008,12 @@
       <c r="O203" s="16"/>
       <c r="P203" s="16"/>
       <c r="Q203" s="16"/>
-    </row>
-    <row r="204" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R203" s="16"/>
+      <c r="S203" s="16"/>
+      <c r="T203" s="16"/>
+      <c r="U203" s="16"/>
+    </row>
+    <row r="204" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
@@ -5157,8 +6029,12 @@
       <c r="O204" s="16"/>
       <c r="P204" s="16"/>
       <c r="Q204" s="16"/>
-    </row>
-    <row r="205" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R204" s="16"/>
+      <c r="S204" s="16"/>
+      <c r="T204" s="16"/>
+      <c r="U204" s="16"/>
+    </row>
+    <row r="205" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
@@ -5174,8 +6050,12 @@
       <c r="O205" s="16"/>
       <c r="P205" s="16"/>
       <c r="Q205" s="16"/>
-    </row>
-    <row r="206" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R205" s="16"/>
+      <c r="S205" s="16"/>
+      <c r="T205" s="16"/>
+      <c r="U205" s="16"/>
+    </row>
+    <row r="206" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
@@ -5191,8 +6071,12 @@
       <c r="O206" s="16"/>
       <c r="P206" s="16"/>
       <c r="Q206" s="16"/>
-    </row>
-    <row r="207" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R206" s="16"/>
+      <c r="S206" s="16"/>
+      <c r="T206" s="16"/>
+      <c r="U206" s="16"/>
+    </row>
+    <row r="207" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
@@ -5208,8 +6092,12 @@
       <c r="O207" s="16"/>
       <c r="P207" s="16"/>
       <c r="Q207" s="16"/>
-    </row>
-    <row r="208" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R207" s="16"/>
+      <c r="S207" s="16"/>
+      <c r="T207" s="16"/>
+      <c r="U207" s="16"/>
+    </row>
+    <row r="208" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
@@ -5225,8 +6113,12 @@
       <c r="O208" s="16"/>
       <c r="P208" s="16"/>
       <c r="Q208" s="16"/>
-    </row>
-    <row r="209" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R208" s="16"/>
+      <c r="S208" s="16"/>
+      <c r="T208" s="16"/>
+      <c r="U208" s="16"/>
+    </row>
+    <row r="209" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
@@ -5242,8 +6134,12 @@
       <c r="O209" s="16"/>
       <c r="P209" s="16"/>
       <c r="Q209" s="16"/>
-    </row>
-    <row r="210" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R209" s="16"/>
+      <c r="S209" s="16"/>
+      <c r="T209" s="16"/>
+      <c r="U209" s="16"/>
+    </row>
+    <row r="210" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
@@ -5259,8 +6155,12 @@
       <c r="O210" s="16"/>
       <c r="P210" s="16"/>
       <c r="Q210" s="16"/>
-    </row>
-    <row r="211" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R210" s="16"/>
+      <c r="S210" s="16"/>
+      <c r="T210" s="16"/>
+      <c r="U210" s="16"/>
+    </row>
+    <row r="211" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
@@ -5276,8 +6176,12 @@
       <c r="O211" s="16"/>
       <c r="P211" s="16"/>
       <c r="Q211" s="16"/>
-    </row>
-    <row r="212" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R211" s="16"/>
+      <c r="S211" s="16"/>
+      <c r="T211" s="16"/>
+      <c r="U211" s="16"/>
+    </row>
+    <row r="212" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
@@ -5293,8 +6197,12 @@
       <c r="O212" s="16"/>
       <c r="P212" s="16"/>
       <c r="Q212" s="16"/>
-    </row>
-    <row r="213" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R212" s="16"/>
+      <c r="S212" s="16"/>
+      <c r="T212" s="16"/>
+      <c r="U212" s="16"/>
+    </row>
+    <row r="213" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
@@ -5310,8 +6218,12 @@
       <c r="O213" s="16"/>
       <c r="P213" s="16"/>
       <c r="Q213" s="16"/>
-    </row>
-    <row r="214" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R213" s="16"/>
+      <c r="S213" s="16"/>
+      <c r="T213" s="16"/>
+      <c r="U213" s="16"/>
+    </row>
+    <row r="214" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
@@ -5327,8 +6239,12 @@
       <c r="O214" s="16"/>
       <c r="P214" s="16"/>
       <c r="Q214" s="16"/>
-    </row>
-    <row r="215" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R214" s="16"/>
+      <c r="S214" s="16"/>
+      <c r="T214" s="16"/>
+      <c r="U214" s="16"/>
+    </row>
+    <row r="215" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
@@ -5344,8 +6260,12 @@
       <c r="O215" s="16"/>
       <c r="P215" s="16"/>
       <c r="Q215" s="16"/>
-    </row>
-    <row r="216" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R215" s="16"/>
+      <c r="S215" s="16"/>
+      <c r="T215" s="16"/>
+      <c r="U215" s="16"/>
+    </row>
+    <row r="216" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
@@ -5361,8 +6281,12 @@
       <c r="O216" s="16"/>
       <c r="P216" s="16"/>
       <c r="Q216" s="16"/>
-    </row>
-    <row r="217" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R216" s="16"/>
+      <c r="S216" s="16"/>
+      <c r="T216" s="16"/>
+      <c r="U216" s="16"/>
+    </row>
+    <row r="217" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
@@ -5378,8 +6302,12 @@
       <c r="O217" s="16"/>
       <c r="P217" s="16"/>
       <c r="Q217" s="16"/>
-    </row>
-    <row r="218" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R217" s="16"/>
+      <c r="S217" s="16"/>
+      <c r="T217" s="16"/>
+      <c r="U217" s="16"/>
+    </row>
+    <row r="218" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
@@ -5395,8 +6323,12 @@
       <c r="O218" s="16"/>
       <c r="P218" s="16"/>
       <c r="Q218" s="16"/>
-    </row>
-    <row r="219" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R218" s="16"/>
+      <c r="S218" s="16"/>
+      <c r="T218" s="16"/>
+      <c r="U218" s="16"/>
+    </row>
+    <row r="219" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
@@ -5412,8 +6344,12 @@
       <c r="O219" s="16"/>
       <c r="P219" s="16"/>
       <c r="Q219" s="16"/>
-    </row>
-    <row r="220" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R219" s="16"/>
+      <c r="S219" s="16"/>
+      <c r="T219" s="16"/>
+      <c r="U219" s="16"/>
+    </row>
+    <row r="220" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
@@ -5429,8 +6365,12 @@
       <c r="O220" s="16"/>
       <c r="P220" s="16"/>
       <c r="Q220" s="16"/>
-    </row>
-    <row r="221" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R220" s="16"/>
+      <c r="S220" s="16"/>
+      <c r="T220" s="16"/>
+      <c r="U220" s="16"/>
+    </row>
+    <row r="221" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
@@ -5446,8 +6386,12 @@
       <c r="O221" s="16"/>
       <c r="P221" s="16"/>
       <c r="Q221" s="16"/>
-    </row>
-    <row r="222" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R221" s="16"/>
+      <c r="S221" s="16"/>
+      <c r="T221" s="16"/>
+      <c r="U221" s="16"/>
+    </row>
+    <row r="222" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
@@ -5463,8 +6407,12 @@
       <c r="O222" s="16"/>
       <c r="P222" s="16"/>
       <c r="Q222" s="16"/>
-    </row>
-    <row r="223" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R222" s="16"/>
+      <c r="S222" s="16"/>
+      <c r="T222" s="16"/>
+      <c r="U222" s="16"/>
+    </row>
+    <row r="223" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
@@ -5480,8 +6428,12 @@
       <c r="O223" s="16"/>
       <c r="P223" s="16"/>
       <c r="Q223" s="16"/>
-    </row>
-    <row r="224" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R223" s="16"/>
+      <c r="S223" s="16"/>
+      <c r="T223" s="16"/>
+      <c r="U223" s="16"/>
+    </row>
+    <row r="224" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -5497,8 +6449,12 @@
       <c r="O224" s="16"/>
       <c r="P224" s="16"/>
       <c r="Q224" s="16"/>
-    </row>
-    <row r="225" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R224" s="16"/>
+      <c r="S224" s="16"/>
+      <c r="T224" s="16"/>
+      <c r="U224" s="16"/>
+    </row>
+    <row r="225" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
@@ -5514,8 +6470,12 @@
       <c r="O225" s="16"/>
       <c r="P225" s="16"/>
       <c r="Q225" s="16"/>
-    </row>
-    <row r="226" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R225" s="16"/>
+      <c r="S225" s="16"/>
+      <c r="T225" s="16"/>
+      <c r="U225" s="16"/>
+    </row>
+    <row r="226" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
@@ -5531,8 +6491,12 @@
       <c r="O226" s="16"/>
       <c r="P226" s="16"/>
       <c r="Q226" s="16"/>
-    </row>
-    <row r="227" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R226" s="16"/>
+      <c r="S226" s="16"/>
+      <c r="T226" s="16"/>
+      <c r="U226" s="16"/>
+    </row>
+    <row r="227" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
@@ -5548,8 +6512,12 @@
       <c r="O227" s="16"/>
       <c r="P227" s="16"/>
       <c r="Q227" s="16"/>
-    </row>
-    <row r="228" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R227" s="16"/>
+      <c r="S227" s="16"/>
+      <c r="T227" s="16"/>
+      <c r="U227" s="16"/>
+    </row>
+    <row r="228" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
@@ -5565,8 +6533,12 @@
       <c r="O228" s="16"/>
       <c r="P228" s="16"/>
       <c r="Q228" s="16"/>
-    </row>
-    <row r="229" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R228" s="16"/>
+      <c r="S228" s="16"/>
+      <c r="T228" s="16"/>
+      <c r="U228" s="16"/>
+    </row>
+    <row r="229" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
@@ -5582,8 +6554,12 @@
       <c r="O229" s="16"/>
       <c r="P229" s="16"/>
       <c r="Q229" s="16"/>
-    </row>
-    <row r="230" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R229" s="16"/>
+      <c r="S229" s="16"/>
+      <c r="T229" s="16"/>
+      <c r="U229" s="16"/>
+    </row>
+    <row r="230" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
@@ -5599,8 +6575,12 @@
       <c r="O230" s="16"/>
       <c r="P230" s="16"/>
       <c r="Q230" s="16"/>
-    </row>
-    <row r="231" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R230" s="16"/>
+      <c r="S230" s="16"/>
+      <c r="T230" s="16"/>
+      <c r="U230" s="16"/>
+    </row>
+    <row r="231" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
@@ -5616,8 +6596,12 @@
       <c r="O231" s="16"/>
       <c r="P231" s="16"/>
       <c r="Q231" s="16"/>
-    </row>
-    <row r="232" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R231" s="16"/>
+      <c r="S231" s="16"/>
+      <c r="T231" s="16"/>
+      <c r="U231" s="16"/>
+    </row>
+    <row r="232" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
@@ -5633,8 +6617,12 @@
       <c r="O232" s="16"/>
       <c r="P232" s="16"/>
       <c r="Q232" s="16"/>
-    </row>
-    <row r="233" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R232" s="16"/>
+      <c r="S232" s="16"/>
+      <c r="T232" s="16"/>
+      <c r="U232" s="16"/>
+    </row>
+    <row r="233" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
@@ -5650,8 +6638,12 @@
       <c r="O233" s="16"/>
       <c r="P233" s="16"/>
       <c r="Q233" s="16"/>
-    </row>
-    <row r="234" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R233" s="16"/>
+      <c r="S233" s="16"/>
+      <c r="T233" s="16"/>
+      <c r="U233" s="16"/>
+    </row>
+    <row r="234" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
@@ -5667,8 +6659,12 @@
       <c r="O234" s="16"/>
       <c r="P234" s="16"/>
       <c r="Q234" s="16"/>
-    </row>
-    <row r="235" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R234" s="16"/>
+      <c r="S234" s="16"/>
+      <c r="T234" s="16"/>
+      <c r="U234" s="16"/>
+    </row>
+    <row r="235" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
@@ -5684,8 +6680,12 @@
       <c r="O235" s="16"/>
       <c r="P235" s="16"/>
       <c r="Q235" s="16"/>
-    </row>
-    <row r="236" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R235" s="16"/>
+      <c r="S235" s="16"/>
+      <c r="T235" s="16"/>
+      <c r="U235" s="16"/>
+    </row>
+    <row r="236" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
@@ -5701,8 +6701,12 @@
       <c r="O236" s="16"/>
       <c r="P236" s="16"/>
       <c r="Q236" s="16"/>
-    </row>
-    <row r="237" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R236" s="16"/>
+      <c r="S236" s="16"/>
+      <c r="T236" s="16"/>
+      <c r="U236" s="16"/>
+    </row>
+    <row r="237" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
@@ -5718,8 +6722,12 @@
       <c r="O237" s="16"/>
       <c r="P237" s="16"/>
       <c r="Q237" s="16"/>
-    </row>
-    <row r="238" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R237" s="16"/>
+      <c r="S237" s="16"/>
+      <c r="T237" s="16"/>
+      <c r="U237" s="16"/>
+    </row>
+    <row r="238" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
@@ -5735,8 +6743,12 @@
       <c r="O238" s="16"/>
       <c r="P238" s="16"/>
       <c r="Q238" s="16"/>
-    </row>
-    <row r="239" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R238" s="16"/>
+      <c r="S238" s="16"/>
+      <c r="T238" s="16"/>
+      <c r="U238" s="16"/>
+    </row>
+    <row r="239" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
@@ -5752,8 +6764,12 @@
       <c r="O239" s="16"/>
       <c r="P239" s="16"/>
       <c r="Q239" s="16"/>
-    </row>
-    <row r="240" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R239" s="16"/>
+      <c r="S239" s="16"/>
+      <c r="T239" s="16"/>
+      <c r="U239" s="16"/>
+    </row>
+    <row r="240" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
@@ -5769,8 +6785,12 @@
       <c r="O240" s="16"/>
       <c r="P240" s="16"/>
       <c r="Q240" s="16"/>
-    </row>
-    <row r="241" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R240" s="16"/>
+      <c r="S240" s="16"/>
+      <c r="T240" s="16"/>
+      <c r="U240" s="16"/>
+    </row>
+    <row r="241" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
@@ -5786,8 +6806,12 @@
       <c r="O241" s="16"/>
       <c r="P241" s="16"/>
       <c r="Q241" s="16"/>
-    </row>
-    <row r="242" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R241" s="16"/>
+      <c r="S241" s="16"/>
+      <c r="T241" s="16"/>
+      <c r="U241" s="16"/>
+    </row>
+    <row r="242" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
@@ -5803,8 +6827,12 @@
       <c r="O242" s="16"/>
       <c r="P242" s="16"/>
       <c r="Q242" s="16"/>
-    </row>
-    <row r="243" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R242" s="16"/>
+      <c r="S242" s="16"/>
+      <c r="T242" s="16"/>
+      <c r="U242" s="16"/>
+    </row>
+    <row r="243" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
@@ -5820,8 +6848,12 @@
       <c r="O243" s="16"/>
       <c r="P243" s="16"/>
       <c r="Q243" s="16"/>
-    </row>
-    <row r="244" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R243" s="16"/>
+      <c r="S243" s="16"/>
+      <c r="T243" s="16"/>
+      <c r="U243" s="16"/>
+    </row>
+    <row r="244" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
@@ -5837,8 +6869,12 @@
       <c r="O244" s="16"/>
       <c r="P244" s="16"/>
       <c r="Q244" s="16"/>
-    </row>
-    <row r="245" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R244" s="16"/>
+      <c r="S244" s="16"/>
+      <c r="T244" s="16"/>
+      <c r="U244" s="16"/>
+    </row>
+    <row r="245" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
@@ -5854,8 +6890,12 @@
       <c r="O245" s="16"/>
       <c r="P245" s="16"/>
       <c r="Q245" s="16"/>
-    </row>
-    <row r="246" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R245" s="16"/>
+      <c r="S245" s="16"/>
+      <c r="T245" s="16"/>
+      <c r="U245" s="16"/>
+    </row>
+    <row r="246" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -5871,8 +6911,12 @@
       <c r="O246" s="16"/>
       <c r="P246" s="16"/>
       <c r="Q246" s="16"/>
-    </row>
-    <row r="247" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R246" s="16"/>
+      <c r="S246" s="16"/>
+      <c r="T246" s="16"/>
+      <c r="U246" s="16"/>
+    </row>
+    <row r="247" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
@@ -5888,8 +6932,12 @@
       <c r="O247" s="16"/>
       <c r="P247" s="16"/>
       <c r="Q247" s="16"/>
-    </row>
-    <row r="248" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R247" s="16"/>
+      <c r="S247" s="16"/>
+      <c r="T247" s="16"/>
+      <c r="U247" s="16"/>
+    </row>
+    <row r="248" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
@@ -5905,8 +6953,12 @@
       <c r="O248" s="16"/>
       <c r="P248" s="16"/>
       <c r="Q248" s="16"/>
-    </row>
-    <row r="249" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R248" s="16"/>
+      <c r="S248" s="16"/>
+      <c r="T248" s="16"/>
+      <c r="U248" s="16"/>
+    </row>
+    <row r="249" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
@@ -5922,8 +6974,12 @@
       <c r="O249" s="16"/>
       <c r="P249" s="16"/>
       <c r="Q249" s="16"/>
-    </row>
-    <row r="250" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R249" s="16"/>
+      <c r="S249" s="16"/>
+      <c r="T249" s="16"/>
+      <c r="U249" s="16"/>
+    </row>
+    <row r="250" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
@@ -5939,8 +6995,12 @@
       <c r="O250" s="16"/>
       <c r="P250" s="16"/>
       <c r="Q250" s="16"/>
-    </row>
-    <row r="251" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R250" s="16"/>
+      <c r="S250" s="16"/>
+      <c r="T250" s="16"/>
+      <c r="U250" s="16"/>
+    </row>
+    <row r="251" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
@@ -5956,8 +7016,12 @@
       <c r="O251" s="16"/>
       <c r="P251" s="16"/>
       <c r="Q251" s="16"/>
-    </row>
-    <row r="252" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R251" s="16"/>
+      <c r="S251" s="16"/>
+      <c r="T251" s="16"/>
+      <c r="U251" s="16"/>
+    </row>
+    <row r="252" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
@@ -5973,8 +7037,12 @@
       <c r="O252" s="16"/>
       <c r="P252" s="16"/>
       <c r="Q252" s="16"/>
-    </row>
-    <row r="253" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R252" s="16"/>
+      <c r="S252" s="16"/>
+      <c r="T252" s="16"/>
+      <c r="U252" s="16"/>
+    </row>
+    <row r="253" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
@@ -5990,8 +7058,12 @@
       <c r="O253" s="16"/>
       <c r="P253" s="16"/>
       <c r="Q253" s="16"/>
-    </row>
-    <row r="254" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R253" s="16"/>
+      <c r="S253" s="16"/>
+      <c r="T253" s="16"/>
+      <c r="U253" s="16"/>
+    </row>
+    <row r="254" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
@@ -6007,8 +7079,12 @@
       <c r="O254" s="16"/>
       <c r="P254" s="16"/>
       <c r="Q254" s="16"/>
-    </row>
-    <row r="255" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R254" s="16"/>
+      <c r="S254" s="16"/>
+      <c r="T254" s="16"/>
+      <c r="U254" s="16"/>
+    </row>
+    <row r="255" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
@@ -6024,8 +7100,12 @@
       <c r="O255" s="16"/>
       <c r="P255" s="16"/>
       <c r="Q255" s="16"/>
-    </row>
-    <row r="256" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R255" s="16"/>
+      <c r="S255" s="16"/>
+      <c r="T255" s="16"/>
+      <c r="U255" s="16"/>
+    </row>
+    <row r="256" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
@@ -6041,8 +7121,12 @@
       <c r="O256" s="16"/>
       <c r="P256" s="16"/>
       <c r="Q256" s="16"/>
-    </row>
-    <row r="257" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R256" s="16"/>
+      <c r="S256" s="16"/>
+      <c r="T256" s="16"/>
+      <c r="U256" s="16"/>
+    </row>
+    <row r="257" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
@@ -6058,8 +7142,12 @@
       <c r="O257" s="16"/>
       <c r="P257" s="16"/>
       <c r="Q257" s="16"/>
-    </row>
-    <row r="258" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R257" s="16"/>
+      <c r="S257" s="16"/>
+      <c r="T257" s="16"/>
+      <c r="U257" s="16"/>
+    </row>
+    <row r="258" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
@@ -6075,8 +7163,12 @@
       <c r="O258" s="16"/>
       <c r="P258" s="16"/>
       <c r="Q258" s="16"/>
-    </row>
-    <row r="259" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R258" s="16"/>
+      <c r="S258" s="16"/>
+      <c r="T258" s="16"/>
+      <c r="U258" s="16"/>
+    </row>
+    <row r="259" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
@@ -6092,8 +7184,12 @@
       <c r="O259" s="16"/>
       <c r="P259" s="16"/>
       <c r="Q259" s="16"/>
-    </row>
-    <row r="260" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R259" s="16"/>
+      <c r="S259" s="16"/>
+      <c r="T259" s="16"/>
+      <c r="U259" s="16"/>
+    </row>
+    <row r="260" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
@@ -6109,8 +7205,12 @@
       <c r="O260" s="16"/>
       <c r="P260" s="16"/>
       <c r="Q260" s="16"/>
-    </row>
-    <row r="261" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R260" s="16"/>
+      <c r="S260" s="16"/>
+      <c r="T260" s="16"/>
+      <c r="U260" s="16"/>
+    </row>
+    <row r="261" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
@@ -6126,8 +7226,12 @@
       <c r="O261" s="16"/>
       <c r="P261" s="16"/>
       <c r="Q261" s="16"/>
-    </row>
-    <row r="262" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R261" s="16"/>
+      <c r="S261" s="16"/>
+      <c r="T261" s="16"/>
+      <c r="U261" s="16"/>
+    </row>
+    <row r="262" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
@@ -6143,8 +7247,12 @@
       <c r="O262" s="16"/>
       <c r="P262" s="16"/>
       <c r="Q262" s="16"/>
-    </row>
-    <row r="263" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R262" s="16"/>
+      <c r="S262" s="16"/>
+      <c r="T262" s="16"/>
+      <c r="U262" s="16"/>
+    </row>
+    <row r="263" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
@@ -6160,8 +7268,12 @@
       <c r="O263" s="16"/>
       <c r="P263" s="16"/>
       <c r="Q263" s="16"/>
-    </row>
-    <row r="264" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R263" s="16"/>
+      <c r="S263" s="16"/>
+      <c r="T263" s="16"/>
+      <c r="U263" s="16"/>
+    </row>
+    <row r="264" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
@@ -6177,8 +7289,12 @@
       <c r="O264" s="16"/>
       <c r="P264" s="16"/>
       <c r="Q264" s="16"/>
-    </row>
-    <row r="265" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R264" s="16"/>
+      <c r="S264" s="16"/>
+      <c r="T264" s="16"/>
+      <c r="U264" s="16"/>
+    </row>
+    <row r="265" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
@@ -6194,8 +7310,12 @@
       <c r="O265" s="16"/>
       <c r="P265" s="16"/>
       <c r="Q265" s="16"/>
-    </row>
-    <row r="266" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R265" s="16"/>
+      <c r="S265" s="16"/>
+      <c r="T265" s="16"/>
+      <c r="U265" s="16"/>
+    </row>
+    <row r="266" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
@@ -6211,8 +7331,12 @@
       <c r="O266" s="16"/>
       <c r="P266" s="16"/>
       <c r="Q266" s="16"/>
-    </row>
-    <row r="267" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R266" s="16"/>
+      <c r="S266" s="16"/>
+      <c r="T266" s="16"/>
+      <c r="U266" s="16"/>
+    </row>
+    <row r="267" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
@@ -6228,8 +7352,12 @@
       <c r="O267" s="16"/>
       <c r="P267" s="16"/>
       <c r="Q267" s="16"/>
-    </row>
-    <row r="268" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R267" s="16"/>
+      <c r="S267" s="16"/>
+      <c r="T267" s="16"/>
+      <c r="U267" s="16"/>
+    </row>
+    <row r="268" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
@@ -6245,8 +7373,12 @@
       <c r="O268" s="16"/>
       <c r="P268" s="16"/>
       <c r="Q268" s="16"/>
-    </row>
-    <row r="269" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R268" s="16"/>
+      <c r="S268" s="16"/>
+      <c r="T268" s="16"/>
+      <c r="U268" s="16"/>
+    </row>
+    <row r="269" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
@@ -6262,8 +7394,12 @@
       <c r="O269" s="16"/>
       <c r="P269" s="16"/>
       <c r="Q269" s="16"/>
-    </row>
-    <row r="270" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R269" s="16"/>
+      <c r="S269" s="16"/>
+      <c r="T269" s="16"/>
+      <c r="U269" s="16"/>
+    </row>
+    <row r="270" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
@@ -6279,8 +7415,12 @@
       <c r="O270" s="16"/>
       <c r="P270" s="16"/>
       <c r="Q270" s="16"/>
-    </row>
-    <row r="271" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R270" s="16"/>
+      <c r="S270" s="16"/>
+      <c r="T270" s="16"/>
+      <c r="U270" s="16"/>
+    </row>
+    <row r="271" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
@@ -6296,8 +7436,12 @@
       <c r="O271" s="16"/>
       <c r="P271" s="16"/>
       <c r="Q271" s="16"/>
-    </row>
-    <row r="272" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R271" s="16"/>
+      <c r="S271" s="16"/>
+      <c r="T271" s="16"/>
+      <c r="U271" s="16"/>
+    </row>
+    <row r="272" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
@@ -6313,8 +7457,12 @@
       <c r="O272" s="16"/>
       <c r="P272" s="16"/>
       <c r="Q272" s="16"/>
-    </row>
-    <row r="273" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R272" s="16"/>
+      <c r="S272" s="16"/>
+      <c r="T272" s="16"/>
+      <c r="U272" s="16"/>
+    </row>
+    <row r="273" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
@@ -6330,8 +7478,12 @@
       <c r="O273" s="16"/>
       <c r="P273" s="16"/>
       <c r="Q273" s="16"/>
-    </row>
-    <row r="274" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R273" s="16"/>
+      <c r="S273" s="16"/>
+      <c r="T273" s="16"/>
+      <c r="U273" s="16"/>
+    </row>
+    <row r="274" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
@@ -6347,8 +7499,12 @@
       <c r="O274" s="16"/>
       <c r="P274" s="16"/>
       <c r="Q274" s="16"/>
-    </row>
-    <row r="275" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R274" s="16"/>
+      <c r="S274" s="16"/>
+      <c r="T274" s="16"/>
+      <c r="U274" s="16"/>
+    </row>
+    <row r="275" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
@@ -6364,8 +7520,12 @@
       <c r="O275" s="16"/>
       <c r="P275" s="16"/>
       <c r="Q275" s="16"/>
-    </row>
-    <row r="276" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R275" s="16"/>
+      <c r="S275" s="16"/>
+      <c r="T275" s="16"/>
+      <c r="U275" s="16"/>
+    </row>
+    <row r="276" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
@@ -6381,8 +7541,12 @@
       <c r="O276" s="16"/>
       <c r="P276" s="16"/>
       <c r="Q276" s="16"/>
-    </row>
-    <row r="277" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R276" s="16"/>
+      <c r="S276" s="16"/>
+      <c r="T276" s="16"/>
+      <c r="U276" s="16"/>
+    </row>
+    <row r="277" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
@@ -6398,8 +7562,12 @@
       <c r="O277" s="16"/>
       <c r="P277" s="16"/>
       <c r="Q277" s="16"/>
-    </row>
-    <row r="278" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R277" s="16"/>
+      <c r="S277" s="16"/>
+      <c r="T277" s="16"/>
+      <c r="U277" s="16"/>
+    </row>
+    <row r="278" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
@@ -6415,8 +7583,12 @@
       <c r="O278" s="16"/>
       <c r="P278" s="16"/>
       <c r="Q278" s="16"/>
-    </row>
-    <row r="279" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R278" s="16"/>
+      <c r="S278" s="16"/>
+      <c r="T278" s="16"/>
+      <c r="U278" s="16"/>
+    </row>
+    <row r="279" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
@@ -6432,8 +7604,12 @@
       <c r="O279" s="16"/>
       <c r="P279" s="16"/>
       <c r="Q279" s="16"/>
-    </row>
-    <row r="280" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R279" s="16"/>
+      <c r="S279" s="16"/>
+      <c r="T279" s="16"/>
+      <c r="U279" s="16"/>
+    </row>
+    <row r="280" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
@@ -6449,8 +7625,12 @@
       <c r="O280" s="16"/>
       <c r="P280" s="16"/>
       <c r="Q280" s="16"/>
-    </row>
-    <row r="281" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R280" s="16"/>
+      <c r="S280" s="16"/>
+      <c r="T280" s="16"/>
+      <c r="U280" s="16"/>
+    </row>
+    <row r="281" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
@@ -6466,8 +7646,12 @@
       <c r="O281" s="16"/>
       <c r="P281" s="16"/>
       <c r="Q281" s="16"/>
-    </row>
-    <row r="282" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R281" s="16"/>
+      <c r="S281" s="16"/>
+      <c r="T281" s="16"/>
+      <c r="U281" s="16"/>
+    </row>
+    <row r="282" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
@@ -6483,8 +7667,12 @@
       <c r="O282" s="16"/>
       <c r="P282" s="16"/>
       <c r="Q282" s="16"/>
-    </row>
-    <row r="283" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R282" s="16"/>
+      <c r="S282" s="16"/>
+      <c r="T282" s="16"/>
+      <c r="U282" s="16"/>
+    </row>
+    <row r="283" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
@@ -6500,8 +7688,12 @@
       <c r="O283" s="16"/>
       <c r="P283" s="16"/>
       <c r="Q283" s="16"/>
-    </row>
-    <row r="284" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R283" s="16"/>
+      <c r="S283" s="16"/>
+      <c r="T283" s="16"/>
+      <c r="U283" s="16"/>
+    </row>
+    <row r="284" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
@@ -6517,8 +7709,12 @@
       <c r="O284" s="16"/>
       <c r="P284" s="16"/>
       <c r="Q284" s="16"/>
-    </row>
-    <row r="285" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R284" s="16"/>
+      <c r="S284" s="16"/>
+      <c r="T284" s="16"/>
+      <c r="U284" s="16"/>
+    </row>
+    <row r="285" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
@@ -6534,8 +7730,12 @@
       <c r="O285" s="16"/>
       <c r="P285" s="16"/>
       <c r="Q285" s="16"/>
-    </row>
-    <row r="286" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R285" s="16"/>
+      <c r="S285" s="16"/>
+      <c r="T285" s="16"/>
+      <c r="U285" s="16"/>
+    </row>
+    <row r="286" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
@@ -6551,8 +7751,12 @@
       <c r="O286" s="16"/>
       <c r="P286" s="16"/>
       <c r="Q286" s="16"/>
-    </row>
-    <row r="287" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R286" s="16"/>
+      <c r="S286" s="16"/>
+      <c r="T286" s="16"/>
+      <c r="U286" s="16"/>
+    </row>
+    <row r="287" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
@@ -6568,8 +7772,12 @@
       <c r="O287" s="16"/>
       <c r="P287" s="16"/>
       <c r="Q287" s="16"/>
-    </row>
-    <row r="288" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R287" s="16"/>
+      <c r="S287" s="16"/>
+      <c r="T287" s="16"/>
+      <c r="U287" s="16"/>
+    </row>
+    <row r="288" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
@@ -6585,8 +7793,12 @@
       <c r="O288" s="16"/>
       <c r="P288" s="16"/>
       <c r="Q288" s="16"/>
-    </row>
-    <row r="289" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R288" s="16"/>
+      <c r="S288" s="16"/>
+      <c r="T288" s="16"/>
+      <c r="U288" s="16"/>
+    </row>
+    <row r="289" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
@@ -6602,8 +7814,12 @@
       <c r="O289" s="16"/>
       <c r="P289" s="16"/>
       <c r="Q289" s="16"/>
-    </row>
-    <row r="290" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R289" s="16"/>
+      <c r="S289" s="16"/>
+      <c r="T289" s="16"/>
+      <c r="U289" s="16"/>
+    </row>
+    <row r="290" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
@@ -6619,8 +7835,12 @@
       <c r="O290" s="16"/>
       <c r="P290" s="16"/>
       <c r="Q290" s="16"/>
-    </row>
-    <row r="291" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R290" s="16"/>
+      <c r="S290" s="16"/>
+      <c r="T290" s="16"/>
+      <c r="U290" s="16"/>
+    </row>
+    <row r="291" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
@@ -6636,8 +7856,12 @@
       <c r="O291" s="16"/>
       <c r="P291" s="16"/>
       <c r="Q291" s="16"/>
-    </row>
-    <row r="292" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R291" s="16"/>
+      <c r="S291" s="16"/>
+      <c r="T291" s="16"/>
+      <c r="U291" s="16"/>
+    </row>
+    <row r="292" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
@@ -6653,8 +7877,12 @@
       <c r="O292" s="16"/>
       <c r="P292" s="16"/>
       <c r="Q292" s="16"/>
-    </row>
-    <row r="293" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R292" s="16"/>
+      <c r="S292" s="16"/>
+      <c r="T292" s="16"/>
+      <c r="U292" s="16"/>
+    </row>
+    <row r="293" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
@@ -6670,8 +7898,12 @@
       <c r="O293" s="16"/>
       <c r="P293" s="16"/>
       <c r="Q293" s="16"/>
-    </row>
-    <row r="294" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R293" s="16"/>
+      <c r="S293" s="16"/>
+      <c r="T293" s="16"/>
+      <c r="U293" s="16"/>
+    </row>
+    <row r="294" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
@@ -6687,8 +7919,12 @@
       <c r="O294" s="16"/>
       <c r="P294" s="16"/>
       <c r="Q294" s="16"/>
-    </row>
-    <row r="295" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R294" s="16"/>
+      <c r="S294" s="16"/>
+      <c r="T294" s="16"/>
+      <c r="U294" s="16"/>
+    </row>
+    <row r="295" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
@@ -6704,8 +7940,12 @@
       <c r="O295" s="16"/>
       <c r="P295" s="16"/>
       <c r="Q295" s="16"/>
-    </row>
-    <row r="296" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R295" s="16"/>
+      <c r="S295" s="16"/>
+      <c r="T295" s="16"/>
+      <c r="U295" s="16"/>
+    </row>
+    <row r="296" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
@@ -6721,8 +7961,12 @@
       <c r="O296" s="16"/>
       <c r="P296" s="16"/>
       <c r="Q296" s="16"/>
-    </row>
-    <row r="297" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R296" s="16"/>
+      <c r="S296" s="16"/>
+      <c r="T296" s="16"/>
+      <c r="U296" s="16"/>
+    </row>
+    <row r="297" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
@@ -6738,8 +7982,12 @@
       <c r="O297" s="16"/>
       <c r="P297" s="16"/>
       <c r="Q297" s="16"/>
-    </row>
-    <row r="298" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R297" s="16"/>
+      <c r="S297" s="16"/>
+      <c r="T297" s="16"/>
+      <c r="U297" s="16"/>
+    </row>
+    <row r="298" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
@@ -6755,8 +8003,12 @@
       <c r="O298" s="16"/>
       <c r="P298" s="16"/>
       <c r="Q298" s="16"/>
-    </row>
-    <row r="299" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R298" s="16"/>
+      <c r="S298" s="16"/>
+      <c r="T298" s="16"/>
+      <c r="U298" s="16"/>
+    </row>
+    <row r="299" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
@@ -6772,8 +8024,12 @@
       <c r="O299" s="16"/>
       <c r="P299" s="16"/>
       <c r="Q299" s="16"/>
-    </row>
-    <row r="300" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R299" s="16"/>
+      <c r="S299" s="16"/>
+      <c r="T299" s="16"/>
+      <c r="U299" s="16"/>
+    </row>
+    <row r="300" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
@@ -6789,8 +8045,12 @@
       <c r="O300" s="16"/>
       <c r="P300" s="16"/>
       <c r="Q300" s="16"/>
-    </row>
-    <row r="301" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R300" s="16"/>
+      <c r="S300" s="16"/>
+      <c r="T300" s="16"/>
+      <c r="U300" s="16"/>
+    </row>
+    <row r="301" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
@@ -6806,8 +8066,12 @@
       <c r="O301" s="16"/>
       <c r="P301" s="16"/>
       <c r="Q301" s="16"/>
-    </row>
-    <row r="302" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R301" s="16"/>
+      <c r="S301" s="16"/>
+      <c r="T301" s="16"/>
+      <c r="U301" s="16"/>
+    </row>
+    <row r="302" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
@@ -6823,8 +8087,12 @@
       <c r="O302" s="16"/>
       <c r="P302" s="16"/>
       <c r="Q302" s="16"/>
-    </row>
-    <row r="303" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R302" s="16"/>
+      <c r="S302" s="16"/>
+      <c r="T302" s="16"/>
+      <c r="U302" s="16"/>
+    </row>
+    <row r="303" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
@@ -6840,8 +8108,12 @@
       <c r="O303" s="16"/>
       <c r="P303" s="16"/>
       <c r="Q303" s="16"/>
-    </row>
-    <row r="304" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R303" s="16"/>
+      <c r="S303" s="16"/>
+      <c r="T303" s="16"/>
+      <c r="U303" s="16"/>
+    </row>
+    <row r="304" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
@@ -6857,8 +8129,12 @@
       <c r="O304" s="16"/>
       <c r="P304" s="16"/>
       <c r="Q304" s="16"/>
-    </row>
-    <row r="305" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R304" s="16"/>
+      <c r="S304" s="16"/>
+      <c r="T304" s="16"/>
+      <c r="U304" s="16"/>
+    </row>
+    <row r="305" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
@@ -6874,8 +8150,12 @@
       <c r="O305" s="16"/>
       <c r="P305" s="16"/>
       <c r="Q305" s="16"/>
-    </row>
-    <row r="306" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R305" s="16"/>
+      <c r="S305" s="16"/>
+      <c r="T305" s="16"/>
+      <c r="U305" s="16"/>
+    </row>
+    <row r="306" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
@@ -6891,8 +8171,12 @@
       <c r="O306" s="16"/>
       <c r="P306" s="16"/>
       <c r="Q306" s="16"/>
-    </row>
-    <row r="307" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R306" s="16"/>
+      <c r="S306" s="16"/>
+      <c r="T306" s="16"/>
+      <c r="U306" s="16"/>
+    </row>
+    <row r="307" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
@@ -6908,8 +8192,12 @@
       <c r="O307" s="16"/>
       <c r="P307" s="16"/>
       <c r="Q307" s="16"/>
-    </row>
-    <row r="308" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R307" s="16"/>
+      <c r="S307" s="16"/>
+      <c r="T307" s="16"/>
+      <c r="U307" s="16"/>
+    </row>
+    <row r="308" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
@@ -6925,8 +8213,12 @@
       <c r="O308" s="16"/>
       <c r="P308" s="16"/>
       <c r="Q308" s="16"/>
-    </row>
-    <row r="309" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R308" s="16"/>
+      <c r="S308" s="16"/>
+      <c r="T308" s="16"/>
+      <c r="U308" s="16"/>
+    </row>
+    <row r="309" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
@@ -6942,8 +8234,12 @@
       <c r="O309" s="16"/>
       <c r="P309" s="16"/>
       <c r="Q309" s="16"/>
-    </row>
-    <row r="310" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R309" s="16"/>
+      <c r="S309" s="16"/>
+      <c r="T309" s="16"/>
+      <c r="U309" s="16"/>
+    </row>
+    <row r="310" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>
@@ -6959,8 +8255,12 @@
       <c r="O310" s="16"/>
       <c r="P310" s="16"/>
       <c r="Q310" s="16"/>
-    </row>
-    <row r="311" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R310" s="16"/>
+      <c r="S310" s="16"/>
+      <c r="T310" s="16"/>
+      <c r="U310" s="16"/>
+    </row>
+    <row r="311" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="E311" s="16"/>
@@ -6976,8 +8276,12 @@
       <c r="O311" s="16"/>
       <c r="P311" s="16"/>
       <c r="Q311" s="16"/>
-    </row>
-    <row r="312" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R311" s="16"/>
+      <c r="S311" s="16"/>
+      <c r="T311" s="16"/>
+      <c r="U311" s="16"/>
+    </row>
+    <row r="312" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
       <c r="E312" s="16"/>
@@ -6993,8 +8297,12 @@
       <c r="O312" s="16"/>
       <c r="P312" s="16"/>
       <c r="Q312" s="16"/>
-    </row>
-    <row r="313" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R312" s="16"/>
+      <c r="S312" s="16"/>
+      <c r="T312" s="16"/>
+      <c r="U312" s="16"/>
+    </row>
+    <row r="313" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="E313" s="16"/>
@@ -7010,8 +8318,12 @@
       <c r="O313" s="16"/>
       <c r="P313" s="16"/>
       <c r="Q313" s="16"/>
-    </row>
-    <row r="314" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R313" s="16"/>
+      <c r="S313" s="16"/>
+      <c r="T313" s="16"/>
+      <c r="U313" s="16"/>
+    </row>
+    <row r="314" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
@@ -7027,8 +8339,12 @@
       <c r="O314" s="16"/>
       <c r="P314" s="16"/>
       <c r="Q314" s="16"/>
-    </row>
-    <row r="315" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R314" s="16"/>
+      <c r="S314" s="16"/>
+      <c r="T314" s="16"/>
+      <c r="U314" s="16"/>
+    </row>
+    <row r="315" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="E315" s="16"/>
@@ -7044,8 +8360,12 @@
       <c r="O315" s="16"/>
       <c r="P315" s="16"/>
       <c r="Q315" s="16"/>
-    </row>
-    <row r="316" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R315" s="16"/>
+      <c r="S315" s="16"/>
+      <c r="T315" s="16"/>
+      <c r="U315" s="16"/>
+    </row>
+    <row r="316" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
@@ -7061,8 +8381,12 @@
       <c r="O316" s="16"/>
       <c r="P316" s="16"/>
       <c r="Q316" s="16"/>
-    </row>
-    <row r="317" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R316" s="16"/>
+      <c r="S316" s="16"/>
+      <c r="T316" s="16"/>
+      <c r="U316" s="16"/>
+    </row>
+    <row r="317" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
@@ -7078,8 +8402,12 @@
       <c r="O317" s="16"/>
       <c r="P317" s="16"/>
       <c r="Q317" s="16"/>
-    </row>
-    <row r="318" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R317" s="16"/>
+      <c r="S317" s="16"/>
+      <c r="T317" s="16"/>
+      <c r="U317" s="16"/>
+    </row>
+    <row r="318" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
@@ -7095,8 +8423,12 @@
       <c r="O318" s="16"/>
       <c r="P318" s="16"/>
       <c r="Q318" s="16"/>
-    </row>
-    <row r="319" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R318" s="16"/>
+      <c r="S318" s="16"/>
+      <c r="T318" s="16"/>
+      <c r="U318" s="16"/>
+    </row>
+    <row r="319" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
       <c r="E319" s="16"/>
@@ -7112,8 +8444,12 @@
       <c r="O319" s="16"/>
       <c r="P319" s="16"/>
       <c r="Q319" s="16"/>
-    </row>
-    <row r="320" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R319" s="16"/>
+      <c r="S319" s="16"/>
+      <c r="T319" s="16"/>
+      <c r="U319" s="16"/>
+    </row>
+    <row r="320" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
       <c r="E320" s="16"/>
@@ -7129,8 +8465,12 @@
       <c r="O320" s="16"/>
       <c r="P320" s="16"/>
       <c r="Q320" s="16"/>
-    </row>
-    <row r="321" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R320" s="16"/>
+      <c r="S320" s="16"/>
+      <c r="T320" s="16"/>
+      <c r="U320" s="16"/>
+    </row>
+    <row r="321" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
       <c r="E321" s="16"/>
@@ -7146,8 +8486,12 @@
       <c r="O321" s="16"/>
       <c r="P321" s="16"/>
       <c r="Q321" s="16"/>
-    </row>
-    <row r="322" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R321" s="16"/>
+      <c r="S321" s="16"/>
+      <c r="T321" s="16"/>
+      <c r="U321" s="16"/>
+    </row>
+    <row r="322" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
       <c r="E322" s="16"/>
@@ -7163,8 +8507,12 @@
       <c r="O322" s="16"/>
       <c r="P322" s="16"/>
       <c r="Q322" s="16"/>
-    </row>
-    <row r="323" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R322" s="16"/>
+      <c r="S322" s="16"/>
+      <c r="T322" s="16"/>
+      <c r="U322" s="16"/>
+    </row>
+    <row r="323" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
@@ -7180,8 +8528,12 @@
       <c r="O323" s="16"/>
       <c r="P323" s="16"/>
       <c r="Q323" s="16"/>
-    </row>
-    <row r="324" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R323" s="16"/>
+      <c r="S323" s="16"/>
+      <c r="T323" s="16"/>
+      <c r="U323" s="16"/>
+    </row>
+    <row r="324" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
@@ -7197,8 +8549,12 @@
       <c r="O324" s="16"/>
       <c r="P324" s="16"/>
       <c r="Q324" s="16"/>
-    </row>
-    <row r="325" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R324" s="16"/>
+      <c r="S324" s="16"/>
+      <c r="T324" s="16"/>
+      <c r="U324" s="16"/>
+    </row>
+    <row r="325" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C325" s="16"/>
       <c r="D325" s="16"/>
       <c r="E325" s="16"/>
@@ -7214,8 +8570,12 @@
       <c r="O325" s="16"/>
       <c r="P325" s="16"/>
       <c r="Q325" s="16"/>
-    </row>
-    <row r="326" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R325" s="16"/>
+      <c r="S325" s="16"/>
+      <c r="T325" s="16"/>
+      <c r="U325" s="16"/>
+    </row>
+    <row r="326" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C326" s="16"/>
       <c r="D326" s="16"/>
       <c r="E326" s="16"/>
@@ -7231,8 +8591,12 @@
       <c r="O326" s="16"/>
       <c r="P326" s="16"/>
       <c r="Q326" s="16"/>
-    </row>
-    <row r="327" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R326" s="16"/>
+      <c r="S326" s="16"/>
+      <c r="T326" s="16"/>
+      <c r="U326" s="16"/>
+    </row>
+    <row r="327" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C327" s="16"/>
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
@@ -7248,8 +8612,12 @@
       <c r="O327" s="16"/>
       <c r="P327" s="16"/>
       <c r="Q327" s="16"/>
-    </row>
-    <row r="328" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R327" s="16"/>
+      <c r="S327" s="16"/>
+      <c r="T327" s="16"/>
+      <c r="U327" s="16"/>
+    </row>
+    <row r="328" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C328" s="16"/>
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
@@ -7265,8 +8633,12 @@
       <c r="O328" s="16"/>
       <c r="P328" s="16"/>
       <c r="Q328" s="16"/>
-    </row>
-    <row r="329" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R328" s="16"/>
+      <c r="S328" s="16"/>
+      <c r="T328" s="16"/>
+      <c r="U328" s="16"/>
+    </row>
+    <row r="329" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C329" s="16"/>
       <c r="D329" s="16"/>
       <c r="E329" s="16"/>
@@ -7282,8 +8654,12 @@
       <c r="O329" s="16"/>
       <c r="P329" s="16"/>
       <c r="Q329" s="16"/>
-    </row>
-    <row r="330" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R329" s="16"/>
+      <c r="S329" s="16"/>
+      <c r="T329" s="16"/>
+      <c r="U329" s="16"/>
+    </row>
+    <row r="330" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C330" s="16"/>
       <c r="D330" s="16"/>
       <c r="E330" s="16"/>
@@ -7299,8 +8675,12 @@
       <c r="O330" s="16"/>
       <c r="P330" s="16"/>
       <c r="Q330" s="16"/>
-    </row>
-    <row r="331" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R330" s="16"/>
+      <c r="S330" s="16"/>
+      <c r="T330" s="16"/>
+      <c r="U330" s="16"/>
+    </row>
+    <row r="331" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C331" s="16"/>
       <c r="D331" s="16"/>
       <c r="E331" s="16"/>
@@ -7316,8 +8696,12 @@
       <c r="O331" s="16"/>
       <c r="P331" s="16"/>
       <c r="Q331" s="16"/>
-    </row>
-    <row r="332" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R331" s="16"/>
+      <c r="S331" s="16"/>
+      <c r="T331" s="16"/>
+      <c r="U331" s="16"/>
+    </row>
+    <row r="332" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C332" s="16"/>
       <c r="D332" s="16"/>
       <c r="E332" s="16"/>
@@ -7333,8 +8717,12 @@
       <c r="O332" s="16"/>
       <c r="P332" s="16"/>
       <c r="Q332" s="16"/>
-    </row>
-    <row r="333" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R332" s="16"/>
+      <c r="S332" s="16"/>
+      <c r="T332" s="16"/>
+      <c r="U332" s="16"/>
+    </row>
+    <row r="333" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C333" s="16"/>
       <c r="D333" s="16"/>
       <c r="E333" s="16"/>
@@ -7350,8 +8738,12 @@
       <c r="O333" s="16"/>
       <c r="P333" s="16"/>
       <c r="Q333" s="16"/>
-    </row>
-    <row r="334" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R333" s="16"/>
+      <c r="S333" s="16"/>
+      <c r="T333" s="16"/>
+      <c r="U333" s="16"/>
+    </row>
+    <row r="334" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C334" s="16"/>
       <c r="D334" s="16"/>
       <c r="E334" s="16"/>
@@ -7367,8 +8759,12 @@
       <c r="O334" s="16"/>
       <c r="P334" s="16"/>
       <c r="Q334" s="16"/>
-    </row>
-    <row r="335" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R334" s="16"/>
+      <c r="S334" s="16"/>
+      <c r="T334" s="16"/>
+      <c r="U334" s="16"/>
+    </row>
+    <row r="335" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C335" s="16"/>
       <c r="D335" s="16"/>
       <c r="E335" s="16"/>
@@ -7384,8 +8780,12 @@
       <c r="O335" s="16"/>
       <c r="P335" s="16"/>
       <c r="Q335" s="16"/>
-    </row>
-    <row r="336" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R335" s="16"/>
+      <c r="S335" s="16"/>
+      <c r="T335" s="16"/>
+      <c r="U335" s="16"/>
+    </row>
+    <row r="336" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C336" s="16"/>
       <c r="D336" s="16"/>
       <c r="E336" s="16"/>
@@ -7401,8 +8801,12 @@
       <c r="O336" s="16"/>
       <c r="P336" s="16"/>
       <c r="Q336" s="16"/>
-    </row>
-    <row r="337" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R336" s="16"/>
+      <c r="S336" s="16"/>
+      <c r="T336" s="16"/>
+      <c r="U336" s="16"/>
+    </row>
+    <row r="337" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C337" s="16"/>
       <c r="D337" s="16"/>
       <c r="E337" s="16"/>
@@ -7418,8 +8822,12 @@
       <c r="O337" s="16"/>
       <c r="P337" s="16"/>
       <c r="Q337" s="16"/>
-    </row>
-    <row r="338" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R337" s="16"/>
+      <c r="S337" s="16"/>
+      <c r="T337" s="16"/>
+      <c r="U337" s="16"/>
+    </row>
+    <row r="338" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C338" s="16"/>
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
@@ -7435,8 +8843,12 @@
       <c r="O338" s="16"/>
       <c r="P338" s="16"/>
       <c r="Q338" s="16"/>
-    </row>
-    <row r="339" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R338" s="16"/>
+      <c r="S338" s="16"/>
+      <c r="T338" s="16"/>
+      <c r="U338" s="16"/>
+    </row>
+    <row r="339" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C339" s="16"/>
       <c r="D339" s="16"/>
       <c r="E339" s="16"/>
@@ -7452,8 +8864,12 @@
       <c r="O339" s="16"/>
       <c r="P339" s="16"/>
       <c r="Q339" s="16"/>
-    </row>
-    <row r="340" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R339" s="16"/>
+      <c r="S339" s="16"/>
+      <c r="T339" s="16"/>
+      <c r="U339" s="16"/>
+    </row>
+    <row r="340" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C340" s="16"/>
       <c r="D340" s="16"/>
       <c r="E340" s="16"/>
@@ -7469,8 +8885,12 @@
       <c r="O340" s="16"/>
       <c r="P340" s="16"/>
       <c r="Q340" s="16"/>
-    </row>
-    <row r="341" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R340" s="16"/>
+      <c r="S340" s="16"/>
+      <c r="T340" s="16"/>
+      <c r="U340" s="16"/>
+    </row>
+    <row r="341" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C341" s="16"/>
       <c r="D341" s="16"/>
       <c r="E341" s="16"/>
@@ -7486,8 +8906,12 @@
       <c r="O341" s="16"/>
       <c r="P341" s="16"/>
       <c r="Q341" s="16"/>
-    </row>
-    <row r="342" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R341" s="16"/>
+      <c r="S341" s="16"/>
+      <c r="T341" s="16"/>
+      <c r="U341" s="16"/>
+    </row>
+    <row r="342" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C342" s="16"/>
       <c r="D342" s="16"/>
       <c r="E342" s="16"/>
@@ -7503,8 +8927,12 @@
       <c r="O342" s="16"/>
       <c r="P342" s="16"/>
       <c r="Q342" s="16"/>
-    </row>
-    <row r="343" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R342" s="16"/>
+      <c r="S342" s="16"/>
+      <c r="T342" s="16"/>
+      <c r="U342" s="16"/>
+    </row>
+    <row r="343" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C343" s="16"/>
       <c r="D343" s="16"/>
       <c r="E343" s="16"/>
@@ -7520,8 +8948,12 @@
       <c r="O343" s="16"/>
       <c r="P343" s="16"/>
       <c r="Q343" s="16"/>
-    </row>
-    <row r="344" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R343" s="16"/>
+      <c r="S343" s="16"/>
+      <c r="T343" s="16"/>
+      <c r="U343" s="16"/>
+    </row>
+    <row r="344" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C344" s="16"/>
       <c r="D344" s="16"/>
       <c r="E344" s="16"/>
@@ -7537,8 +8969,12 @@
       <c r="O344" s="16"/>
       <c r="P344" s="16"/>
       <c r="Q344" s="16"/>
-    </row>
-    <row r="345" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R344" s="16"/>
+      <c r="S344" s="16"/>
+      <c r="T344" s="16"/>
+      <c r="U344" s="16"/>
+    </row>
+    <row r="345" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C345" s="16"/>
       <c r="D345" s="16"/>
       <c r="E345" s="16"/>
@@ -7554,8 +8990,12 @@
       <c r="O345" s="16"/>
       <c r="P345" s="16"/>
       <c r="Q345" s="16"/>
-    </row>
-    <row r="346" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R345" s="16"/>
+      <c r="S345" s="16"/>
+      <c r="T345" s="16"/>
+      <c r="U345" s="16"/>
+    </row>
+    <row r="346" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C346" s="16"/>
       <c r="D346" s="16"/>
       <c r="E346" s="16"/>
@@ -7571,8 +9011,12 @@
       <c r="O346" s="16"/>
       <c r="P346" s="16"/>
       <c r="Q346" s="16"/>
-    </row>
-    <row r="347" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R346" s="16"/>
+      <c r="S346" s="16"/>
+      <c r="T346" s="16"/>
+      <c r="U346" s="16"/>
+    </row>
+    <row r="347" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C347" s="16"/>
       <c r="D347" s="16"/>
       <c r="E347" s="16"/>
@@ -7588,8 +9032,12 @@
       <c r="O347" s="16"/>
       <c r="P347" s="16"/>
       <c r="Q347" s="16"/>
-    </row>
-    <row r="348" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R347" s="16"/>
+      <c r="S347" s="16"/>
+      <c r="T347" s="16"/>
+      <c r="U347" s="16"/>
+    </row>
+    <row r="348" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C348" s="16"/>
       <c r="D348" s="16"/>
       <c r="E348" s="16"/>
@@ -7605,8 +9053,12 @@
       <c r="O348" s="16"/>
       <c r="P348" s="16"/>
       <c r="Q348" s="16"/>
-    </row>
-    <row r="349" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R348" s="16"/>
+      <c r="S348" s="16"/>
+      <c r="T348" s="16"/>
+      <c r="U348" s="16"/>
+    </row>
+    <row r="349" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C349" s="16"/>
       <c r="D349" s="16"/>
       <c r="E349" s="16"/>
@@ -7622,8 +9074,12 @@
       <c r="O349" s="16"/>
       <c r="P349" s="16"/>
       <c r="Q349" s="16"/>
-    </row>
-    <row r="350" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R349" s="16"/>
+      <c r="S349" s="16"/>
+      <c r="T349" s="16"/>
+      <c r="U349" s="16"/>
+    </row>
+    <row r="350" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C350" s="16"/>
       <c r="D350" s="16"/>
       <c r="E350" s="16"/>
@@ -7639,8 +9095,12 @@
       <c r="O350" s="16"/>
       <c r="P350" s="16"/>
       <c r="Q350" s="16"/>
-    </row>
-    <row r="351" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R350" s="16"/>
+      <c r="S350" s="16"/>
+      <c r="T350" s="16"/>
+      <c r="U350" s="16"/>
+    </row>
+    <row r="351" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C351" s="16"/>
       <c r="D351" s="16"/>
       <c r="E351" s="16"/>
@@ -7656,8 +9116,12 @@
       <c r="O351" s="16"/>
       <c r="P351" s="16"/>
       <c r="Q351" s="16"/>
-    </row>
-    <row r="352" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R351" s="16"/>
+      <c r="S351" s="16"/>
+      <c r="T351" s="16"/>
+      <c r="U351" s="16"/>
+    </row>
+    <row r="352" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C352" s="16"/>
       <c r="D352" s="16"/>
       <c r="E352" s="16"/>
@@ -7673,8 +9137,12 @@
       <c r="O352" s="16"/>
       <c r="P352" s="16"/>
       <c r="Q352" s="16"/>
-    </row>
-    <row r="353" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R352" s="16"/>
+      <c r="S352" s="16"/>
+      <c r="T352" s="16"/>
+      <c r="U352" s="16"/>
+    </row>
+    <row r="353" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C353" s="16"/>
       <c r="D353" s="16"/>
       <c r="E353" s="16"/>
@@ -7690,8 +9158,12 @@
       <c r="O353" s="16"/>
       <c r="P353" s="16"/>
       <c r="Q353" s="16"/>
-    </row>
-    <row r="354" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R353" s="16"/>
+      <c r="S353" s="16"/>
+      <c r="T353" s="16"/>
+      <c r="U353" s="16"/>
+    </row>
+    <row r="354" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C354" s="16"/>
       <c r="D354" s="16"/>
       <c r="E354" s="16"/>
@@ -7707,8 +9179,12 @@
       <c r="O354" s="16"/>
       <c r="P354" s="16"/>
       <c r="Q354" s="16"/>
-    </row>
-    <row r="355" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R354" s="16"/>
+      <c r="S354" s="16"/>
+      <c r="T354" s="16"/>
+      <c r="U354" s="16"/>
+    </row>
+    <row r="355" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C355" s="16"/>
       <c r="D355" s="16"/>
       <c r="E355" s="16"/>
@@ -7724,8 +9200,12 @@
       <c r="O355" s="16"/>
       <c r="P355" s="16"/>
       <c r="Q355" s="16"/>
-    </row>
-    <row r="356" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R355" s="16"/>
+      <c r="S355" s="16"/>
+      <c r="T355" s="16"/>
+      <c r="U355" s="16"/>
+    </row>
+    <row r="356" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C356" s="16"/>
       <c r="D356" s="16"/>
       <c r="E356" s="16"/>
@@ -7741,8 +9221,12 @@
       <c r="O356" s="16"/>
       <c r="P356" s="16"/>
       <c r="Q356" s="16"/>
-    </row>
-    <row r="357" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R356" s="16"/>
+      <c r="S356" s="16"/>
+      <c r="T356" s="16"/>
+      <c r="U356" s="16"/>
+    </row>
+    <row r="357" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C357" s="16"/>
       <c r="D357" s="16"/>
       <c r="E357" s="16"/>
@@ -7758,8 +9242,12 @@
       <c r="O357" s="16"/>
       <c r="P357" s="16"/>
       <c r="Q357" s="16"/>
-    </row>
-    <row r="358" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R357" s="16"/>
+      <c r="S357" s="16"/>
+      <c r="T357" s="16"/>
+      <c r="U357" s="16"/>
+    </row>
+    <row r="358" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C358" s="16"/>
       <c r="D358" s="16"/>
       <c r="E358" s="16"/>
@@ -7775,8 +9263,12 @@
       <c r="O358" s="16"/>
       <c r="P358" s="16"/>
       <c r="Q358" s="16"/>
-    </row>
-    <row r="359" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R358" s="16"/>
+      <c r="S358" s="16"/>
+      <c r="T358" s="16"/>
+      <c r="U358" s="16"/>
+    </row>
+    <row r="359" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C359" s="16"/>
       <c r="D359" s="16"/>
       <c r="E359" s="16"/>
@@ -7792,8 +9284,12 @@
       <c r="O359" s="16"/>
       <c r="P359" s="16"/>
       <c r="Q359" s="16"/>
-    </row>
-    <row r="360" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R359" s="16"/>
+      <c r="S359" s="16"/>
+      <c r="T359" s="16"/>
+      <c r="U359" s="16"/>
+    </row>
+    <row r="360" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C360" s="16"/>
       <c r="D360" s="16"/>
       <c r="E360" s="16"/>
@@ -7809,8 +9305,12 @@
       <c r="O360" s="16"/>
       <c r="P360" s="16"/>
       <c r="Q360" s="16"/>
-    </row>
-    <row r="361" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R360" s="16"/>
+      <c r="S360" s="16"/>
+      <c r="T360" s="16"/>
+      <c r="U360" s="16"/>
+    </row>
+    <row r="361" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C361" s="16"/>
       <c r="D361" s="16"/>
       <c r="E361" s="16"/>
@@ -7826,8 +9326,12 @@
       <c r="O361" s="16"/>
       <c r="P361" s="16"/>
       <c r="Q361" s="16"/>
-    </row>
-    <row r="362" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R361" s="16"/>
+      <c r="S361" s="16"/>
+      <c r="T361" s="16"/>
+      <c r="U361" s="16"/>
+    </row>
+    <row r="362" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C362" s="16"/>
       <c r="D362" s="16"/>
       <c r="E362" s="16"/>
@@ -7843,8 +9347,12 @@
       <c r="O362" s="16"/>
       <c r="P362" s="16"/>
       <c r="Q362" s="16"/>
-    </row>
-    <row r="363" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R362" s="16"/>
+      <c r="S362" s="16"/>
+      <c r="T362" s="16"/>
+      <c r="U362" s="16"/>
+    </row>
+    <row r="363" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C363" s="16"/>
       <c r="D363" s="16"/>
       <c r="E363" s="16"/>
@@ -7860,8 +9368,12 @@
       <c r="O363" s="16"/>
       <c r="P363" s="16"/>
       <c r="Q363" s="16"/>
-    </row>
-    <row r="364" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R363" s="16"/>
+      <c r="S363" s="16"/>
+      <c r="T363" s="16"/>
+      <c r="U363" s="16"/>
+    </row>
+    <row r="364" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C364" s="16"/>
       <c r="D364" s="16"/>
       <c r="E364" s="16"/>
@@ -7877,8 +9389,12 @@
       <c r="O364" s="16"/>
       <c r="P364" s="16"/>
       <c r="Q364" s="16"/>
-    </row>
-    <row r="365" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R364" s="16"/>
+      <c r="S364" s="16"/>
+      <c r="T364" s="16"/>
+      <c r="U364" s="16"/>
+    </row>
+    <row r="365" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C365" s="16"/>
       <c r="D365" s="16"/>
       <c r="E365" s="16"/>
@@ -7894,8 +9410,12 @@
       <c r="O365" s="16"/>
       <c r="P365" s="16"/>
       <c r="Q365" s="16"/>
-    </row>
-    <row r="366" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R365" s="16"/>
+      <c r="S365" s="16"/>
+      <c r="T365" s="16"/>
+      <c r="U365" s="16"/>
+    </row>
+    <row r="366" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C366" s="16"/>
       <c r="D366" s="16"/>
       <c r="E366" s="16"/>
@@ -7911,8 +9431,12 @@
       <c r="O366" s="16"/>
       <c r="P366" s="16"/>
       <c r="Q366" s="16"/>
-    </row>
-    <row r="367" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R366" s="16"/>
+      <c r="S366" s="16"/>
+      <c r="T366" s="16"/>
+      <c r="U366" s="16"/>
+    </row>
+    <row r="367" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C367" s="16"/>
       <c r="D367" s="16"/>
       <c r="E367" s="16"/>
@@ -7928,8 +9452,12 @@
       <c r="O367" s="16"/>
       <c r="P367" s="16"/>
       <c r="Q367" s="16"/>
-    </row>
-    <row r="368" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R367" s="16"/>
+      <c r="S367" s="16"/>
+      <c r="T367" s="16"/>
+      <c r="U367" s="16"/>
+    </row>
+    <row r="368" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C368" s="16"/>
       <c r="D368" s="16"/>
       <c r="E368" s="16"/>
@@ -7945,8 +9473,12 @@
       <c r="O368" s="16"/>
       <c r="P368" s="16"/>
       <c r="Q368" s="16"/>
-    </row>
-    <row r="369" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R368" s="16"/>
+      <c r="S368" s="16"/>
+      <c r="T368" s="16"/>
+      <c r="U368" s="16"/>
+    </row>
+    <row r="369" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C369" s="16"/>
       <c r="D369" s="16"/>
       <c r="E369" s="16"/>
@@ -7962,8 +9494,12 @@
       <c r="O369" s="16"/>
       <c r="P369" s="16"/>
       <c r="Q369" s="16"/>
-    </row>
-    <row r="370" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R369" s="16"/>
+      <c r="S369" s="16"/>
+      <c r="T369" s="16"/>
+      <c r="U369" s="16"/>
+    </row>
+    <row r="370" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C370" s="16"/>
       <c r="D370" s="16"/>
       <c r="E370" s="16"/>
@@ -7979,8 +9515,12 @@
       <c r="O370" s="16"/>
       <c r="P370" s="16"/>
       <c r="Q370" s="16"/>
-    </row>
-    <row r="371" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R370" s="16"/>
+      <c r="S370" s="16"/>
+      <c r="T370" s="16"/>
+      <c r="U370" s="16"/>
+    </row>
+    <row r="371" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C371" s="16"/>
       <c r="D371" s="16"/>
       <c r="E371" s="16"/>
@@ -7996,8 +9536,12 @@
       <c r="O371" s="16"/>
       <c r="P371" s="16"/>
       <c r="Q371" s="16"/>
-    </row>
-    <row r="372" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R371" s="16"/>
+      <c r="S371" s="16"/>
+      <c r="T371" s="16"/>
+      <c r="U371" s="16"/>
+    </row>
+    <row r="372" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C372" s="16"/>
       <c r="D372" s="16"/>
       <c r="E372" s="16"/>
@@ -8013,8 +9557,12 @@
       <c r="O372" s="16"/>
       <c r="P372" s="16"/>
       <c r="Q372" s="16"/>
-    </row>
-    <row r="373" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R372" s="16"/>
+      <c r="S372" s="16"/>
+      <c r="T372" s="16"/>
+      <c r="U372" s="16"/>
+    </row>
+    <row r="373" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C373" s="16"/>
       <c r="D373" s="16"/>
       <c r="E373" s="16"/>
@@ -8030,8 +9578,12 @@
       <c r="O373" s="16"/>
       <c r="P373" s="16"/>
       <c r="Q373" s="16"/>
-    </row>
-    <row r="374" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R373" s="16"/>
+      <c r="S373" s="16"/>
+      <c r="T373" s="16"/>
+      <c r="U373" s="16"/>
+    </row>
+    <row r="374" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C374" s="16"/>
       <c r="D374" s="16"/>
       <c r="E374" s="16"/>
@@ -8047,8 +9599,12 @@
       <c r="O374" s="16"/>
       <c r="P374" s="16"/>
       <c r="Q374" s="16"/>
-    </row>
-    <row r="375" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R374" s="16"/>
+      <c r="S374" s="16"/>
+      <c r="T374" s="16"/>
+      <c r="U374" s="16"/>
+    </row>
+    <row r="375" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C375" s="16"/>
       <c r="D375" s="16"/>
       <c r="E375" s="16"/>
@@ -8064,8 +9620,12 @@
       <c r="O375" s="16"/>
       <c r="P375" s="16"/>
       <c r="Q375" s="16"/>
-    </row>
-    <row r="376" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R375" s="16"/>
+      <c r="S375" s="16"/>
+      <c r="T375" s="16"/>
+      <c r="U375" s="16"/>
+    </row>
+    <row r="376" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C376" s="16"/>
       <c r="D376" s="16"/>
       <c r="E376" s="16"/>
@@ -8081,8 +9641,12 @@
       <c r="O376" s="16"/>
       <c r="P376" s="16"/>
       <c r="Q376" s="16"/>
-    </row>
-    <row r="377" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R376" s="16"/>
+      <c r="S376" s="16"/>
+      <c r="T376" s="16"/>
+      <c r="U376" s="16"/>
+    </row>
+    <row r="377" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C377" s="16"/>
       <c r="D377" s="16"/>
       <c r="E377" s="16"/>
@@ -8098,8 +9662,12 @@
       <c r="O377" s="16"/>
       <c r="P377" s="16"/>
       <c r="Q377" s="16"/>
-    </row>
-    <row r="378" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R377" s="16"/>
+      <c r="S377" s="16"/>
+      <c r="T377" s="16"/>
+      <c r="U377" s="16"/>
+    </row>
+    <row r="378" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C378" s="16"/>
       <c r="D378" s="16"/>
       <c r="E378" s="16"/>
@@ -8115,8 +9683,12 @@
       <c r="O378" s="16"/>
       <c r="P378" s="16"/>
       <c r="Q378" s="16"/>
-    </row>
-    <row r="379" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R378" s="16"/>
+      <c r="S378" s="16"/>
+      <c r="T378" s="16"/>
+      <c r="U378" s="16"/>
+    </row>
+    <row r="379" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C379" s="16"/>
       <c r="D379" s="16"/>
       <c r="E379" s="16"/>
@@ -8132,8 +9704,12 @@
       <c r="O379" s="16"/>
       <c r="P379" s="16"/>
       <c r="Q379" s="16"/>
-    </row>
-    <row r="380" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R379" s="16"/>
+      <c r="S379" s="16"/>
+      <c r="T379" s="16"/>
+      <c r="U379" s="16"/>
+    </row>
+    <row r="380" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C380" s="16"/>
       <c r="D380" s="16"/>
       <c r="E380" s="16"/>
@@ -8149,8 +9725,12 @@
       <c r="O380" s="16"/>
       <c r="P380" s="16"/>
       <c r="Q380" s="16"/>
-    </row>
-    <row r="381" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R380" s="16"/>
+      <c r="S380" s="16"/>
+      <c r="T380" s="16"/>
+      <c r="U380" s="16"/>
+    </row>
+    <row r="381" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C381" s="16"/>
       <c r="D381" s="16"/>
       <c r="E381" s="16"/>
@@ -8166,8 +9746,12 @@
       <c r="O381" s="16"/>
       <c r="P381" s="16"/>
       <c r="Q381" s="16"/>
-    </row>
-    <row r="382" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R381" s="16"/>
+      <c r="S381" s="16"/>
+      <c r="T381" s="16"/>
+      <c r="U381" s="16"/>
+    </row>
+    <row r="382" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C382" s="16"/>
       <c r="D382" s="16"/>
       <c r="E382" s="16"/>
@@ -8183,8 +9767,12 @@
       <c r="O382" s="16"/>
       <c r="P382" s="16"/>
       <c r="Q382" s="16"/>
-    </row>
-    <row r="383" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R382" s="16"/>
+      <c r="S382" s="16"/>
+      <c r="T382" s="16"/>
+      <c r="U382" s="16"/>
+    </row>
+    <row r="383" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C383" s="16"/>
       <c r="D383" s="16"/>
       <c r="E383" s="16"/>
@@ -8200,8 +9788,12 @@
       <c r="O383" s="16"/>
       <c r="P383" s="16"/>
       <c r="Q383" s="16"/>
-    </row>
-    <row r="384" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R383" s="16"/>
+      <c r="S383" s="16"/>
+      <c r="T383" s="16"/>
+      <c r="U383" s="16"/>
+    </row>
+    <row r="384" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C384" s="16"/>
       <c r="D384" s="16"/>
       <c r="E384" s="16"/>
@@ -8217,8 +9809,12 @@
       <c r="O384" s="16"/>
       <c r="P384" s="16"/>
       <c r="Q384" s="16"/>
-    </row>
-    <row r="385" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R384" s="16"/>
+      <c r="S384" s="16"/>
+      <c r="T384" s="16"/>
+      <c r="U384" s="16"/>
+    </row>
+    <row r="385" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C385" s="16"/>
       <c r="D385" s="16"/>
       <c r="E385" s="16"/>
@@ -8234,8 +9830,12 @@
       <c r="O385" s="16"/>
       <c r="P385" s="16"/>
       <c r="Q385" s="16"/>
-    </row>
-    <row r="386" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R385" s="16"/>
+      <c r="S385" s="16"/>
+      <c r="T385" s="16"/>
+      <c r="U385" s="16"/>
+    </row>
+    <row r="386" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C386" s="16"/>
       <c r="D386" s="16"/>
       <c r="E386" s="16"/>
@@ -8251,8 +9851,12 @@
       <c r="O386" s="16"/>
       <c r="P386" s="16"/>
       <c r="Q386" s="16"/>
-    </row>
-    <row r="387" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R386" s="16"/>
+      <c r="S386" s="16"/>
+      <c r="T386" s="16"/>
+      <c r="U386" s="16"/>
+    </row>
+    <row r="387" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C387" s="16"/>
       <c r="D387" s="16"/>
       <c r="E387" s="16"/>
@@ -8268,8 +9872,12 @@
       <c r="O387" s="16"/>
       <c r="P387" s="16"/>
       <c r="Q387" s="16"/>
-    </row>
-    <row r="388" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R387" s="16"/>
+      <c r="S387" s="16"/>
+      <c r="T387" s="16"/>
+      <c r="U387" s="16"/>
+    </row>
+    <row r="388" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C388" s="16"/>
       <c r="D388" s="16"/>
       <c r="E388" s="16"/>
@@ -8285,8 +9893,12 @@
       <c r="O388" s="16"/>
       <c r="P388" s="16"/>
       <c r="Q388" s="16"/>
-    </row>
-    <row r="389" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R388" s="16"/>
+      <c r="S388" s="16"/>
+      <c r="T388" s="16"/>
+      <c r="U388" s="16"/>
+    </row>
+    <row r="389" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C389" s="16"/>
       <c r="D389" s="16"/>
       <c r="E389" s="16"/>
@@ -8302,8 +9914,12 @@
       <c r="O389" s="16"/>
       <c r="P389" s="16"/>
       <c r="Q389" s="16"/>
-    </row>
-    <row r="390" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R389" s="16"/>
+      <c r="S389" s="16"/>
+      <c r="T389" s="16"/>
+      <c r="U389" s="16"/>
+    </row>
+    <row r="390" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C390" s="16"/>
       <c r="D390" s="16"/>
       <c r="E390" s="16"/>
@@ -8319,8 +9935,12 @@
       <c r="O390" s="16"/>
       <c r="P390" s="16"/>
       <c r="Q390" s="16"/>
-    </row>
-    <row r="391" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R390" s="16"/>
+      <c r="S390" s="16"/>
+      <c r="T390" s="16"/>
+      <c r="U390" s="16"/>
+    </row>
+    <row r="391" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C391" s="16"/>
       <c r="D391" s="16"/>
       <c r="E391" s="16"/>
@@ -8336,8 +9956,12 @@
       <c r="O391" s="16"/>
       <c r="P391" s="16"/>
       <c r="Q391" s="16"/>
-    </row>
-    <row r="392" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R391" s="16"/>
+      <c r="S391" s="16"/>
+      <c r="T391" s="16"/>
+      <c r="U391" s="16"/>
+    </row>
+    <row r="392" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C392" s="16"/>
       <c r="D392" s="16"/>
       <c r="E392" s="16"/>
@@ -8353,8 +9977,12 @@
       <c r="O392" s="16"/>
       <c r="P392" s="16"/>
       <c r="Q392" s="16"/>
-    </row>
-    <row r="393" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R392" s="16"/>
+      <c r="S392" s="16"/>
+      <c r="T392" s="16"/>
+      <c r="U392" s="16"/>
+    </row>
+    <row r="393" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C393" s="16"/>
       <c r="D393" s="16"/>
       <c r="E393" s="16"/>
@@ -8370,8 +9998,12 @@
       <c r="O393" s="16"/>
       <c r="P393" s="16"/>
       <c r="Q393" s="16"/>
-    </row>
-    <row r="394" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R393" s="16"/>
+      <c r="S393" s="16"/>
+      <c r="T393" s="16"/>
+      <c r="U393" s="16"/>
+    </row>
+    <row r="394" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C394" s="16"/>
       <c r="D394" s="16"/>
       <c r="E394" s="16"/>
@@ -8387,8 +10019,12 @@
       <c r="O394" s="16"/>
       <c r="P394" s="16"/>
       <c r="Q394" s="16"/>
-    </row>
-    <row r="395" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R394" s="16"/>
+      <c r="S394" s="16"/>
+      <c r="T394" s="16"/>
+      <c r="U394" s="16"/>
+    </row>
+    <row r="395" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C395" s="16"/>
       <c r="D395" s="16"/>
       <c r="E395" s="16"/>
@@ -8404,8 +10040,12 @@
       <c r="O395" s="16"/>
       <c r="P395" s="16"/>
       <c r="Q395" s="16"/>
-    </row>
-    <row r="396" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R395" s="16"/>
+      <c r="S395" s="16"/>
+      <c r="T395" s="16"/>
+      <c r="U395" s="16"/>
+    </row>
+    <row r="396" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C396" s="16"/>
       <c r="D396" s="16"/>
       <c r="E396" s="16"/>
@@ -8421,8 +10061,12 @@
       <c r="O396" s="16"/>
       <c r="P396" s="16"/>
       <c r="Q396" s="16"/>
-    </row>
-    <row r="397" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R396" s="16"/>
+      <c r="S396" s="16"/>
+      <c r="T396" s="16"/>
+      <c r="U396" s="16"/>
+    </row>
+    <row r="397" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C397" s="16"/>
       <c r="D397" s="16"/>
       <c r="E397" s="16"/>
@@ -8438,8 +10082,12 @@
       <c r="O397" s="16"/>
       <c r="P397" s="16"/>
       <c r="Q397" s="16"/>
-    </row>
-    <row r="398" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R397" s="16"/>
+      <c r="S397" s="16"/>
+      <c r="T397" s="16"/>
+      <c r="U397" s="16"/>
+    </row>
+    <row r="398" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C398" s="16"/>
       <c r="D398" s="16"/>
       <c r="E398" s="16"/>
@@ -8455,8 +10103,12 @@
       <c r="O398" s="16"/>
       <c r="P398" s="16"/>
       <c r="Q398" s="16"/>
-    </row>
-    <row r="399" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R398" s="16"/>
+      <c r="S398" s="16"/>
+      <c r="T398" s="16"/>
+      <c r="U398" s="16"/>
+    </row>
+    <row r="399" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C399" s="16"/>
       <c r="D399" s="16"/>
       <c r="E399" s="16"/>
@@ -8472,8 +10124,12 @@
       <c r="O399" s="16"/>
       <c r="P399" s="16"/>
       <c r="Q399" s="16"/>
-    </row>
-    <row r="400" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R399" s="16"/>
+      <c r="S399" s="16"/>
+      <c r="T399" s="16"/>
+      <c r="U399" s="16"/>
+    </row>
+    <row r="400" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C400" s="16"/>
       <c r="D400" s="16"/>
       <c r="E400" s="16"/>
@@ -8489,8 +10145,12 @@
       <c r="O400" s="16"/>
       <c r="P400" s="16"/>
       <c r="Q400" s="16"/>
-    </row>
-    <row r="401" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R400" s="16"/>
+      <c r="S400" s="16"/>
+      <c r="T400" s="16"/>
+      <c r="U400" s="16"/>
+    </row>
+    <row r="401" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C401" s="16"/>
       <c r="D401" s="16"/>
       <c r="E401" s="16"/>
@@ -8506,8 +10166,12 @@
       <c r="O401" s="16"/>
       <c r="P401" s="16"/>
       <c r="Q401" s="16"/>
-    </row>
-    <row r="402" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R401" s="16"/>
+      <c r="S401" s="16"/>
+      <c r="T401" s="16"/>
+      <c r="U401" s="16"/>
+    </row>
+    <row r="402" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C402" s="16"/>
       <c r="D402" s="16"/>
       <c r="E402" s="16"/>
@@ -8523,8 +10187,12 @@
       <c r="O402" s="16"/>
       <c r="P402" s="16"/>
       <c r="Q402" s="16"/>
-    </row>
-    <row r="403" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R402" s="16"/>
+      <c r="S402" s="16"/>
+      <c r="T402" s="16"/>
+      <c r="U402" s="16"/>
+    </row>
+    <row r="403" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C403" s="16"/>
       <c r="D403" s="16"/>
       <c r="E403" s="16"/>
@@ -8540,8 +10208,12 @@
       <c r="O403" s="16"/>
       <c r="P403" s="16"/>
       <c r="Q403" s="16"/>
-    </row>
-    <row r="404" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R403" s="16"/>
+      <c r="S403" s="16"/>
+      <c r="T403" s="16"/>
+      <c r="U403" s="16"/>
+    </row>
+    <row r="404" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C404" s="16"/>
       <c r="D404" s="16"/>
       <c r="E404" s="16"/>
@@ -8557,8 +10229,12 @@
       <c r="O404" s="16"/>
       <c r="P404" s="16"/>
       <c r="Q404" s="16"/>
-    </row>
-    <row r="405" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R404" s="16"/>
+      <c r="S404" s="16"/>
+      <c r="T404" s="16"/>
+      <c r="U404" s="16"/>
+    </row>
+    <row r="405" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C405" s="16"/>
       <c r="D405" s="16"/>
       <c r="E405" s="16"/>
@@ -8574,8 +10250,12 @@
       <c r="O405" s="16"/>
       <c r="P405" s="16"/>
       <c r="Q405" s="16"/>
-    </row>
-    <row r="406" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R405" s="16"/>
+      <c r="S405" s="16"/>
+      <c r="T405" s="16"/>
+      <c r="U405" s="16"/>
+    </row>
+    <row r="406" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C406" s="16"/>
       <c r="D406" s="16"/>
       <c r="E406" s="16"/>
@@ -8591,8 +10271,12 @@
       <c r="O406" s="16"/>
       <c r="P406" s="16"/>
       <c r="Q406" s="16"/>
-    </row>
-    <row r="407" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R406" s="16"/>
+      <c r="S406" s="16"/>
+      <c r="T406" s="16"/>
+      <c r="U406" s="16"/>
+    </row>
+    <row r="407" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C407" s="16"/>
       <c r="D407" s="16"/>
       <c r="E407" s="16"/>
@@ -8608,8 +10292,12 @@
       <c r="O407" s="16"/>
       <c r="P407" s="16"/>
       <c r="Q407" s="16"/>
-    </row>
-    <row r="408" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R407" s="16"/>
+      <c r="S407" s="16"/>
+      <c r="T407" s="16"/>
+      <c r="U407" s="16"/>
+    </row>
+    <row r="408" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C408" s="16"/>
       <c r="D408" s="16"/>
       <c r="E408" s="16"/>
@@ -8625,8 +10313,12 @@
       <c r="O408" s="16"/>
       <c r="P408" s="16"/>
       <c r="Q408" s="16"/>
-    </row>
-    <row r="409" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R408" s="16"/>
+      <c r="S408" s="16"/>
+      <c r="T408" s="16"/>
+      <c r="U408" s="16"/>
+    </row>
+    <row r="409" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C409" s="16"/>
       <c r="D409" s="16"/>
       <c r="E409" s="16"/>
@@ -8642,8 +10334,12 @@
       <c r="O409" s="16"/>
       <c r="P409" s="16"/>
       <c r="Q409" s="16"/>
-    </row>
-    <row r="410" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R409" s="16"/>
+      <c r="S409" s="16"/>
+      <c r="T409" s="16"/>
+      <c r="U409" s="16"/>
+    </row>
+    <row r="410" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C410" s="16"/>
       <c r="D410" s="16"/>
       <c r="E410" s="16"/>
@@ -8659,8 +10355,12 @@
       <c r="O410" s="16"/>
       <c r="P410" s="16"/>
       <c r="Q410" s="16"/>
-    </row>
-    <row r="411" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R410" s="16"/>
+      <c r="S410" s="16"/>
+      <c r="T410" s="16"/>
+      <c r="U410" s="16"/>
+    </row>
+    <row r="411" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C411" s="16"/>
       <c r="D411" s="16"/>
       <c r="E411" s="16"/>
@@ -8676,8 +10376,12 @@
       <c r="O411" s="16"/>
       <c r="P411" s="16"/>
       <c r="Q411" s="16"/>
-    </row>
-    <row r="412" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R411" s="16"/>
+      <c r="S411" s="16"/>
+      <c r="T411" s="16"/>
+      <c r="U411" s="16"/>
+    </row>
+    <row r="412" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C412" s="16"/>
       <c r="D412" s="16"/>
       <c r="E412" s="16"/>
@@ -8693,8 +10397,12 @@
       <c r="O412" s="16"/>
       <c r="P412" s="16"/>
       <c r="Q412" s="16"/>
-    </row>
-    <row r="413" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R412" s="16"/>
+      <c r="S412" s="16"/>
+      <c r="T412" s="16"/>
+      <c r="U412" s="16"/>
+    </row>
+    <row r="413" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C413" s="16"/>
       <c r="D413" s="16"/>
       <c r="E413" s="16"/>
@@ -8710,8 +10418,12 @@
       <c r="O413" s="16"/>
       <c r="P413" s="16"/>
       <c r="Q413" s="16"/>
-    </row>
-    <row r="414" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R413" s="16"/>
+      <c r="S413" s="16"/>
+      <c r="T413" s="16"/>
+      <c r="U413" s="16"/>
+    </row>
+    <row r="414" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C414" s="16"/>
       <c r="D414" s="16"/>
       <c r="E414" s="16"/>
@@ -8727,8 +10439,12 @@
       <c r="O414" s="16"/>
       <c r="P414" s="16"/>
       <c r="Q414" s="16"/>
-    </row>
-    <row r="415" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R414" s="16"/>
+      <c r="S414" s="16"/>
+      <c r="T414" s="16"/>
+      <c r="U414" s="16"/>
+    </row>
+    <row r="415" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C415" s="16"/>
       <c r="D415" s="16"/>
       <c r="E415" s="16"/>
@@ -8744,8 +10460,12 @@
       <c r="O415" s="16"/>
       <c r="P415" s="16"/>
       <c r="Q415" s="16"/>
-    </row>
-    <row r="416" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R415" s="16"/>
+      <c r="S415" s="16"/>
+      <c r="T415" s="16"/>
+      <c r="U415" s="16"/>
+    </row>
+    <row r="416" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C416" s="16"/>
       <c r="D416" s="16"/>
       <c r="E416" s="16"/>
@@ -8761,8 +10481,12 @@
       <c r="O416" s="16"/>
       <c r="P416" s="16"/>
       <c r="Q416" s="16"/>
-    </row>
-    <row r="417" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R416" s="16"/>
+      <c r="S416" s="16"/>
+      <c r="T416" s="16"/>
+      <c r="U416" s="16"/>
+    </row>
+    <row r="417" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C417" s="16"/>
       <c r="D417" s="16"/>
       <c r="E417" s="16"/>
@@ -8778,8 +10502,12 @@
       <c r="O417" s="16"/>
       <c r="P417" s="16"/>
       <c r="Q417" s="16"/>
-    </row>
-    <row r="418" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R417" s="16"/>
+      <c r="S417" s="16"/>
+      <c r="T417" s="16"/>
+      <c r="U417" s="16"/>
+    </row>
+    <row r="418" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C418" s="16"/>
       <c r="D418" s="16"/>
       <c r="E418" s="16"/>
@@ -8795,8 +10523,12 @@
       <c r="O418" s="16"/>
       <c r="P418" s="16"/>
       <c r="Q418" s="16"/>
-    </row>
-    <row r="419" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R418" s="16"/>
+      <c r="S418" s="16"/>
+      <c r="T418" s="16"/>
+      <c r="U418" s="16"/>
+    </row>
+    <row r="419" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C419" s="16"/>
       <c r="D419" s="16"/>
       <c r="E419" s="16"/>
@@ -8812,8 +10544,12 @@
       <c r="O419" s="16"/>
       <c r="P419" s="16"/>
       <c r="Q419" s="16"/>
-    </row>
-    <row r="420" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R419" s="16"/>
+      <c r="S419" s="16"/>
+      <c r="T419" s="16"/>
+      <c r="U419" s="16"/>
+    </row>
+    <row r="420" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C420" s="16"/>
       <c r="D420" s="16"/>
       <c r="E420" s="16"/>
@@ -8829,8 +10565,12 @@
       <c r="O420" s="16"/>
       <c r="P420" s="16"/>
       <c r="Q420" s="16"/>
-    </row>
-    <row r="421" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R420" s="16"/>
+      <c r="S420" s="16"/>
+      <c r="T420" s="16"/>
+      <c r="U420" s="16"/>
+    </row>
+    <row r="421" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C421" s="16"/>
       <c r="D421" s="16"/>
       <c r="E421" s="16"/>
@@ -8846,8 +10586,12 @@
       <c r="O421" s="16"/>
       <c r="P421" s="16"/>
       <c r="Q421" s="16"/>
-    </row>
-    <row r="422" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R421" s="16"/>
+      <c r="S421" s="16"/>
+      <c r="T421" s="16"/>
+      <c r="U421" s="16"/>
+    </row>
+    <row r="422" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C422" s="16"/>
       <c r="D422" s="16"/>
       <c r="E422" s="16"/>
@@ -8863,8 +10607,12 @@
       <c r="O422" s="16"/>
       <c r="P422" s="16"/>
       <c r="Q422" s="16"/>
-    </row>
-    <row r="423" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R422" s="16"/>
+      <c r="S422" s="16"/>
+      <c r="T422" s="16"/>
+      <c r="U422" s="16"/>
+    </row>
+    <row r="423" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C423" s="16"/>
       <c r="D423" s="16"/>
       <c r="E423" s="16"/>
@@ -8880,8 +10628,12 @@
       <c r="O423" s="16"/>
       <c r="P423" s="16"/>
       <c r="Q423" s="16"/>
-    </row>
-    <row r="424" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R423" s="16"/>
+      <c r="S423" s="16"/>
+      <c r="T423" s="16"/>
+      <c r="U423" s="16"/>
+    </row>
+    <row r="424" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C424" s="16"/>
       <c r="D424" s="16"/>
       <c r="E424" s="16"/>
@@ -8897,8 +10649,12 @@
       <c r="O424" s="16"/>
       <c r="P424" s="16"/>
       <c r="Q424" s="16"/>
-    </row>
-    <row r="425" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R424" s="16"/>
+      <c r="S424" s="16"/>
+      <c r="T424" s="16"/>
+      <c r="U424" s="16"/>
+    </row>
+    <row r="425" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C425" s="16"/>
       <c r="D425" s="16"/>
       <c r="E425" s="16"/>
@@ -8914,8 +10670,12 @@
       <c r="O425" s="16"/>
       <c r="P425" s="16"/>
       <c r="Q425" s="16"/>
-    </row>
-    <row r="426" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R425" s="16"/>
+      <c r="S425" s="16"/>
+      <c r="T425" s="16"/>
+      <c r="U425" s="16"/>
+    </row>
+    <row r="426" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C426" s="16"/>
       <c r="D426" s="16"/>
       <c r="E426" s="16"/>
@@ -8931,8 +10691,12 @@
       <c r="O426" s="16"/>
       <c r="P426" s="16"/>
       <c r="Q426" s="16"/>
-    </row>
-    <row r="427" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R426" s="16"/>
+      <c r="S426" s="16"/>
+      <c r="T426" s="16"/>
+      <c r="U426" s="16"/>
+    </row>
+    <row r="427" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C427" s="16"/>
       <c r="D427" s="16"/>
       <c r="E427" s="16"/>
@@ -8948,8 +10712,12 @@
       <c r="O427" s="16"/>
       <c r="P427" s="16"/>
       <c r="Q427" s="16"/>
-    </row>
-    <row r="428" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R427" s="16"/>
+      <c r="S427" s="16"/>
+      <c r="T427" s="16"/>
+      <c r="U427" s="16"/>
+    </row>
+    <row r="428" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C428" s="16"/>
       <c r="D428" s="16"/>
       <c r="E428" s="16"/>
@@ -8965,8 +10733,12 @@
       <c r="O428" s="16"/>
       <c r="P428" s="16"/>
       <c r="Q428" s="16"/>
-    </row>
-    <row r="429" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R428" s="16"/>
+      <c r="S428" s="16"/>
+      <c r="T428" s="16"/>
+      <c r="U428" s="16"/>
+    </row>
+    <row r="429" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C429" s="16"/>
       <c r="D429" s="16"/>
       <c r="E429" s="16"/>
@@ -8982,8 +10754,12 @@
       <c r="O429" s="16"/>
       <c r="P429" s="16"/>
       <c r="Q429" s="16"/>
-    </row>
-    <row r="430" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R429" s="16"/>
+      <c r="S429" s="16"/>
+      <c r="T429" s="16"/>
+      <c r="U429" s="16"/>
+    </row>
+    <row r="430" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C430" s="16"/>
       <c r="D430" s="16"/>
       <c r="E430" s="16"/>
@@ -8999,8 +10775,12 @@
       <c r="O430" s="16"/>
       <c r="P430" s="16"/>
       <c r="Q430" s="16"/>
-    </row>
-    <row r="431" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R430" s="16"/>
+      <c r="S430" s="16"/>
+      <c r="T430" s="16"/>
+      <c r="U430" s="16"/>
+    </row>
+    <row r="431" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C431" s="16"/>
       <c r="D431" s="16"/>
       <c r="E431" s="16"/>
@@ -9016,8 +10796,12 @@
       <c r="O431" s="16"/>
       <c r="P431" s="16"/>
       <c r="Q431" s="16"/>
-    </row>
-    <row r="432" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R431" s="16"/>
+      <c r="S431" s="16"/>
+      <c r="T431" s="16"/>
+      <c r="U431" s="16"/>
+    </row>
+    <row r="432" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C432" s="16"/>
       <c r="D432" s="16"/>
       <c r="E432" s="16"/>
@@ -9033,8 +10817,12 @@
       <c r="O432" s="16"/>
       <c r="P432" s="16"/>
       <c r="Q432" s="16"/>
-    </row>
-    <row r="433" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R432" s="16"/>
+      <c r="S432" s="16"/>
+      <c r="T432" s="16"/>
+      <c r="U432" s="16"/>
+    </row>
+    <row r="433" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C433" s="16"/>
       <c r="D433" s="16"/>
       <c r="E433" s="16"/>
@@ -9050,8 +10838,12 @@
       <c r="O433" s="16"/>
       <c r="P433" s="16"/>
       <c r="Q433" s="16"/>
-    </row>
-    <row r="434" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R433" s="16"/>
+      <c r="S433" s="16"/>
+      <c r="T433" s="16"/>
+      <c r="U433" s="16"/>
+    </row>
+    <row r="434" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C434" s="16"/>
       <c r="D434" s="16"/>
       <c r="E434" s="16"/>
@@ -9067,8 +10859,12 @@
       <c r="O434" s="16"/>
       <c r="P434" s="16"/>
       <c r="Q434" s="16"/>
-    </row>
-    <row r="435" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R434" s="16"/>
+      <c r="S434" s="16"/>
+      <c r="T434" s="16"/>
+      <c r="U434" s="16"/>
+    </row>
+    <row r="435" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C435" s="16"/>
       <c r="D435" s="16"/>
       <c r="E435" s="16"/>
@@ -9084,8 +10880,12 @@
       <c r="O435" s="16"/>
       <c r="P435" s="16"/>
       <c r="Q435" s="16"/>
-    </row>
-    <row r="436" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R435" s="16"/>
+      <c r="S435" s="16"/>
+      <c r="T435" s="16"/>
+      <c r="U435" s="16"/>
+    </row>
+    <row r="436" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C436" s="16"/>
       <c r="D436" s="16"/>
       <c r="E436" s="16"/>
@@ -9101,8 +10901,12 @@
       <c r="O436" s="16"/>
       <c r="P436" s="16"/>
       <c r="Q436" s="16"/>
-    </row>
-    <row r="437" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R436" s="16"/>
+      <c r="S436" s="16"/>
+      <c r="T436" s="16"/>
+      <c r="U436" s="16"/>
+    </row>
+    <row r="437" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C437" s="16"/>
       <c r="D437" s="16"/>
       <c r="E437" s="16"/>
@@ -9118,8 +10922,12 @@
       <c r="O437" s="16"/>
       <c r="P437" s="16"/>
       <c r="Q437" s="16"/>
-    </row>
-    <row r="438" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R437" s="16"/>
+      <c r="S437" s="16"/>
+      <c r="T437" s="16"/>
+      <c r="U437" s="16"/>
+    </row>
+    <row r="438" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C438" s="16"/>
       <c r="D438" s="16"/>
       <c r="E438" s="16"/>
@@ -9135,8 +10943,12 @@
       <c r="O438" s="16"/>
       <c r="P438" s="16"/>
       <c r="Q438" s="16"/>
-    </row>
-    <row r="439" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R438" s="16"/>
+      <c r="S438" s="16"/>
+      <c r="T438" s="16"/>
+      <c r="U438" s="16"/>
+    </row>
+    <row r="439" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C439" s="16"/>
       <c r="D439" s="16"/>
       <c r="E439" s="16"/>
@@ -9152,8 +10964,12 @@
       <c r="O439" s="16"/>
       <c r="P439" s="16"/>
       <c r="Q439" s="16"/>
-    </row>
-    <row r="440" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R439" s="16"/>
+      <c r="S439" s="16"/>
+      <c r="T439" s="16"/>
+      <c r="U439" s="16"/>
+    </row>
+    <row r="440" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C440" s="16"/>
       <c r="D440" s="16"/>
       <c r="E440" s="16"/>
@@ -9169,8 +10985,12 @@
       <c r="O440" s="16"/>
       <c r="P440" s="16"/>
       <c r="Q440" s="16"/>
-    </row>
-    <row r="441" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R440" s="16"/>
+      <c r="S440" s="16"/>
+      <c r="T440" s="16"/>
+      <c r="U440" s="16"/>
+    </row>
+    <row r="441" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C441" s="16"/>
       <c r="D441" s="16"/>
       <c r="E441" s="16"/>
@@ -9186,8 +11006,12 @@
       <c r="O441" s="16"/>
       <c r="P441" s="16"/>
       <c r="Q441" s="16"/>
-    </row>
-    <row r="442" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R441" s="16"/>
+      <c r="S441" s="16"/>
+      <c r="T441" s="16"/>
+      <c r="U441" s="16"/>
+    </row>
+    <row r="442" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C442" s="16"/>
       <c r="D442" s="16"/>
       <c r="E442" s="16"/>
@@ -9203,8 +11027,12 @@
       <c r="O442" s="16"/>
       <c r="P442" s="16"/>
       <c r="Q442" s="16"/>
-    </row>
-    <row r="443" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R442" s="16"/>
+      <c r="S442" s="16"/>
+      <c r="T442" s="16"/>
+      <c r="U442" s="16"/>
+    </row>
+    <row r="443" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C443" s="16"/>
       <c r="D443" s="16"/>
       <c r="E443" s="16"/>
@@ -9220,8 +11048,12 @@
       <c r="O443" s="16"/>
       <c r="P443" s="16"/>
       <c r="Q443" s="16"/>
-    </row>
-    <row r="444" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R443" s="16"/>
+      <c r="S443" s="16"/>
+      <c r="T443" s="16"/>
+      <c r="U443" s="16"/>
+    </row>
+    <row r="444" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C444" s="16"/>
       <c r="D444" s="16"/>
       <c r="E444" s="16"/>
@@ -9237,8 +11069,12 @@
       <c r="O444" s="16"/>
       <c r="P444" s="16"/>
       <c r="Q444" s="16"/>
-    </row>
-    <row r="445" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R444" s="16"/>
+      <c r="S444" s="16"/>
+      <c r="T444" s="16"/>
+      <c r="U444" s="16"/>
+    </row>
+    <row r="445" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C445" s="16"/>
       <c r="D445" s="16"/>
       <c r="E445" s="16"/>
@@ -9254,8 +11090,12 @@
       <c r="O445" s="16"/>
       <c r="P445" s="16"/>
       <c r="Q445" s="16"/>
-    </row>
-    <row r="446" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R445" s="16"/>
+      <c r="S445" s="16"/>
+      <c r="T445" s="16"/>
+      <c r="U445" s="16"/>
+    </row>
+    <row r="446" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C446" s="16"/>
       <c r="D446" s="16"/>
       <c r="E446" s="16"/>
@@ -9271,8 +11111,12 @@
       <c r="O446" s="16"/>
       <c r="P446" s="16"/>
       <c r="Q446" s="16"/>
-    </row>
-    <row r="447" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R446" s="16"/>
+      <c r="S446" s="16"/>
+      <c r="T446" s="16"/>
+      <c r="U446" s="16"/>
+    </row>
+    <row r="447" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C447" s="16"/>
       <c r="D447" s="16"/>
       <c r="E447" s="16"/>
@@ -9288,8 +11132,12 @@
       <c r="O447" s="16"/>
       <c r="P447" s="16"/>
       <c r="Q447" s="16"/>
-    </row>
-    <row r="448" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R447" s="16"/>
+      <c r="S447" s="16"/>
+      <c r="T447" s="16"/>
+      <c r="U447" s="16"/>
+    </row>
+    <row r="448" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C448" s="16"/>
       <c r="D448" s="16"/>
       <c r="E448" s="16"/>
@@ -9305,8 +11153,12 @@
       <c r="O448" s="16"/>
       <c r="P448" s="16"/>
       <c r="Q448" s="16"/>
-    </row>
-    <row r="449" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R448" s="16"/>
+      <c r="S448" s="16"/>
+      <c r="T448" s="16"/>
+      <c r="U448" s="16"/>
+    </row>
+    <row r="449" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C449" s="16"/>
       <c r="D449" s="16"/>
       <c r="E449" s="16"/>
@@ -9322,8 +11174,12 @@
       <c r="O449" s="16"/>
       <c r="P449" s="16"/>
       <c r="Q449" s="16"/>
-    </row>
-    <row r="450" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R449" s="16"/>
+      <c r="S449" s="16"/>
+      <c r="T449" s="16"/>
+      <c r="U449" s="16"/>
+    </row>
+    <row r="450" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C450" s="16"/>
       <c r="D450" s="16"/>
       <c r="E450" s="16"/>
@@ -9339,8 +11195,12 @@
       <c r="O450" s="16"/>
       <c r="P450" s="16"/>
       <c r="Q450" s="16"/>
-    </row>
-    <row r="451" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R450" s="16"/>
+      <c r="S450" s="16"/>
+      <c r="T450" s="16"/>
+      <c r="U450" s="16"/>
+    </row>
+    <row r="451" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C451" s="16"/>
       <c r="D451" s="16"/>
       <c r="E451" s="16"/>
@@ -9356,8 +11216,12 @@
       <c r="O451" s="16"/>
       <c r="P451" s="16"/>
       <c r="Q451" s="16"/>
-    </row>
-    <row r="452" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R451" s="16"/>
+      <c r="S451" s="16"/>
+      <c r="T451" s="16"/>
+      <c r="U451" s="16"/>
+    </row>
+    <row r="452" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C452" s="16"/>
       <c r="D452" s="16"/>
       <c r="E452" s="16"/>
@@ -9373,8 +11237,12 @@
       <c r="O452" s="16"/>
       <c r="P452" s="16"/>
       <c r="Q452" s="16"/>
-    </row>
-    <row r="453" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R452" s="16"/>
+      <c r="S452" s="16"/>
+      <c r="T452" s="16"/>
+      <c r="U452" s="16"/>
+    </row>
+    <row r="453" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C453" s="16"/>
       <c r="D453" s="16"/>
       <c r="E453" s="16"/>
@@ -9390,8 +11258,12 @@
       <c r="O453" s="16"/>
       <c r="P453" s="16"/>
       <c r="Q453" s="16"/>
-    </row>
-    <row r="454" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R453" s="16"/>
+      <c r="S453" s="16"/>
+      <c r="T453" s="16"/>
+      <c r="U453" s="16"/>
+    </row>
+    <row r="454" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C454" s="16"/>
       <c r="D454" s="16"/>
       <c r="E454" s="16"/>
@@ -9407,8 +11279,12 @@
       <c r="O454" s="16"/>
       <c r="P454" s="16"/>
       <c r="Q454" s="16"/>
-    </row>
-    <row r="455" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R454" s="16"/>
+      <c r="S454" s="16"/>
+      <c r="T454" s="16"/>
+      <c r="U454" s="16"/>
+    </row>
+    <row r="455" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C455" s="16"/>
       <c r="D455" s="16"/>
       <c r="E455" s="16"/>
@@ -9424,8 +11300,12 @@
       <c r="O455" s="16"/>
       <c r="P455" s="16"/>
       <c r="Q455" s="16"/>
-    </row>
-    <row r="456" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R455" s="16"/>
+      <c r="S455" s="16"/>
+      <c r="T455" s="16"/>
+      <c r="U455" s="16"/>
+    </row>
+    <row r="456" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C456" s="16"/>
       <c r="D456" s="16"/>
       <c r="E456" s="16"/>
@@ -9441,8 +11321,12 @@
       <c r="O456" s="16"/>
       <c r="P456" s="16"/>
       <c r="Q456" s="16"/>
-    </row>
-    <row r="457" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R456" s="16"/>
+      <c r="S456" s="16"/>
+      <c r="T456" s="16"/>
+      <c r="U456" s="16"/>
+    </row>
+    <row r="457" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C457" s="16"/>
       <c r="D457" s="16"/>
       <c r="E457" s="16"/>
@@ -9458,8 +11342,12 @@
       <c r="O457" s="16"/>
       <c r="P457" s="16"/>
       <c r="Q457" s="16"/>
-    </row>
-    <row r="458" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R457" s="16"/>
+      <c r="S457" s="16"/>
+      <c r="T457" s="16"/>
+      <c r="U457" s="16"/>
+    </row>
+    <row r="458" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C458" s="16"/>
       <c r="D458" s="16"/>
       <c r="E458" s="16"/>
@@ -9475,8 +11363,12 @@
       <c r="O458" s="16"/>
       <c r="P458" s="16"/>
       <c r="Q458" s="16"/>
-    </row>
-    <row r="459" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R458" s="16"/>
+      <c r="S458" s="16"/>
+      <c r="T458" s="16"/>
+      <c r="U458" s="16"/>
+    </row>
+    <row r="459" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C459" s="16"/>
       <c r="D459" s="16"/>
       <c r="E459" s="16"/>
@@ -9492,8 +11384,12 @@
       <c r="O459" s="16"/>
       <c r="P459" s="16"/>
       <c r="Q459" s="16"/>
-    </row>
-    <row r="460" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R459" s="16"/>
+      <c r="S459" s="16"/>
+      <c r="T459" s="16"/>
+      <c r="U459" s="16"/>
+    </row>
+    <row r="460" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C460" s="16"/>
       <c r="D460" s="16"/>
       <c r="E460" s="16"/>
@@ -9509,8 +11405,12 @@
       <c r="O460" s="16"/>
       <c r="P460" s="16"/>
       <c r="Q460" s="16"/>
-    </row>
-    <row r="461" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R460" s="16"/>
+      <c r="S460" s="16"/>
+      <c r="T460" s="16"/>
+      <c r="U460" s="16"/>
+    </row>
+    <row r="461" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C461" s="16"/>
       <c r="D461" s="16"/>
       <c r="E461" s="16"/>
@@ -9526,8 +11426,12 @@
       <c r="O461" s="16"/>
       <c r="P461" s="16"/>
       <c r="Q461" s="16"/>
-    </row>
-    <row r="462" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R461" s="16"/>
+      <c r="S461" s="16"/>
+      <c r="T461" s="16"/>
+      <c r="U461" s="16"/>
+    </row>
+    <row r="462" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C462" s="16"/>
       <c r="D462" s="16"/>
       <c r="E462" s="16"/>
@@ -9543,8 +11447,12 @@
       <c r="O462" s="16"/>
       <c r="P462" s="16"/>
       <c r="Q462" s="16"/>
-    </row>
-    <row r="463" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R462" s="16"/>
+      <c r="S462" s="16"/>
+      <c r="T462" s="16"/>
+      <c r="U462" s="16"/>
+    </row>
+    <row r="463" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C463" s="16"/>
       <c r="D463" s="16"/>
       <c r="E463" s="16"/>
@@ -9560,8 +11468,12 @@
       <c r="O463" s="16"/>
       <c r="P463" s="16"/>
       <c r="Q463" s="16"/>
-    </row>
-    <row r="464" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R463" s="16"/>
+      <c r="S463" s="16"/>
+      <c r="T463" s="16"/>
+      <c r="U463" s="16"/>
+    </row>
+    <row r="464" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C464" s="16"/>
       <c r="D464" s="16"/>
       <c r="E464" s="16"/>
@@ -9577,8 +11489,12 @@
       <c r="O464" s="16"/>
       <c r="P464" s="16"/>
       <c r="Q464" s="16"/>
-    </row>
-    <row r="465" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R464" s="16"/>
+      <c r="S464" s="16"/>
+      <c r="T464" s="16"/>
+      <c r="U464" s="16"/>
+    </row>
+    <row r="465" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C465" s="16"/>
       <c r="D465" s="16"/>
       <c r="E465" s="16"/>
@@ -9594,8 +11510,12 @@
       <c r="O465" s="16"/>
       <c r="P465" s="16"/>
       <c r="Q465" s="16"/>
-    </row>
-    <row r="466" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R465" s="16"/>
+      <c r="S465" s="16"/>
+      <c r="T465" s="16"/>
+      <c r="U465" s="16"/>
+    </row>
+    <row r="466" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C466" s="16"/>
       <c r="D466" s="16"/>
       <c r="E466" s="16"/>
@@ -9611,8 +11531,12 @@
       <c r="O466" s="16"/>
       <c r="P466" s="16"/>
       <c r="Q466" s="16"/>
-    </row>
-    <row r="467" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R466" s="16"/>
+      <c r="S466" s="16"/>
+      <c r="T466" s="16"/>
+      <c r="U466" s="16"/>
+    </row>
+    <row r="467" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C467" s="16"/>
       <c r="D467" s="16"/>
       <c r="E467" s="16"/>
@@ -9628,8 +11552,12 @@
       <c r="O467" s="16"/>
       <c r="P467" s="16"/>
       <c r="Q467" s="16"/>
-    </row>
-    <row r="468" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R467" s="16"/>
+      <c r="S467" s="16"/>
+      <c r="T467" s="16"/>
+      <c r="U467" s="16"/>
+    </row>
+    <row r="468" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C468" s="16"/>
       <c r="D468" s="16"/>
       <c r="E468" s="16"/>
@@ -9645,8 +11573,12 @@
       <c r="O468" s="16"/>
       <c r="P468" s="16"/>
       <c r="Q468" s="16"/>
-    </row>
-    <row r="469" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R468" s="16"/>
+      <c r="S468" s="16"/>
+      <c r="T468" s="16"/>
+      <c r="U468" s="16"/>
+    </row>
+    <row r="469" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C469" s="16"/>
       <c r="D469" s="16"/>
       <c r="E469" s="16"/>
@@ -9662,8 +11594,12 @@
       <c r="O469" s="16"/>
       <c r="P469" s="16"/>
       <c r="Q469" s="16"/>
-    </row>
-    <row r="470" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R469" s="16"/>
+      <c r="S469" s="16"/>
+      <c r="T469" s="16"/>
+      <c r="U469" s="16"/>
+    </row>
+    <row r="470" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C470" s="16"/>
       <c r="D470" s="16"/>
       <c r="E470" s="16"/>
@@ -9679,8 +11615,12 @@
       <c r="O470" s="16"/>
       <c r="P470" s="16"/>
       <c r="Q470" s="16"/>
-    </row>
-    <row r="471" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R470" s="16"/>
+      <c r="S470" s="16"/>
+      <c r="T470" s="16"/>
+      <c r="U470" s="16"/>
+    </row>
+    <row r="471" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C471" s="16"/>
       <c r="D471" s="16"/>
       <c r="E471" s="16"/>
@@ -9696,8 +11636,12 @@
       <c r="O471" s="16"/>
       <c r="P471" s="16"/>
       <c r="Q471" s="16"/>
-    </row>
-    <row r="472" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R471" s="16"/>
+      <c r="S471" s="16"/>
+      <c r="T471" s="16"/>
+      <c r="U471" s="16"/>
+    </row>
+    <row r="472" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C472" s="16"/>
       <c r="D472" s="16"/>
       <c r="E472" s="16"/>
@@ -9713,8 +11657,12 @@
       <c r="O472" s="16"/>
       <c r="P472" s="16"/>
       <c r="Q472" s="16"/>
-    </row>
-    <row r="473" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R472" s="16"/>
+      <c r="S472" s="16"/>
+      <c r="T472" s="16"/>
+      <c r="U472" s="16"/>
+    </row>
+    <row r="473" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C473" s="16"/>
       <c r="D473" s="16"/>
       <c r="E473" s="16"/>
@@ -9730,8 +11678,12 @@
       <c r="O473" s="16"/>
       <c r="P473" s="16"/>
       <c r="Q473" s="16"/>
-    </row>
-    <row r="474" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R473" s="16"/>
+      <c r="S473" s="16"/>
+      <c r="T473" s="16"/>
+      <c r="U473" s="16"/>
+    </row>
+    <row r="474" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C474" s="16"/>
       <c r="D474" s="16"/>
       <c r="E474" s="16"/>
@@ -9747,8 +11699,12 @@
       <c r="O474" s="16"/>
       <c r="P474" s="16"/>
       <c r="Q474" s="16"/>
-    </row>
-    <row r="475" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R474" s="16"/>
+      <c r="S474" s="16"/>
+      <c r="T474" s="16"/>
+      <c r="U474" s="16"/>
+    </row>
+    <row r="475" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C475" s="16"/>
       <c r="D475" s="16"/>
       <c r="E475" s="16"/>
@@ -9764,8 +11720,12 @@
       <c r="O475" s="16"/>
       <c r="P475" s="16"/>
       <c r="Q475" s="16"/>
-    </row>
-    <row r="476" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R475" s="16"/>
+      <c r="S475" s="16"/>
+      <c r="T475" s="16"/>
+      <c r="U475" s="16"/>
+    </row>
+    <row r="476" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C476" s="16"/>
       <c r="D476" s="16"/>
       <c r="E476" s="16"/>
@@ -9781,8 +11741,12 @@
       <c r="O476" s="16"/>
       <c r="P476" s="16"/>
       <c r="Q476" s="16"/>
-    </row>
-    <row r="477" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R476" s="16"/>
+      <c r="S476" s="16"/>
+      <c r="T476" s="16"/>
+      <c r="U476" s="16"/>
+    </row>
+    <row r="477" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C477" s="16"/>
       <c r="D477" s="16"/>
       <c r="E477" s="16"/>
@@ -9798,8 +11762,12 @@
       <c r="O477" s="16"/>
       <c r="P477" s="16"/>
       <c r="Q477" s="16"/>
-    </row>
-    <row r="478" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R477" s="16"/>
+      <c r="S477" s="16"/>
+      <c r="T477" s="16"/>
+      <c r="U477" s="16"/>
+    </row>
+    <row r="478" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C478" s="16"/>
       <c r="D478" s="16"/>
       <c r="E478" s="16"/>
@@ -9815,8 +11783,12 @@
       <c r="O478" s="16"/>
       <c r="P478" s="16"/>
       <c r="Q478" s="16"/>
-    </row>
-    <row r="479" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R478" s="16"/>
+      <c r="S478" s="16"/>
+      <c r="T478" s="16"/>
+      <c r="U478" s="16"/>
+    </row>
+    <row r="479" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C479" s="16"/>
       <c r="D479" s="16"/>
       <c r="E479" s="16"/>
@@ -9832,8 +11804,12 @@
       <c r="O479" s="16"/>
       <c r="P479" s="16"/>
       <c r="Q479" s="16"/>
-    </row>
-    <row r="480" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R479" s="16"/>
+      <c r="S479" s="16"/>
+      <c r="T479" s="16"/>
+      <c r="U479" s="16"/>
+    </row>
+    <row r="480" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C480" s="16"/>
       <c r="D480" s="16"/>
       <c r="E480" s="16"/>
@@ -9849,8 +11825,12 @@
       <c r="O480" s="16"/>
       <c r="P480" s="16"/>
       <c r="Q480" s="16"/>
-    </row>
-    <row r="481" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R480" s="16"/>
+      <c r="S480" s="16"/>
+      <c r="T480" s="16"/>
+      <c r="U480" s="16"/>
+    </row>
+    <row r="481" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C481" s="16"/>
       <c r="D481" s="16"/>
       <c r="E481" s="16"/>
@@ -9866,8 +11846,12 @@
       <c r="O481" s="16"/>
       <c r="P481" s="16"/>
       <c r="Q481" s="16"/>
-    </row>
-    <row r="482" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R481" s="16"/>
+      <c r="S481" s="16"/>
+      <c r="T481" s="16"/>
+      <c r="U481" s="16"/>
+    </row>
+    <row r="482" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C482" s="16"/>
       <c r="D482" s="16"/>
       <c r="E482" s="16"/>
@@ -9883,8 +11867,12 @@
       <c r="O482" s="16"/>
       <c r="P482" s="16"/>
       <c r="Q482" s="16"/>
-    </row>
-    <row r="483" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R482" s="16"/>
+      <c r="S482" s="16"/>
+      <c r="T482" s="16"/>
+      <c r="U482" s="16"/>
+    </row>
+    <row r="483" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C483" s="16"/>
       <c r="D483" s="16"/>
       <c r="E483" s="16"/>
@@ -9900,8 +11888,12 @@
       <c r="O483" s="16"/>
       <c r="P483" s="16"/>
       <c r="Q483" s="16"/>
-    </row>
-    <row r="484" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R483" s="16"/>
+      <c r="S483" s="16"/>
+      <c r="T483" s="16"/>
+      <c r="U483" s="16"/>
+    </row>
+    <row r="484" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C484" s="16"/>
       <c r="D484" s="16"/>
       <c r="E484" s="16"/>
@@ -9917,8 +11909,12 @@
       <c r="O484" s="16"/>
       <c r="P484" s="16"/>
       <c r="Q484" s="16"/>
-    </row>
-    <row r="485" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R484" s="16"/>
+      <c r="S484" s="16"/>
+      <c r="T484" s="16"/>
+      <c r="U484" s="16"/>
+    </row>
+    <row r="485" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C485" s="16"/>
       <c r="D485" s="16"/>
       <c r="E485" s="16"/>
@@ -9934,6 +11930,10 @@
       <c r="O485" s="16"/>
       <c r="P485" s="16"/>
       <c r="Q485" s="16"/>
+      <c r="R485" s="16"/>
+      <c r="S485" s="16"/>
+      <c r="T485" s="16"/>
+      <c r="U485" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ROST.xlsx
+++ b/ROST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7AE8E-6942-4A1D-BBE7-FB2CA4D15BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72D335-EC97-4066-B36B-37860D42C08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Ross Stores</t>
   </si>
@@ -87,28 +87,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
     <t>Q224</t>
   </si>
   <si>
     <t>Q324</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
-    <t>FY18</t>
   </si>
   <si>
     <t>FY19</t>
@@ -214,6 +196,27 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Store Growth</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +800,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,12 +808,12 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>137</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -819,19 +822,19 @@
         <v>327.07052099999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="16">
         <f>H4*H3</f>
-        <v>44808.661376999997</v>
+        <v>48144.780691199994</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,7 +845,7 @@
         <v>3783.413</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,7 +863,7 @@
         <v>1515.7090000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,7 +882,7 @@
       </c>
       <c r="H8" s="16">
         <f>H5-H6+H7</f>
-        <v>42540.957376999999</v>
+        <v>45877.076691199996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,18 +911,18 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -932,13 +935,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D02FF4-0653-4938-9B83-B4E1E02AD4C6}">
-  <dimension ref="A1:Y485"/>
+  <dimension ref="A1:Y486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,67 +957,67 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22">
@@ -1059,7 +1062,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22">
@@ -1076,7 +1079,7 @@
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22">
-        <f t="shared" ref="J4:K5" si="1">+V4</f>
+        <f t="shared" ref="J4:J5" si="1">+V4</f>
         <v>355</v>
       </c>
       <c r="K4" s="22">
@@ -1104,7 +1107,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24">
@@ -1172,7 +1175,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="17">
         <v>4494.6859999999997</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16">
         <v>3292.6060000000002</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" ref="C10" si="2">C8-C9</f>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16">
         <v>746.22199999999998</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" ref="C12" si="11">C10-C11</f>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="16">
         <v>31.396999999999998</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" ref="C14" si="20">C12+C13</f>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" s="16">
         <v>115.06399999999999</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" ref="C16" si="29">C14-C15</f>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" ref="C18:K18" si="38">C16/C19</f>
@@ -1926,375 +1929,393 @@
       <c r="U20" s="16"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="20">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18" t="e">
+        <f t="shared" ref="G21:J21" si="40">+G5/C5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="40"/>
+        <v>4.2212518195051008E-2</v>
+      </c>
+      <c r="I21" s="18" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="40"/>
+        <v>3.6510194404931307E-2</v>
+      </c>
+      <c r="K21" s="18" t="e">
+        <f>+K5/G5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="20">
         <f>G8/C8-1</f>
         <v>8.084680442638259E-2</v>
       </c>
-      <c r="H21" s="20">
-        <f t="shared" ref="H21:K21" si="40">H8/D8-1</f>
+      <c r="H22" s="20">
+        <f t="shared" ref="H22:K22" si="41">H8/D8-1</f>
         <v>7.1453047221780475E-2</v>
       </c>
-      <c r="I21" s="20">
-        <f t="shared" si="40"/>
+      <c r="I22" s="20">
+        <f t="shared" si="41"/>
         <v>2.9748120196172456E-2</v>
       </c>
-      <c r="J21" s="20">
-        <f t="shared" si="40"/>
+      <c r="J22" s="20">
+        <f t="shared" si="41"/>
         <v>0.19805325533115692</v>
       </c>
-      <c r="K21" s="20">
-        <f t="shared" si="40"/>
+      <c r="K22" s="20">
+        <f t="shared" si="41"/>
         <v>2.6122323961361493E-2</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="20">
-        <f t="shared" ref="Q21:T21" si="41">Q8/P8-1</f>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="20">
+        <f t="shared" ref="Q22:T22" si="42">Q8/P8-1</f>
         <v>6.0051297753646704E-2</v>
       </c>
-      <c r="R21" s="20">
-        <f t="shared" si="41"/>
+      <c r="R22" s="20">
+        <f t="shared" si="42"/>
         <v>7.0446098155302561E-2</v>
       </c>
-      <c r="S21" s="20">
-        <f t="shared" si="41"/>
+      <c r="S22" s="20">
+        <f t="shared" si="42"/>
         <v>0.17938511783068756</v>
       </c>
-      <c r="T21" s="20">
-        <f t="shared" si="41"/>
+      <c r="T22" s="20">
+        <f t="shared" si="42"/>
         <v>-1.1652154624353428E-2</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U22" s="20">
         <f>U8/T8-1</f>
         <v>8.9919093718711096E-2</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V22" s="20">
         <f>V8/U8-1</f>
         <v>3.691810267301654E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:J22" si="42">C10/C8</f>
-        <v>0.26744471137694592</v>
-      </c>
-      <c r="D22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.27671008864405688</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.27626857188920922</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.27671008864405688</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.2814689463936994</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.28285288431114858</v>
-      </c>
-      <c r="I22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.283370279416503</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="42"/>
-        <v>0.26532188349027547</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" ref="K22" si="43">K10/K8</f>
-        <v>0.28156733509583098</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="18">
-        <f t="shared" ref="P22:T22" si="44">P10/P8</f>
-        <v>0.28950630263099431</v>
-      </c>
-      <c r="Q22" s="18">
-        <f t="shared" si="44"/>
-        <v>0.28412936568198394</v>
-      </c>
-      <c r="R22" s="18">
-        <f t="shared" si="44"/>
-        <v>0.28074477870385656</v>
-      </c>
-      <c r="S22" s="18">
-        <f t="shared" si="44"/>
-        <v>0.27528387770849222</v>
-      </c>
-      <c r="T22" s="18">
-        <f t="shared" si="44"/>
-        <v>0.25404591580293134</v>
-      </c>
-      <c r="U22" s="18">
-        <f>U10/U8</f>
-        <v>0.27361025386489557</v>
-      </c>
-      <c r="V22" s="18">
-        <f>V10/V8</f>
-        <v>0.27775342761130933</v>
-      </c>
-    </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" ref="C23:J23" si="45">C12/C8</f>
-        <v>0.1014215453537799</v>
+        <f t="shared" ref="C23:J23" si="43">C10/C8</f>
+        <v>0.26744471137694592</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.11299913574830713</v>
+        <f t="shared" si="43"/>
+        <v>0.27671008864405688</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.11170108971868987</v>
+        <f t="shared" si="43"/>
+        <v>0.27626857188920922</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.11299913574830713</v>
+        <f t="shared" si="43"/>
+        <v>0.27671008864405688</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.1216765845345484</v>
+        <f t="shared" si="43"/>
+        <v>0.2814689463936994</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.124677187921216</v>
+        <f t="shared" si="43"/>
+        <v>0.28285288431114858</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.11914293500315701</v>
+        <f t="shared" si="43"/>
+        <v>0.283370279416503</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="45"/>
-        <v>0.12364504449130408</v>
+        <f t="shared" si="43"/>
+        <v>0.26532188349027547</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" ref="K23" si="46">K12/K8</f>
-        <v>0.12165968468021171</v>
+        <f t="shared" ref="K23" si="44">K10/K8</f>
+        <v>0.28156733509583098</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="16"/>
       <c r="P23" s="18">
-        <f t="shared" ref="P23:T23" si="47">P12/P8</f>
-        <v>0.14499008541513195</v>
+        <f t="shared" ref="P23:T23" si="45">P10/P8</f>
+        <v>0.28950630263099431</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="47"/>
-        <v>0.13619704447700307</v>
+        <f t="shared" si="45"/>
+        <v>0.28412936568198394</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="47"/>
-        <v>0.13380960358494534</v>
+        <f t="shared" si="45"/>
+        <v>0.28074477870385656</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="47"/>
-        <v>0.12332617405442643</v>
+        <f t="shared" si="45"/>
+        <v>0.27528387770849222</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="47"/>
-        <v>0.10645855821638087</v>
+        <f t="shared" si="45"/>
+        <v>0.25404591580293134</v>
       </c>
       <c r="U23" s="18">
-        <f>U12/U8</f>
-        <v>0.11324874523609792</v>
+        <f>U10/U8</f>
+        <v>0.27361025386489557</v>
       </c>
       <c r="V23" s="18">
-        <f>V12/V8</f>
-        <v>0.12237016427346423</v>
+        <f>V10/V8</f>
+        <v>0.27775342761130933</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" ref="C24:J24" si="48">C16/C8</f>
-        <v>8.2806896855531067E-2</v>
+        <f t="shared" ref="C24:J24" si="46">C12/C8</f>
+        <v>0.1014215453537799</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.0441254694872478E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.11299913574830713</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.0830602115922754E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.11170108971868987</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.0441254694872478E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.11299913574830713</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="48"/>
-        <v>0.10044941743290078</v>
+        <f t="shared" si="46"/>
+        <v>0.1216765845345484</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.9698365150082693E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.124677187921216</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.6386093339175374E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.11914293500315701</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="48"/>
-        <v>9.924683865561873E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.12364504449130408</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" ref="K24" si="49">K16/K8</f>
-        <v>9.6138773926668697E-2</v>
+        <f t="shared" ref="K24" si="47">K12/K8</f>
+        <v>0.12165968468021171</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="16"/>
       <c r="P24" s="18">
-        <f t="shared" ref="P24:T24" si="50">P16/P8</f>
-        <v>9.6482409429481844E-2</v>
+        <f t="shared" ref="P24:T24" si="48">P12/P8</f>
+        <v>0.14499008541513195</v>
       </c>
       <c r="Q24" s="18">
-        <f t="shared" si="50"/>
-        <v>0.10594671846928568</v>
+        <f t="shared" si="48"/>
+        <v>0.13619704447700307</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="50"/>
-        <v>0.1035551119444372</v>
+        <f t="shared" si="48"/>
+        <v>0.13380960358494534</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="50"/>
-        <v>9.1064008267180294E-2</v>
+        <f t="shared" si="48"/>
+        <v>0.12332617405442643</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="50"/>
-        <v>8.0875846692864059E-2</v>
+        <f t="shared" si="48"/>
+        <v>0.10645855821638087</v>
       </c>
       <c r="U24" s="18">
-        <f>U16/U8</f>
-        <v>9.199221806648987E-2</v>
+        <f>U12/U8</f>
+        <v>0.11324874523609792</v>
       </c>
       <c r="V24" s="18">
-        <f>V16/V8</f>
-        <v>9.894970561855608E-2</v>
+        <f>V12/V8</f>
+        <v>0.12237016427346423</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" ref="C25:J25" si="51">C15/C14</f>
-        <v>0.23614739715344146</v>
+        <f t="shared" ref="C25:J25" si="49">C16/C8</f>
+        <v>8.2806896855531067E-2</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.24969992636848723</v>
+        <f t="shared" si="49"/>
+        <v>9.0441254694872478E-2</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.24620089985339466</v>
+        <f t="shared" si="49"/>
+        <v>9.0830602115922754E-2</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.24969992636848723</v>
+        <f t="shared" si="49"/>
+        <v>9.0441254694872478E-2</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.23400040498349459</v>
+        <f t="shared" si="49"/>
+        <v>0.10044941743290078</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.24969683685552918</v>
+        <f t="shared" si="49"/>
+        <v>9.9698365150082693E-2</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.24420055570759933</v>
+        <f t="shared" si="49"/>
+        <v>9.6386093339175374E-2</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="51"/>
-        <v>0.23870200167108555</v>
+        <f t="shared" si="49"/>
+        <v>9.924683865561873E-2</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" ref="K25" si="52">K15/K14</f>
-        <v>0.25220049338486689</v>
+        <f t="shared" ref="K25" si="50">K16/K8</f>
+        <v>9.6138773926668697E-2</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="16"/>
       <c r="P25" s="18">
-        <f t="shared" ref="P25:T25" si="53">P15/P14</f>
+        <f t="shared" ref="P25:T25" si="51">P16/P8</f>
+        <v>9.6482409429481844E-2</v>
+      </c>
+      <c r="Q25" s="18">
+        <f t="shared" si="51"/>
+        <v>0.10594671846928568</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" si="51"/>
+        <v>0.1035551119444372</v>
+      </c>
+      <c r="S25" s="18">
+        <f t="shared" si="51"/>
+        <v>9.1064008267180294E-2</v>
+      </c>
+      <c r="T25" s="18">
+        <f t="shared" si="51"/>
+        <v>8.0875846692864059E-2</v>
+      </c>
+      <c r="U25" s="18">
+        <f>U16/U8</f>
+        <v>9.199221806648987E-2</v>
+      </c>
+      <c r="V25" s="18">
+        <f>V16/V8</f>
+        <v>9.894970561855608E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" ref="C26:J26" si="52">C15/C14</f>
+        <v>0.23614739715344146</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.24969992636848723</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.24620089985339466</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.24969992636848723</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.23400040498349459</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.24969683685552918</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.24420055570759933</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="52"/>
+        <v>0.23870200167108555</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" ref="K26" si="53">K15/K14</f>
+        <v>0.25220049338486689</v>
+      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="18">
+        <f t="shared" ref="P26:T26" si="54">P15/P14</f>
         <v>0.33205679525106302</v>
       </c>
-      <c r="Q25" s="18">
-        <f t="shared" si="53"/>
+      <c r="Q26" s="18">
+        <f t="shared" si="54"/>
         <v>0.22596149157725784</v>
       </c>
-      <c r="R25" s="18">
-        <f t="shared" si="53"/>
+      <c r="R26" s="18">
+        <f t="shared" si="54"/>
         <v>0.2325753319336428</v>
       </c>
-      <c r="S25" s="18">
-        <f t="shared" si="53"/>
+      <c r="S26" s="18">
+        <f t="shared" si="54"/>
         <v>0.23729976002196115</v>
       </c>
-      <c r="T25" s="18">
-        <f t="shared" si="53"/>
+      <c r="T26" s="18">
+        <f t="shared" si="54"/>
         <v>0.23922044348421528</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U26" s="18">
         <f>U15/U14</f>
         <v>0.24163184359779463</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V26" s="18">
         <f>V15/V14</f>
         <v>0.24170720968070683</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
@@ -11935,6 +11956,27 @@
       <c r="T485" s="16"/>
       <c r="U485" s="16"/>
     </row>
+    <row r="486" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C486" s="16"/>
+      <c r="D486" s="16"/>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
+      <c r="G486" s="16"/>
+      <c r="H486" s="16"/>
+      <c r="I486" s="16"/>
+      <c r="J486" s="16"/>
+      <c r="K486" s="16"/>
+      <c r="L486" s="16"/>
+      <c r="M486" s="16"/>
+      <c r="N486" s="16"/>
+      <c r="O486" s="16"/>
+      <c r="P486" s="16"/>
+      <c r="Q486" s="16"/>
+      <c r="R486" s="16"/>
+      <c r="S486" s="16"/>
+      <c r="T486" s="16"/>
+      <c r="U486" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E25E3635-CC94-48AA-A2EE-94DB439CA71A}"/>

--- a/ROST.xlsx
+++ b/ROST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72D335-EC97-4066-B36B-37860D42C08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78962A06-8266-49D3-A4DF-3869CD694A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -210,13 +210,13 @@
     <t>Q426</t>
   </si>
   <si>
-    <t>FQ126</t>
-  </si>
-  <si>
     <t>FY25</t>
   </si>
   <si>
     <t>Store Growth</t>
+  </si>
+  <si>
+    <t>FQ226</t>
   </si>
 </sst>
 </file>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629D2-C268-4098-9C30-B4F541321799}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>147.19999999999999</v>
+        <v>148.38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>327.07052099999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
       </c>
       <c r="H5" s="16">
         <f>H4*H3</f>
-        <v>48144.780691199994</v>
+        <v>48530.723905979998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="16">
-        <v>3783.413</v>
+        <v>3847.0160000000001</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -859,11 +859,11 @@
         <v>5</v>
       </c>
       <c r="H7" s="16">
-        <f>1016.897+498.812</f>
-        <v>1515.7090000000001</v>
+        <f>1017.218+499.122</f>
+        <v>1516.34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
       </c>
       <c r="H8" s="16">
         <f>H5-H6+H7</f>
-        <v>45877.076691199996</v>
+        <v>46200.047905979991</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,11 +937,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D02FF4-0653-4938-9B83-B4E1E02AD4C6}">
   <dimension ref="A1:Y486"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
         <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,9 @@
         <f>+K3+K4</f>
         <v>2205</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="24">
+        <v>2233</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -1205,7 +1207,9 @@
       <c r="K8" s="17">
         <v>4984.9709999999995</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="17">
+        <v>5529.152</v>
+      </c>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -1263,7 +1267,9 @@
       <c r="K9" s="16">
         <v>3581.366</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>4002.1669999999999</v>
+      </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1322,14 +1328,17 @@
         <v>1437.0710000000004</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" ref="J10:K10" si="9">J8-J9</f>
+        <f t="shared" ref="J10:L10" si="9">J8-J9</f>
         <v>1568.6570000000029</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" si="9"/>
         <v>1403.6049999999996</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16">
+        <f t="shared" si="9"/>
+        <v>1526.9850000000001</v>
+      </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="17"/>
@@ -1394,7 +1403,9 @@
       <c r="K11" s="16">
         <v>797.13499999999999</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="16">
+        <v>888.71100000000001</v>
+      </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -1453,14 +1464,17 @@
         <v>604.21600000000035</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" ref="J12:K12" si="18">J10-J11</f>
+        <f t="shared" ref="J12:L12" si="18">J10-J11</f>
         <v>731.02400000000307</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="18"/>
         <v>606.46999999999957</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <f t="shared" si="18"/>
+        <v>638.27400000000011</v>
+      </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
@@ -1525,7 +1539,9 @@
       <c r="K13" s="16">
         <v>34.408999999999999</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="16">
+        <v>32.345999999999997</v>
+      </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -1584,14 +1600,17 @@
         <v>646.74300000000039</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14:K14" si="27">J12+J13</f>
+        <f t="shared" ref="J14:L14" si="27">J12+J13</f>
         <v>770.75600000000304</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="27"/>
         <v>640.87899999999956</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <f t="shared" si="27"/>
+        <v>670.62000000000012</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -1656,7 +1675,9 @@
       <c r="K15" s="16">
         <v>161.63</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>162.625</v>
+      </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1715,14 +1736,17 @@
         <v>488.80800000000039</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" ref="J16:K16" si="36">J14-J15</f>
+        <f t="shared" ref="J16:L16" si="36">J14-J15</f>
         <v>586.77500000000305</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="36"/>
         <v>479.24899999999957</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="16">
+        <f t="shared" si="36"/>
+        <v>507.99500000000012</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
@@ -1781,7 +1805,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="21">
-        <f t="shared" ref="C18:K18" si="38">C16/C19</f>
+        <f t="shared" ref="C18:L18" si="38">C16/C19</f>
         <v>1.100997192714664</v>
       </c>
       <c r="D18" s="21">
@@ -1816,7 +1840,10 @@
         <f t="shared" si="38"/>
         <v>1.4751706030282217</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="21">
+        <f t="shared" si="38"/>
+        <v>1.5727399380804956</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -1881,7 +1908,9 @@
       <c r="K19" s="16">
         <v>324.87700000000001</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="16">
+        <v>323</v>
+      </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -1930,7 +1959,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1956,7 +1985,10 @@
         <f>+K5/G5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="18">
+        <f t="shared" ref="L21" si="41">+L5/H5-1</f>
+        <v>3.9571694599627616E-2</v>
+      </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
@@ -1980,40 +2012,43 @@
         <v>8.084680442638259E-2</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ref="H22:K22" si="41">H8/D8-1</f>
+        <f t="shared" ref="H22:L22" si="42">H8/D8-1</f>
         <v>7.1453047221780475E-2</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.9748120196172456E-2</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.19805325533115692</v>
       </c>
       <c r="K22" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.6122323961361493E-2</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="20">
+        <f t="shared" si="42"/>
+        <v>4.5698748316554516E-2</v>
+      </c>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="20">
-        <f t="shared" ref="Q22:T22" si="42">Q8/P8-1</f>
+        <f t="shared" ref="Q22:T22" si="43">Q8/P8-1</f>
         <v>6.0051297753646704E-2</v>
       </c>
       <c r="R22" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7.0446098155302561E-2</v>
       </c>
       <c r="S22" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.17938511783068756</v>
       </c>
       <c r="T22" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.1652154624353428E-2</v>
       </c>
       <c r="U22" s="20">
@@ -2030,63 +2065,66 @@
         <v>34</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" ref="C23:J23" si="43">C10/C8</f>
+        <f t="shared" ref="C23:J23" si="44">C10/C8</f>
         <v>0.26744471137694592</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.27671008864405688</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.27626857188920922</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.27671008864405688</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2814689463936994</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.28285288431114858</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.283370279416503</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.26532188349027547</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" ref="K23" si="44">K10/K8</f>
+        <f t="shared" ref="K23:L23" si="45">K10/K8</f>
         <v>0.28156733509583098</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="18">
+        <f t="shared" si="45"/>
+        <v>0.27616983580845672</v>
+      </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="16"/>
       <c r="P23" s="18">
-        <f t="shared" ref="P23:T23" si="45">P10/P8</f>
+        <f t="shared" ref="P23:T23" si="46">P10/P8</f>
         <v>0.28950630263099431</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.28412936568198394</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.28074477870385656</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.27528387770849222</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.25404591580293134</v>
       </c>
       <c r="U23" s="18">
@@ -2103,63 +2141,66 @@
         <v>35</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" ref="C24:J24" si="46">C12/C8</f>
+        <f t="shared" ref="C24:J24" si="47">C12/C8</f>
         <v>0.1014215453537799</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11170108971868987</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.1216765845345484</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.124677187921216</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11914293500315701</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.12364504449130408</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" ref="K24" si="47">K12/K8</f>
+        <f t="shared" ref="K24:L24" si="48">K12/K8</f>
         <v>0.12165968468021171</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="18">
+        <f t="shared" si="48"/>
+        <v>0.11543795504265394</v>
+      </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="16"/>
       <c r="P24" s="18">
-        <f t="shared" ref="P24:T24" si="48">P12/P8</f>
+        <f t="shared" ref="P24:T24" si="49">P12/P8</f>
         <v>0.14499008541513195</v>
       </c>
       <c r="Q24" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.13619704447700307</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.13380960358494534</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.12332617405442643</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.10645855821638087</v>
       </c>
       <c r="U24" s="18">
@@ -2176,63 +2217,66 @@
         <v>36</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" ref="C25:J25" si="49">C16/C8</f>
+        <f t="shared" ref="C25:J25" si="50">C16/C8</f>
         <v>8.2806896855531067E-2</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.0830602115922754E-2</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.10044941743290078</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.9698365150082693E-2</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.6386093339175374E-2</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9.924683865561873E-2</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" ref="K25" si="50">K16/K8</f>
+        <f t="shared" ref="K25:L25" si="51">K16/K8</f>
         <v>9.6138773926668697E-2</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="18">
+        <f t="shared" si="51"/>
+        <v>9.1875752375771211E-2</v>
+      </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="16"/>
       <c r="P25" s="18">
-        <f t="shared" ref="P25:T25" si="51">P16/P8</f>
+        <f t="shared" ref="P25:T25" si="52">P16/P8</f>
         <v>9.6482409429481844E-2</v>
       </c>
       <c r="Q25" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.10594671846928568</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1035551119444372</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9.1064008267180294E-2</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8.0875846692864059E-2</v>
       </c>
       <c r="U25" s="18">
@@ -2249,63 +2293,66 @@
         <v>37</v>
       </c>
       <c r="C26" s="18">
-        <f t="shared" ref="C26:J26" si="52">C15/C14</f>
+        <f t="shared" ref="C26:J26" si="53">C15/C14</f>
         <v>0.23614739715344146</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.24620089985339466</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.23400040498349459</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.24969683685552918</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.24420055570759933</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.23870200167108555</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" ref="K26" si="53">K15/K14</f>
+        <f t="shared" ref="K26:L26" si="54">K15/K14</f>
         <v>0.25220049338486689</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="18">
+        <f t="shared" si="54"/>
+        <v>0.24249947809489722</v>
+      </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="16"/>
       <c r="P26" s="18">
-        <f t="shared" ref="P26:T26" si="54">P15/P14</f>
+        <f t="shared" ref="P26:T26" si="55">P15/P14</f>
         <v>0.33205679525106302</v>
       </c>
       <c r="Q26" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.22596149157725784</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.2325753319336428</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.23729976002196115</v>
       </c>
       <c r="T26" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.23922044348421528</v>
       </c>
       <c r="U26" s="18">

--- a/ROST.xlsx
+++ b/ROST.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23FE563-E74B-4DB7-9E49-65A83B1613C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894FA02-96F7-40BE-99B4-A16B991E628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{32D7F01B-6AE9-4EA4-A41D-85AC8D1A6BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -216,7 +216,7 @@
     <t>Store Growth</t>
   </si>
   <si>
-    <t>FQ226</t>
+    <t>FQ326</t>
   </si>
 </sst>
 </file>
@@ -228,13 +228,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -416,45 +422,48 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -793,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629D2-C268-4098-9C30-B4F541321799}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>148.38</v>
+        <v>176.36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -834,9 +843,9 @@
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>327.07052099999999</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>321.27</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -849,7 +858,7 @@
       </c>
       <c r="H5" s="3">
         <f>H4*H3</f>
-        <v>48530.723905979998</v>
+        <v>56659.177199999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -857,9 +866,9 @@
         <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>3847.0160000000001</v>
-      </c>
-      <c r="I6" s="4" t="s">
+        <v>4061.1729999999998</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -874,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="3">
-        <f>1017.218+499.122</f>
-        <v>1516.34</v>
-      </c>
-      <c r="I7" s="4" t="s">
+        <f>1017.54+499.432</f>
+        <v>1516.972</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -897,7 +906,7 @@
       </c>
       <c r="H8" s="3">
         <f>H5-H6+H7</f>
-        <v>46200.047905979991</v>
+        <v>54114.976199999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -953,10 +962,10 @@
   <dimension ref="A1:Y486"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1147,9 @@
       <c r="H5" s="21">
         <v>2148</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <v>2192</v>
+      </c>
       <c r="J5" s="21">
         <f t="shared" si="1"/>
         <v>2186</v>
@@ -1150,7 +1161,9 @@
       <c r="L5" s="21">
         <v>2233</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="21">
+        <v>2273</v>
+      </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -1226,7 +1239,9 @@
       <c r="L8" s="23">
         <v>5529.152</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="23">
+        <v>5600.9459999999999</v>
+      </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23">
@@ -1286,7 +1301,9 @@
       <c r="L9" s="3">
         <v>4002.1669999999999</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>4032.4459999999999</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3">
@@ -1344,7 +1361,7 @@
         <v>1437.0710000000004</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:L10" si="9">J8-J9</f>
+        <f t="shared" ref="J10:M10" si="9">J8-J9</f>
         <v>1568.6570000000029</v>
       </c>
       <c r="K10" s="3">
@@ -1355,7 +1372,10 @@
         <f t="shared" si="9"/>
         <v>1526.9850000000001</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <f t="shared" si="9"/>
+        <v>1568.5</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="23"/>
       <c r="P10" s="3">
@@ -1422,7 +1442,9 @@
       <c r="L11" s="3">
         <v>888.71100000000001</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>920.00199999999995</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -1480,7 +1502,7 @@
         <v>604.21600000000035</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J12:L12" si="18">J10-J11</f>
+        <f t="shared" ref="J12:M12" si="18">J10-J11</f>
         <v>731.02400000000307</v>
       </c>
       <c r="K12" s="3">
@@ -1491,7 +1513,10 @@
         <f t="shared" si="18"/>
         <v>638.27400000000011</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <f t="shared" si="18"/>
+        <v>648.49800000000005</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="23"/>
       <c r="P12" s="3">
@@ -1558,7 +1583,9 @@
       <c r="L13" s="3">
         <v>32.345999999999997</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>33.9</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
@@ -1616,7 +1643,7 @@
         <v>646.74300000000039</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:L14" si="27">J12+J13</f>
+        <f t="shared" ref="J14:M14" si="27">J12+J13</f>
         <v>770.75600000000304</v>
       </c>
       <c r="K14" s="3">
@@ -1627,7 +1654,10 @@
         <f t="shared" si="27"/>
         <v>670.62000000000012</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <f t="shared" si="27"/>
+        <v>682.39800000000002</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -1694,7 +1724,9 @@
       <c r="L15" s="3">
         <v>162.625</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>170.46299999999999</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -1752,7 +1784,7 @@
         <v>488.80800000000039</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:L16" si="36">J14-J15</f>
+        <f t="shared" ref="J16:M16" si="36">J14-J15</f>
         <v>586.77500000000305</v>
       </c>
       <c r="K16" s="3">
@@ -1763,7 +1795,10 @@
         <f t="shared" si="36"/>
         <v>507.99500000000012</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <f t="shared" si="36"/>
+        <v>511.93500000000006</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="23"/>
       <c r="P16" s="3">
@@ -1821,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="24">
-        <f t="shared" ref="C18:L18" si="38">C16/C19</f>
+        <f t="shared" ref="C18:M18" si="38">C16/C19</f>
         <v>1.100997192714664</v>
       </c>
       <c r="D18" s="24">
@@ -1860,7 +1895,10 @@
         <f t="shared" si="38"/>
         <v>1.5727399380804956</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="24">
+        <f t="shared" si="38"/>
+        <v>1.5934727799047532</v>
+      </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24">
@@ -1927,7 +1965,9 @@
       <c r="L19" s="3">
         <v>323</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>321.27</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3">
@@ -2002,10 +2042,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="25">
-        <f t="shared" ref="L21" si="41">+L5/H5-1</f>
+        <f t="shared" ref="L21:M21" si="41">+L5/H5-1</f>
         <v>3.9571694599627616E-2</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="25">
+        <f t="shared" si="41"/>
+        <v>3.6952554744525523E-2</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2028,7 +2071,7 @@
         <v>8.084680442638259E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" ref="H22:L22" si="42">H8/D8-1</f>
+        <f t="shared" ref="H22:M22" si="42">H8/D8-1</f>
         <v>7.1453047221780475E-2</v>
       </c>
       <c r="I22" s="26">
@@ -2047,7 +2090,10 @@
         <f t="shared" si="42"/>
         <v>4.5698748316554516E-2</v>
       </c>
-      <c r="M22" s="26"/>
+      <c r="M22" s="26">
+        <f t="shared" si="42"/>
+        <v>0.1044281270840095</v>
+      </c>
       <c r="N22" s="26"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23"/>
@@ -2120,27 +2166,30 @@
         <f t="shared" si="45"/>
         <v>0.27616983580845672</v>
       </c>
-      <c r="M23" s="25"/>
+      <c r="M23" s="25">
+        <f t="shared" ref="M23" si="46">M10/M8</f>
+        <v>0.28004197862289693</v>
+      </c>
       <c r="N23" s="25"/>
       <c r="O23" s="3"/>
       <c r="P23" s="25">
-        <f t="shared" ref="P23:T23" si="46">P10/P8</f>
+        <f t="shared" ref="P23:T23" si="47">P10/P8</f>
         <v>0.28950630263099431</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.28412936568198394</v>
       </c>
       <c r="R23" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.28074477870385656</v>
       </c>
       <c r="S23" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.27528387770849222</v>
       </c>
       <c r="T23" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.25404591580293134</v>
       </c>
       <c r="U23" s="25">
@@ -2157,66 +2206,69 @@
         <v>35</v>
       </c>
       <c r="C24" s="25">
-        <f t="shared" ref="C24:J24" si="47">C12/C8</f>
+        <f t="shared" ref="C24:J24" si="48">C12/C8</f>
         <v>0.1014215453537799</v>
       </c>
       <c r="D24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.11170108971868987</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.11299913574830713</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.1216765845345484</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.124677187921216</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.11914293500315701</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.12364504449130408</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" ref="K24:L24" si="48">K12/K8</f>
+        <f t="shared" ref="K24:L24" si="49">K12/K8</f>
         <v>0.12165968468021171</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.11543795504265394</v>
       </c>
-      <c r="M24" s="25"/>
+      <c r="M24" s="25">
+        <f t="shared" ref="M24" si="50">M12/M8</f>
+        <v>0.11578365511826039</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="3"/>
       <c r="P24" s="25">
-        <f t="shared" ref="P24:T24" si="49">P12/P8</f>
+        <f t="shared" ref="P24:T24" si="51">P12/P8</f>
         <v>0.14499008541513195</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.13619704447700307</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.13380960358494534</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.12332617405442643</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.10645855821638087</v>
       </c>
       <c r="U24" s="25">
@@ -2233,66 +2285,69 @@
         <v>36</v>
       </c>
       <c r="C25" s="25">
-        <f t="shared" ref="C25:J25" si="50">C16/C8</f>
+        <f t="shared" ref="C25:J25" si="52">C16/C8</f>
         <v>8.2806896855531067E-2</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.0830602115922754E-2</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.0441254694872478E-2</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.10044941743290078</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9698365150082693E-2</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.6386093339175374E-2</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.924683865561873E-2</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" ref="K25:L25" si="51">K16/K8</f>
+        <f t="shared" ref="K25:L25" si="53">K16/K8</f>
         <v>9.6138773926668697E-2</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.1875752375771211E-2</v>
       </c>
-      <c r="M25" s="25"/>
+      <c r="M25" s="25">
+        <f t="shared" ref="M25" si="54">M16/M8</f>
+        <v>9.1401523956845879E-2</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="3"/>
       <c r="P25" s="25">
-        <f t="shared" ref="P25:T25" si="52">P16/P8</f>
+        <f t="shared" ref="P25:T25" si="55">P16/P8</f>
         <v>9.6482409429481844E-2</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.10594671846928568</v>
       </c>
       <c r="R25" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.1035551119444372</v>
       </c>
       <c r="S25" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>9.1064008267180294E-2</v>
       </c>
       <c r="T25" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>8.0875846692864059E-2</v>
       </c>
       <c r="U25" s="25">
@@ -2309,66 +2364,69 @@
         <v>37</v>
       </c>
       <c r="C26" s="25">
-        <f t="shared" ref="C26:J26" si="53">C15/C14</f>
+        <f t="shared" ref="C26:J26" si="56">C15/C14</f>
         <v>0.23614739715344146</v>
       </c>
       <c r="D26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24620089985339466</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24969992636848723</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.23400040498349459</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24969683685552918</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.24420055570759933</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.23870200167108555</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" ref="K26:L26" si="54">K15/K14</f>
+        <f t="shared" ref="K26:L26" si="57">K15/K14</f>
         <v>0.25220049338486689</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.24249947809489722</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="25">
+        <f t="shared" ref="M26" si="58">M15/M14</f>
+        <v>0.24979997010542232</v>
+      </c>
       <c r="N26" s="25"/>
       <c r="O26" s="3"/>
       <c r="P26" s="25">
-        <f t="shared" ref="P26:T26" si="55">P15/P14</f>
+        <f t="shared" ref="P26:T26" si="59">P15/P14</f>
         <v>0.33205679525106302</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.22596149157725784</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.2325753319336428</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.23729976002196115</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.23922044348421528</v>
       </c>
       <c r="U26" s="25">
